--- a/SNK06D.xlsx
+++ b/SNK06D.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1446" uniqueCount="528">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1416" uniqueCount="518">
   <si>
     <t/>
   </si>
@@ -55,16 +55,16 @@
     <t>20093941</t>
   </si>
   <si>
-    <t>POTABEE AYM BKR 68G</t>
+    <t>POTABEE AYM BKR 65G</t>
   </si>
   <si>
     <t>4</t>
   </si>
   <si>
-    <t>20094327</t>
-  </si>
-  <si>
-    <t>PIATTOS SMB MATAH 68</t>
+    <t>20094328</t>
+  </si>
+  <si>
+    <t>PIATTOS SMB GPREK 68</t>
   </si>
   <si>
     <t>5</t>
@@ -73,10 +73,10 @@
     <t>RT,(E-2B)</t>
   </si>
   <si>
-    <t>20094328</t>
-  </si>
-  <si>
-    <t>PIATTOS SMB GPREK 68</t>
+    <t>20131518</t>
+  </si>
+  <si>
+    <t>KSUKA KRP KR.AYM 100</t>
   </si>
   <si>
     <t>6</t>
@@ -97,19 +97,19 @@
     <t>20131098</t>
   </si>
   <si>
-    <t>POTABEE SPICY BBQ 68</t>
+    <t>POTABEE SPICY BBQ 65</t>
   </si>
   <si>
     <t>20071781</t>
   </si>
   <si>
-    <t>POTABEE CHIP SWD 68G</t>
+    <t>POTABEE CHIP SWD 65G</t>
   </si>
   <si>
     <t>20071780</t>
   </si>
   <si>
-    <t>POTABEE CHIP BBQ 68G</t>
+    <t>POTABEE CHIP BBQ 65G</t>
   </si>
   <si>
     <t>20025762</t>
@@ -160,7 +160,7 @@
     <t>20116670</t>
   </si>
   <si>
-    <t>CHTATO LITE NORI 68G</t>
+    <t>CHTATO LITE NORI 65G</t>
   </si>
   <si>
     <t>20116684</t>
@@ -226,7 +226,82 @@
     <t>20029228</t>
   </si>
   <si>
-    <t>CHITATO AYAM BBQ 68G</t>
+    <t>CHITATO AYAM BBQ 65G</t>
+  </si>
+  <si>
+    <t>20052859</t>
+  </si>
+  <si>
+    <t>PRINGLES ORIGINAL 42</t>
+  </si>
+  <si>
+    <t>20111009</t>
+  </si>
+  <si>
+    <t>PRINGLES CHSY CHS 42</t>
+  </si>
+  <si>
+    <t>20052860</t>
+  </si>
+  <si>
+    <t>PRINGLES SOURS CRM42</t>
+  </si>
+  <si>
+    <t>20129961</t>
+  </si>
+  <si>
+    <t>MR.POTATO ORG KLG 35</t>
+  </si>
+  <si>
+    <t>20106307</t>
+  </si>
+  <si>
+    <t>MR.POTATO GHOST/P 40</t>
+  </si>
+  <si>
+    <t>20120199</t>
+  </si>
+  <si>
+    <t>MR/P GHST/P CHEESE40</t>
+  </si>
+  <si>
+    <t>20120198</t>
+  </si>
+  <si>
+    <t>MR/P GHST/P SWEED40</t>
+  </si>
+  <si>
+    <t>7</t>
+  </si>
+  <si>
+    <t>20139841</t>
+  </si>
+  <si>
+    <t>MR POTATO CRBNARA 40</t>
+  </si>
+  <si>
+    <t>8</t>
+  </si>
+  <si>
+    <t>PT,(E-1B)</t>
+  </si>
+  <si>
+    <t>20139544</t>
+  </si>
+  <si>
+    <t>LAYS STAX SOUR&amp;O 70G</t>
+  </si>
+  <si>
+    <t>9</t>
+  </si>
+  <si>
+    <t>20139536</t>
+  </si>
+  <si>
+    <t>LAYS STAX ORGNL 70G</t>
+  </si>
+  <si>
+    <t>10</t>
   </si>
   <si>
     <t>20023846</t>
@@ -247,12 +322,6 @@
     <t>PRNGLES S.CRM&amp;O 102G</t>
   </si>
   <si>
-    <t>20135614</t>
-  </si>
-  <si>
-    <t>PRNGLES SMOKEY 102G</t>
-  </si>
-  <si>
     <t>20136007</t>
   </si>
   <si>
@@ -271,234 +340,159 @@
     <t>MR.POTATO SOUR&amp;O 106</t>
   </si>
   <si>
-    <t>7</t>
-  </si>
-  <si>
     <t>20137054</t>
   </si>
   <si>
     <t>CHTATO LITE ASLI 110</t>
   </si>
   <si>
-    <t>8</t>
-  </si>
-  <si>
     <t>20137572</t>
   </si>
   <si>
     <t>CHTATO LITE KEJU 110</t>
   </si>
   <si>
-    <t>9</t>
-  </si>
-  <si>
     <t>10000739</t>
   </si>
   <si>
     <t>CHITATO SAPI PANG.35</t>
   </si>
   <si>
-    <t>10</t>
-  </si>
-  <si>
     <t>20092063</t>
   </si>
   <si>
     <t>CHITATO SAPI PGG 115</t>
   </si>
   <si>
+    <t>20002987</t>
+  </si>
+  <si>
+    <t>KUSUKA KRP BARBQU 60</t>
+  </si>
+  <si>
+    <t>20002988</t>
+  </si>
+  <si>
+    <t>KUSUKA KRP AYM LD 60</t>
+  </si>
+  <si>
+    <t>20026343</t>
+  </si>
+  <si>
+    <t>KUSUKA RMPT LAUT 60</t>
+  </si>
+  <si>
+    <t>20002989</t>
+  </si>
+  <si>
+    <t>KUSUKA KRP KJ.BKR 60</t>
+  </si>
+  <si>
+    <t>20056958</t>
+  </si>
+  <si>
+    <t>QTELA TEMPE R/LAUT55</t>
+  </si>
+  <si>
+    <t>20033450</t>
+  </si>
+  <si>
+    <t>QTELA KRP/TMPE ORI55</t>
+  </si>
+  <si>
+    <t>20045104</t>
+  </si>
+  <si>
+    <t>QTELA TEMPE CABE/R55</t>
+  </si>
+  <si>
+    <t>20137014</t>
+  </si>
+  <si>
+    <t>CHIMI KRP CHS.BR 41G</t>
+  </si>
+  <si>
+    <t>20131047</t>
+  </si>
+  <si>
+    <t>CHIMI KR.MENTEGA 41</t>
+  </si>
+  <si>
+    <t>20104728</t>
+  </si>
+  <si>
+    <t>CHIMI KRP.UB JG.BK41</t>
+  </si>
+  <si>
+    <t>RT,(E-3B)</t>
+  </si>
+  <si>
+    <t>20104729</t>
+  </si>
+  <si>
+    <t>CHIMI KRP.UB JG.BL41</t>
+  </si>
+  <si>
+    <t>20021032</t>
+  </si>
+  <si>
+    <t>QTELA KERIPIK BLD 60</t>
+  </si>
+  <si>
+    <t>20012678</t>
+  </si>
+  <si>
+    <t>QTELA KERIPIK ORG 60</t>
+  </si>
+  <si>
+    <t>20012679</t>
+  </si>
+  <si>
+    <t>QTELA KRIPIK BBQ 60</t>
+  </si>
+  <si>
+    <t>20137778</t>
+  </si>
+  <si>
+    <t>CHIMI JG.BKR 85G</t>
+  </si>
+  <si>
+    <t>20115362</t>
+  </si>
+  <si>
+    <t>CHUBA KRP BALADO 125</t>
+  </si>
+  <si>
+    <t>RT,(E-1.5B)</t>
+  </si>
+  <si>
+    <t>20115363</t>
+  </si>
+  <si>
+    <t>CHUBA KRPK BBQ 125G</t>
+  </si>
+  <si>
+    <t>20093110</t>
+  </si>
+  <si>
+    <t>KUSUKA BALADO 180G</t>
+  </si>
+  <si>
+    <t>20000516</t>
+  </si>
+  <si>
+    <t>KUSUKA KRPK BBQ 180</t>
+  </si>
+  <si>
+    <t>20021029</t>
+  </si>
+  <si>
+    <t>QTELA KRPK BLDO 175G</t>
+  </si>
+  <si>
     <t>11</t>
   </si>
   <si>
-    <t>20052859</t>
-  </si>
-  <si>
-    <t>PRINGLES ORIGINAL 42</t>
-  </si>
-  <si>
-    <t>20111009</t>
-  </si>
-  <si>
-    <t>PRINGLES CHSY CHS 42</t>
-  </si>
-  <si>
-    <t>20052860</t>
-  </si>
-  <si>
-    <t>PRINGLES SOURS CRM42</t>
-  </si>
-  <si>
-    <t>20137625</t>
-  </si>
-  <si>
-    <t>PRINGLES SMK GRIL 42</t>
-  </si>
-  <si>
-    <t>20129961</t>
-  </si>
-  <si>
-    <t>MR.POTATO ORG KLG 35</t>
-  </si>
-  <si>
-    <t>20106307</t>
-  </si>
-  <si>
-    <t>MR.POTATO GHOST/P 40</t>
-  </si>
-  <si>
-    <t>20120199</t>
-  </si>
-  <si>
-    <t>MR/P GHST/P CHEESE40</t>
-  </si>
-  <si>
-    <t>20120198</t>
-  </si>
-  <si>
-    <t>MR/P GHST/P SWEED40</t>
-  </si>
-  <si>
-    <t>20139841</t>
-  </si>
-  <si>
-    <t>MR POTATO CRBNARA 40</t>
-  </si>
-  <si>
-    <t>PT,(E-1B)</t>
-  </si>
-  <si>
-    <t>20139544</t>
-  </si>
-  <si>
-    <t>LAYS STAX SOUR&amp;O 70G</t>
-  </si>
-  <si>
-    <t>20139536</t>
-  </si>
-  <si>
-    <t>LAYS STAX ORGNL 70G</t>
-  </si>
-  <si>
-    <t>20002987</t>
-  </si>
-  <si>
-    <t>KUSUKA KRP BARBQU 60</t>
-  </si>
-  <si>
-    <t>20002988</t>
-  </si>
-  <si>
-    <t>KUSUKA KRP AYM LD 60</t>
-  </si>
-  <si>
-    <t>20026343</t>
-  </si>
-  <si>
-    <t>KUSUKA RMPT LAUT 60</t>
-  </si>
-  <si>
-    <t>20002989</t>
-  </si>
-  <si>
-    <t>KUSUKA KRP KJ.BKR 60</t>
-  </si>
-  <si>
-    <t>20056958</t>
-  </si>
-  <si>
-    <t>QTELA TEMPE R/LAUT55</t>
-  </si>
-  <si>
-    <t>20033450</t>
-  </si>
-  <si>
-    <t>QTELA KRP/TMPE ORI55</t>
-  </si>
-  <si>
-    <t>20045104</t>
-  </si>
-  <si>
-    <t>QTELA TEMPE CABE/R55</t>
-  </si>
-  <si>
-    <t>20137014</t>
-  </si>
-  <si>
-    <t>CHIMI KRP CHS.BR 41G</t>
-  </si>
-  <si>
-    <t>20131047</t>
-  </si>
-  <si>
-    <t>CHIMI KR.MENTEGA 41</t>
-  </si>
-  <si>
-    <t>20104728</t>
-  </si>
-  <si>
-    <t>CHIMI KRP.UB JG.BK41</t>
-  </si>
-  <si>
-    <t>RT,(E-3B)</t>
-  </si>
-  <si>
-    <t>20104729</t>
-  </si>
-  <si>
-    <t>CHIMI KRP.UB JG.BL41</t>
-  </si>
-  <si>
-    <t>20021032</t>
-  </si>
-  <si>
-    <t>QTELA KERIPIK BLD 60</t>
-  </si>
-  <si>
-    <t>20012678</t>
-  </si>
-  <si>
-    <t>QTELA KERIPIK ORG 60</t>
-  </si>
-  <si>
-    <t>20012679</t>
-  </si>
-  <si>
-    <t>QTELA KRIPIK BBQ 60</t>
-  </si>
-  <si>
-    <t>20137778</t>
-  </si>
-  <si>
-    <t>CHIMI JG.BKR 85G</t>
-  </si>
-  <si>
-    <t>20115362</t>
-  </si>
-  <si>
-    <t>CHUBA KRP BALADO 125</t>
-  </si>
-  <si>
-    <t>RT,(E-1.5B)</t>
-  </si>
-  <si>
-    <t>20115363</t>
-  </si>
-  <si>
-    <t>CHUBA KRPK BBQ 125G</t>
-  </si>
-  <si>
-    <t>20000516</t>
-  </si>
-  <si>
-    <t>KUSUKA KRPK BBQ 180</t>
-  </si>
-  <si>
-    <t>20131518</t>
-  </si>
-  <si>
-    <t>KSUKA KRP KR.AYM 100</t>
-  </si>
-  <si>
     <t>20012681</t>
   </si>
   <si>
@@ -517,33 +511,21 @@
     <t>QTELA KR AY LD/HT100</t>
   </si>
   <si>
-    <t>20093110</t>
-  </si>
-  <si>
-    <t>KUSUKA BALADO 180G</t>
-  </si>
-  <si>
     <t>20093109</t>
   </si>
   <si>
     <t>KUSUKA ORIGINAL 180G</t>
   </si>
   <si>
-    <t>20021029</t>
-  </si>
-  <si>
-    <t>QTELA KRPK BLDO 175G</t>
+    <t>20012680</t>
+  </si>
+  <si>
+    <t>QTELA KRPK ORG 175G</t>
   </si>
   <si>
     <t>12</t>
   </si>
   <si>
-    <t>20012680</t>
-  </si>
-  <si>
-    <t>QTELA KRPK ORG 175G</t>
-  </si>
-  <si>
     <t>20122571</t>
   </si>
   <si>
@@ -1126,25 +1108,13 @@
     <t>M/SK NORI J.BKR2X4.5</t>
   </si>
   <si>
-    <t>20136583</t>
-  </si>
-  <si>
-    <t>CHIKI TWST JB PM 65G</t>
+    <t>20064426</t>
+  </si>
+  <si>
+    <t>TWISTKO JGNG BKR 70G</t>
   </si>
   <si>
     <t>28</t>
-  </si>
-  <si>
-    <t>20136039</t>
-  </si>
-  <si>
-    <t>CHIKI TWIST KJ DUO70</t>
-  </si>
-  <si>
-    <t>20064426</t>
-  </si>
-  <si>
-    <t>TWISTKO JGNG BKR 70G</t>
   </si>
   <si>
     <t>10006890</t>
@@ -1987,7 +1957,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F241"/>
+  <dimension ref="A1:F236"/>
   <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="55"/>
   <cols>
     <col min="1" max="1" width="10" customWidth="1"/>
@@ -2774,15 +2744,15 @@
         <v>89</v>
       </c>
       <c r="F39" s="1" t="s">
-        <v>5</v>
+        <v>90</v>
       </c>
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A40" s="1" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="C40" s="1" t="s">
         <v>3</v>
@@ -2791,18 +2761,18 @@
         <v>22</v>
       </c>
       <c r="E40" s="1" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="F40" s="1" t="s">
-        <v>5</v>
+        <v>37</v>
       </c>
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A41" s="1" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="C41" s="1" t="s">
         <v>3</v>
@@ -2811,30 +2781,30 @@
         <v>22</v>
       </c>
       <c r="E41" s="1" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="F41" s="1" t="s">
-        <v>5</v>
+        <v>37</v>
       </c>
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A42" s="1" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="C42" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D42" s="1" t="s">
-        <v>22</v>
+        <v>86</v>
       </c>
       <c r="E42" s="1" t="s">
-        <v>98</v>
+        <v>4</v>
       </c>
       <c r="F42" s="1" t="s">
-        <v>5</v>
+        <v>37</v>
       </c>
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.25">
@@ -2851,7 +2821,7 @@
         <v>86</v>
       </c>
       <c r="E43" s="1" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="F43" s="1" t="s">
         <v>37</v>
@@ -2871,7 +2841,7 @@
         <v>86</v>
       </c>
       <c r="E44" s="1" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="F44" s="1" t="s">
         <v>37</v>
@@ -2891,7 +2861,7 @@
         <v>86</v>
       </c>
       <c r="E45" s="1" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="F45" s="1" t="s">
         <v>37</v>
@@ -2911,7 +2881,7 @@
         <v>86</v>
       </c>
       <c r="E46" s="1" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="F46" s="1" t="s">
         <v>37</v>
@@ -2931,7 +2901,7 @@
         <v>86</v>
       </c>
       <c r="E47" s="1" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="F47" s="1" t="s">
         <v>37</v>
@@ -2951,10 +2921,10 @@
         <v>86</v>
       </c>
       <c r="E48" s="1" t="s">
-        <v>22</v>
+        <v>86</v>
       </c>
       <c r="F48" s="1" t="s">
-        <v>37</v>
+        <v>5</v>
       </c>
     </row>
     <row r="49" spans="1:6" x14ac:dyDescent="0.25">
@@ -2971,10 +2941,10 @@
         <v>86</v>
       </c>
       <c r="E49" s="1" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="F49" s="1" t="s">
-        <v>37</v>
+        <v>5</v>
       </c>
     </row>
     <row r="50" spans="1:6" x14ac:dyDescent="0.25">
@@ -2991,10 +2961,10 @@
         <v>86</v>
       </c>
       <c r="E50" s="1" t="s">
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="F50" s="1" t="s">
-        <v>37</v>
+        <v>5</v>
       </c>
     </row>
     <row r="51" spans="1:6" x14ac:dyDescent="0.25">
@@ -3011,58 +2981,58 @@
         <v>86</v>
       </c>
       <c r="E51" s="1" t="s">
-        <v>92</v>
+        <v>96</v>
       </c>
       <c r="F51" s="1" t="s">
-        <v>117</v>
+        <v>5</v>
       </c>
     </row>
     <row r="52" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A52" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="B52" s="1" t="s">
         <v>118</v>
       </c>
-      <c r="B52" s="1" t="s">
-        <v>119</v>
-      </c>
       <c r="C52" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D52" s="1" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="E52" s="1" t="s">
-        <v>95</v>
+        <v>4</v>
       </c>
       <c r="F52" s="1" t="s">
-        <v>37</v>
+        <v>19</v>
       </c>
     </row>
     <row r="53" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A53" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="B53" s="1" t="s">
         <v>120</v>
       </c>
-      <c r="B53" s="1" t="s">
-        <v>121</v>
-      </c>
       <c r="C53" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D53" s="1" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="E53" s="1" t="s">
-        <v>98</v>
+        <v>8</v>
       </c>
       <c r="F53" s="1" t="s">
-        <v>37</v>
+        <v>19</v>
       </c>
     </row>
     <row r="54" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A54" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="B54" s="1" t="s">
         <v>122</v>
-      </c>
-      <c r="B54" s="1" t="s">
-        <v>123</v>
       </c>
       <c r="C54" s="1" t="s">
         <v>3</v>
@@ -3071,7 +3041,7 @@
         <v>89</v>
       </c>
       <c r="E54" s="1" t="s">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="F54" s="1" t="s">
         <v>19</v>
@@ -3079,10 +3049,10 @@
     </row>
     <row r="55" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A55" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="B55" s="1" t="s">
         <v>124</v>
-      </c>
-      <c r="B55" s="1" t="s">
-        <v>125</v>
       </c>
       <c r="C55" s="1" t="s">
         <v>3</v>
@@ -3091,7 +3061,7 @@
         <v>89</v>
       </c>
       <c r="E55" s="1" t="s">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="F55" s="1" t="s">
         <v>19</v>
@@ -3099,10 +3069,10 @@
     </row>
     <row r="56" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A56" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="B56" s="1" t="s">
         <v>126</v>
-      </c>
-      <c r="B56" s="1" t="s">
-        <v>127</v>
       </c>
       <c r="C56" s="1" t="s">
         <v>3</v>
@@ -3111,18 +3081,18 @@
         <v>89</v>
       </c>
       <c r="E56" s="1" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="F56" s="1" t="s">
-        <v>19</v>
+        <v>5</v>
       </c>
     </row>
     <row r="57" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A57" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="B57" s="1" t="s">
         <v>128</v>
-      </c>
-      <c r="B57" s="1" t="s">
-        <v>129</v>
       </c>
       <c r="C57" s="1" t="s">
         <v>3</v>
@@ -3131,18 +3101,18 @@
         <v>89</v>
       </c>
       <c r="E57" s="1" t="s">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="F57" s="1" t="s">
-        <v>19</v>
+        <v>5</v>
       </c>
     </row>
     <row r="58" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A58" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="B58" s="1" t="s">
         <v>130</v>
-      </c>
-      <c r="B58" s="1" t="s">
-        <v>131</v>
       </c>
       <c r="C58" s="1" t="s">
         <v>3</v>
@@ -3151,7 +3121,7 @@
         <v>89</v>
       </c>
       <c r="E58" s="1" t="s">
-        <v>18</v>
+        <v>86</v>
       </c>
       <c r="F58" s="1" t="s">
         <v>5</v>
@@ -3159,62 +3129,62 @@
     </row>
     <row r="59" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A59" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="B59" s="1" t="s">
         <v>132</v>
       </c>
-      <c r="B59" s="1" t="s">
-        <v>133</v>
-      </c>
       <c r="C59" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D59" s="1" t="s">
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="E59" s="1" t="s">
-        <v>22</v>
+        <v>4</v>
       </c>
       <c r="F59" s="1" t="s">
-        <v>5</v>
+        <v>37</v>
       </c>
     </row>
     <row r="60" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A60" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="B60" s="1" t="s">
         <v>134</v>
       </c>
-      <c r="B60" s="1" t="s">
-        <v>135</v>
-      </c>
       <c r="C60" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D60" s="1" t="s">
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="E60" s="1" t="s">
-        <v>86</v>
+        <v>8</v>
       </c>
       <c r="F60" s="1" t="s">
-        <v>5</v>
+        <v>37</v>
       </c>
     </row>
     <row r="61" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A61" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="B61" s="1" t="s">
         <v>136</v>
       </c>
-      <c r="B61" s="1" t="s">
+      <c r="C61" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D61" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="E61" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="F61" s="1" t="s">
         <v>137</v>
-      </c>
-      <c r="C61" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="D61" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="E61" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F61" s="1" t="s">
-        <v>37</v>
       </c>
     </row>
     <row r="62" spans="1:6" x14ac:dyDescent="0.25">
@@ -3228,13 +3198,13 @@
         <v>3</v>
       </c>
       <c r="D62" s="1" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="E62" s="1" t="s">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="F62" s="1" t="s">
-        <v>37</v>
+        <v>137</v>
       </c>
     </row>
     <row r="63" spans="1:6" x14ac:dyDescent="0.25">
@@ -3248,50 +3218,50 @@
         <v>3</v>
       </c>
       <c r="D63" s="1" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="E63" s="1" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="F63" s="1" t="s">
-        <v>142</v>
+        <v>5</v>
       </c>
     </row>
     <row r="64" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A64" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="B64" s="1" t="s">
         <v>143</v>
       </c>
-      <c r="B64" s="1" t="s">
-        <v>144</v>
-      </c>
       <c r="C64" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D64" s="1" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="E64" s="1" t="s">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="F64" s="1" t="s">
-        <v>142</v>
+        <v>5</v>
       </c>
     </row>
     <row r="65" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A65" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="B65" s="1" t="s">
         <v>145</v>
       </c>
-      <c r="B65" s="1" t="s">
-        <v>146</v>
-      </c>
       <c r="C65" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D65" s="1" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="E65" s="1" t="s">
-        <v>18</v>
+        <v>86</v>
       </c>
       <c r="F65" s="1" t="s">
         <v>5</v>
@@ -3299,42 +3269,42 @@
     </row>
     <row r="66" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A66" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="B66" s="1" t="s">
         <v>147</v>
       </c>
-      <c r="B66" s="1" t="s">
-        <v>148</v>
-      </c>
       <c r="C66" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D66" s="1" t="s">
-        <v>92</v>
+        <v>96</v>
       </c>
       <c r="E66" s="1" t="s">
-        <v>22</v>
+        <v>4</v>
       </c>
       <c r="F66" s="1" t="s">
-        <v>5</v>
+        <v>37</v>
       </c>
     </row>
     <row r="67" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A67" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="B67" s="1" t="s">
         <v>149</v>
       </c>
-      <c r="B67" s="1" t="s">
+      <c r="C67" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D67" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="E67" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="F67" s="1" t="s">
         <v>150</v>
-      </c>
-      <c r="C67" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="D67" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="E67" s="1" t="s">
-        <v>86</v>
-      </c>
-      <c r="F67" s="1" t="s">
-        <v>5</v>
       </c>
     </row>
     <row r="68" spans="1:6" x14ac:dyDescent="0.25">
@@ -3348,13 +3318,13 @@
         <v>3</v>
       </c>
       <c r="D68" s="1" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="E68" s="1" t="s">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="F68" s="1" t="s">
-        <v>37</v>
+        <v>150</v>
       </c>
     </row>
     <row r="69" spans="1:6" x14ac:dyDescent="0.25">
@@ -3368,53 +3338,53 @@
         <v>3</v>
       </c>
       <c r="D69" s="1" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="E69" s="1" t="s">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="F69" s="1" t="s">
-        <v>155</v>
+        <v>19</v>
       </c>
     </row>
     <row r="70" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A70" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="B70" s="1" t="s">
         <v>156</v>
       </c>
-      <c r="B70" s="1" t="s">
-        <v>157</v>
-      </c>
       <c r="C70" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D70" s="1" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="E70" s="1" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="F70" s="1" t="s">
-        <v>155</v>
+        <v>19</v>
       </c>
     </row>
     <row r="71" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A71" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="B71" s="1" t="s">
         <v>158</v>
       </c>
-      <c r="B71" s="1" t="s">
+      <c r="C71" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D71" s="1" t="s">
         <v>159</v>
       </c>
-      <c r="C71" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="D71" s="1" t="s">
-        <v>95</v>
-      </c>
       <c r="E71" s="1" t="s">
-        <v>15</v>
+        <v>4</v>
       </c>
       <c r="F71" s="1" t="s">
-        <v>19</v>
+        <v>5</v>
       </c>
     </row>
     <row r="72" spans="1:6" x14ac:dyDescent="0.25">
@@ -3428,13 +3398,13 @@
         <v>3</v>
       </c>
       <c r="D72" s="1" t="s">
-        <v>95</v>
+        <v>159</v>
       </c>
       <c r="E72" s="1" t="s">
-        <v>18</v>
+        <v>8</v>
       </c>
       <c r="F72" s="1" t="s">
-        <v>19</v>
+        <v>5</v>
       </c>
     </row>
     <row r="73" spans="1:6" x14ac:dyDescent="0.25">
@@ -3448,10 +3418,10 @@
         <v>3</v>
       </c>
       <c r="D73" s="1" t="s">
-        <v>98</v>
+        <v>159</v>
       </c>
       <c r="E73" s="1" t="s">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="F73" s="1" t="s">
         <v>5</v>
@@ -3468,10 +3438,10 @@
         <v>3</v>
       </c>
       <c r="D74" s="1" t="s">
-        <v>98</v>
+        <v>159</v>
       </c>
       <c r="E74" s="1" t="s">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="F74" s="1" t="s">
         <v>5</v>
@@ -3488,13 +3458,13 @@
         <v>3</v>
       </c>
       <c r="D75" s="1" t="s">
-        <v>98</v>
+        <v>159</v>
       </c>
       <c r="E75" s="1" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="F75" s="1" t="s">
-        <v>5</v>
+        <v>19</v>
       </c>
     </row>
     <row r="76" spans="1:6" x14ac:dyDescent="0.25">
@@ -3508,30 +3478,30 @@
         <v>3</v>
       </c>
       <c r="D76" s="1" t="s">
-        <v>98</v>
+        <v>170</v>
       </c>
       <c r="E76" s="1" t="s">
-        <v>15</v>
+        <v>4</v>
       </c>
       <c r="F76" s="1" t="s">
-        <v>19</v>
+        <v>5</v>
       </c>
     </row>
     <row r="77" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A77" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="B77" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="C77" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D77" s="1" t="s">
         <v>170</v>
       </c>
-      <c r="B77" s="1" t="s">
-        <v>171</v>
-      </c>
-      <c r="C77" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="D77" s="1" t="s">
-        <v>98</v>
-      </c>
       <c r="E77" s="1" t="s">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="F77" s="1" t="s">
         <v>19</v>
@@ -3539,22 +3509,22 @@
     </row>
     <row r="78" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A78" s="1" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="B78" s="1" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="C78" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D78" s="1" t="s">
-        <v>174</v>
+        <v>170</v>
       </c>
       <c r="E78" s="1" t="s">
-        <v>4</v>
+        <v>15</v>
       </c>
       <c r="F78" s="1" t="s">
-        <v>5</v>
+        <v>19</v>
       </c>
     </row>
     <row r="79" spans="1:6" x14ac:dyDescent="0.25">
@@ -3568,13 +3538,13 @@
         <v>3</v>
       </c>
       <c r="D79" s="1" t="s">
-        <v>174</v>
+        <v>170</v>
       </c>
       <c r="E79" s="1" t="s">
-        <v>8</v>
+        <v>18</v>
       </c>
       <c r="F79" s="1" t="s">
-        <v>5</v>
+        <v>12</v>
       </c>
     </row>
     <row r="80" spans="1:6" x14ac:dyDescent="0.25">
@@ -3588,70 +3558,70 @@
         <v>3</v>
       </c>
       <c r="D80" s="1" t="s">
-        <v>174</v>
+        <v>179</v>
       </c>
       <c r="E80" s="1" t="s">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="F80" s="1" t="s">
-        <v>19</v>
+        <v>5</v>
       </c>
     </row>
     <row r="81" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A81" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="B81" s="1" t="s">
+        <v>181</v>
+      </c>
+      <c r="C81" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D81" s="1" t="s">
         <v>179</v>
       </c>
-      <c r="B81" s="1" t="s">
-        <v>180</v>
-      </c>
-      <c r="C81" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="D81" s="1" t="s">
-        <v>174</v>
-      </c>
       <c r="E81" s="1" t="s">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="F81" s="1" t="s">
-        <v>19</v>
+        <v>37</v>
       </c>
     </row>
     <row r="82" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A82" s="1" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="B82" s="1" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="C82" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D82" s="1" t="s">
-        <v>174</v>
+        <v>179</v>
       </c>
       <c r="E82" s="1" t="s">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="F82" s="1" t="s">
-        <v>12</v>
+        <v>5</v>
       </c>
     </row>
     <row r="83" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A83" s="1" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="B83" s="1" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="C83" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D83" s="1" t="s">
-        <v>185</v>
+        <v>179</v>
       </c>
       <c r="E83" s="1" t="s">
-        <v>4</v>
+        <v>15</v>
       </c>
       <c r="F83" s="1" t="s">
         <v>5</v>
@@ -3668,13 +3638,13 @@
         <v>3</v>
       </c>
       <c r="D84" s="1" t="s">
-        <v>185</v>
+        <v>179</v>
       </c>
       <c r="E84" s="1" t="s">
-        <v>8</v>
+        <v>18</v>
       </c>
       <c r="F84" s="1" t="s">
-        <v>37</v>
+        <v>12</v>
       </c>
     </row>
     <row r="85" spans="1:6" x14ac:dyDescent="0.25">
@@ -3688,73 +3658,73 @@
         <v>3</v>
       </c>
       <c r="D85" s="1" t="s">
-        <v>185</v>
+        <v>190</v>
       </c>
       <c r="E85" s="1" t="s">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="F85" s="1" t="s">
-        <v>5</v>
+        <v>12</v>
       </c>
     </row>
     <row r="86" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A86" s="1" t="s">
+        <v>191</v>
+      </c>
+      <c r="B86" s="1" t="s">
+        <v>192</v>
+      </c>
+      <c r="C86" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D86" s="1" t="s">
         <v>190</v>
       </c>
-      <c r="B86" s="1" t="s">
-        <v>191</v>
-      </c>
-      <c r="C86" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="D86" s="1" t="s">
-        <v>185</v>
-      </c>
       <c r="E86" s="1" t="s">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="F86" s="1" t="s">
-        <v>5</v>
+        <v>12</v>
       </c>
     </row>
     <row r="87" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A87" s="1" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="B87" s="1" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="C87" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D87" s="1" t="s">
-        <v>185</v>
+        <v>190</v>
       </c>
       <c r="E87" s="1" t="s">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="F87" s="1" t="s">
-        <v>12</v>
+        <v>19</v>
       </c>
     </row>
     <row r="88" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A88" s="1" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="B88" s="1" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="C88" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D88" s="1" t="s">
-        <v>196</v>
+        <v>190</v>
       </c>
       <c r="E88" s="1" t="s">
-        <v>4</v>
+        <v>15</v>
       </c>
       <c r="F88" s="1" t="s">
-        <v>12</v>
+        <v>37</v>
       </c>
     </row>
     <row r="89" spans="1:6" x14ac:dyDescent="0.25">
@@ -3768,13 +3738,13 @@
         <v>3</v>
       </c>
       <c r="D89" s="1" t="s">
-        <v>196</v>
+        <v>190</v>
       </c>
       <c r="E89" s="1" t="s">
-        <v>8</v>
+        <v>18</v>
       </c>
       <c r="F89" s="1" t="s">
-        <v>12</v>
+        <v>37</v>
       </c>
     </row>
     <row r="90" spans="1:6" x14ac:dyDescent="0.25">
@@ -3788,13 +3758,13 @@
         <v>3</v>
       </c>
       <c r="D90" s="1" t="s">
-        <v>196</v>
+        <v>190</v>
       </c>
       <c r="E90" s="1" t="s">
-        <v>11</v>
+        <v>22</v>
       </c>
       <c r="F90" s="1" t="s">
-        <v>19</v>
+        <v>37</v>
       </c>
     </row>
     <row r="91" spans="1:6" x14ac:dyDescent="0.25">
@@ -3808,10 +3778,10 @@
         <v>3</v>
       </c>
       <c r="D91" s="1" t="s">
-        <v>196</v>
+        <v>203</v>
       </c>
       <c r="E91" s="1" t="s">
-        <v>15</v>
+        <v>4</v>
       </c>
       <c r="F91" s="1" t="s">
         <v>37</v>
@@ -3819,19 +3789,19 @@
     </row>
     <row r="92" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A92" s="1" t="s">
+        <v>204</v>
+      </c>
+      <c r="B92" s="1" t="s">
+        <v>205</v>
+      </c>
+      <c r="C92" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D92" s="1" t="s">
         <v>203</v>
       </c>
-      <c r="B92" s="1" t="s">
-        <v>204</v>
-      </c>
-      <c r="C92" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="D92" s="1" t="s">
-        <v>196</v>
-      </c>
       <c r="E92" s="1" t="s">
-        <v>18</v>
+        <v>8</v>
       </c>
       <c r="F92" s="1" t="s">
         <v>37</v>
@@ -3839,19 +3809,19 @@
     </row>
     <row r="93" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A93" s="1" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="B93" s="1" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="C93" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D93" s="1" t="s">
-        <v>196</v>
+        <v>203</v>
       </c>
       <c r="E93" s="1" t="s">
-        <v>22</v>
+        <v>11</v>
       </c>
       <c r="F93" s="1" t="s">
         <v>37</v>
@@ -3859,22 +3829,22 @@
     </row>
     <row r="94" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A94" s="1" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="B94" s="1" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="C94" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D94" s="1" t="s">
-        <v>209</v>
+        <v>203</v>
       </c>
       <c r="E94" s="1" t="s">
-        <v>4</v>
+        <v>15</v>
       </c>
       <c r="F94" s="1" t="s">
-        <v>37</v>
+        <v>137</v>
       </c>
     </row>
     <row r="95" spans="1:6" x14ac:dyDescent="0.25">
@@ -3888,10 +3858,10 @@
         <v>3</v>
       </c>
       <c r="D95" s="1" t="s">
-        <v>209</v>
+        <v>203</v>
       </c>
       <c r="E95" s="1" t="s">
-        <v>8</v>
+        <v>18</v>
       </c>
       <c r="F95" s="1" t="s">
         <v>37</v>
@@ -3908,10 +3878,10 @@
         <v>3</v>
       </c>
       <c r="D96" s="1" t="s">
-        <v>209</v>
+        <v>203</v>
       </c>
       <c r="E96" s="1" t="s">
-        <v>11</v>
+        <v>22</v>
       </c>
       <c r="F96" s="1" t="s">
         <v>37</v>
@@ -3928,50 +3898,50 @@
         <v>3</v>
       </c>
       <c r="D97" s="1" t="s">
-        <v>209</v>
+        <v>216</v>
       </c>
       <c r="E97" s="1" t="s">
-        <v>15</v>
+        <v>4</v>
       </c>
       <c r="F97" s="1" t="s">
-        <v>142</v>
+        <v>37</v>
       </c>
     </row>
     <row r="98" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A98" s="1" t="s">
+        <v>217</v>
+      </c>
+      <c r="B98" s="1" t="s">
+        <v>218</v>
+      </c>
+      <c r="C98" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D98" s="1" t="s">
         <v>216</v>
       </c>
-      <c r="B98" s="1" t="s">
-        <v>217</v>
-      </c>
-      <c r="C98" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="D98" s="1" t="s">
-        <v>209</v>
-      </c>
       <c r="E98" s="1" t="s">
-        <v>18</v>
+        <v>8</v>
       </c>
       <c r="F98" s="1" t="s">
-        <v>37</v>
+        <v>5</v>
       </c>
     </row>
     <row r="99" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A99" s="1" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="B99" s="1" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="C99" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D99" s="1" t="s">
-        <v>209</v>
+        <v>216</v>
       </c>
       <c r="E99" s="1" t="s">
-        <v>22</v>
+        <v>11</v>
       </c>
       <c r="F99" s="1" t="s">
         <v>37</v>
@@ -3979,22 +3949,22 @@
     </row>
     <row r="100" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A100" s="1" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="B100" s="1" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="C100" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D100" s="1" t="s">
-        <v>222</v>
+        <v>216</v>
       </c>
       <c r="E100" s="1" t="s">
-        <v>4</v>
+        <v>15</v>
       </c>
       <c r="F100" s="1" t="s">
-        <v>37</v>
+        <v>19</v>
       </c>
     </row>
     <row r="101" spans="1:6" x14ac:dyDescent="0.25">
@@ -4008,13 +3978,13 @@
         <v>3</v>
       </c>
       <c r="D101" s="1" t="s">
-        <v>222</v>
+        <v>216</v>
       </c>
       <c r="E101" s="1" t="s">
-        <v>8</v>
+        <v>18</v>
       </c>
       <c r="F101" s="1" t="s">
-        <v>5</v>
+        <v>37</v>
       </c>
     </row>
     <row r="102" spans="1:6" x14ac:dyDescent="0.25">
@@ -4028,10 +3998,10 @@
         <v>3</v>
       </c>
       <c r="D102" s="1" t="s">
-        <v>222</v>
+        <v>216</v>
       </c>
       <c r="E102" s="1" t="s">
-        <v>11</v>
+        <v>22</v>
       </c>
       <c r="F102" s="1" t="s">
         <v>37</v>
@@ -4048,30 +4018,30 @@
         <v>3</v>
       </c>
       <c r="D103" s="1" t="s">
-        <v>222</v>
+        <v>229</v>
       </c>
       <c r="E103" s="1" t="s">
-        <v>15</v>
+        <v>4</v>
       </c>
       <c r="F103" s="1" t="s">
-        <v>19</v>
+        <v>37</v>
       </c>
     </row>
     <row r="104" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A104" s="1" t="s">
+        <v>230</v>
+      </c>
+      <c r="B104" s="1" t="s">
+        <v>231</v>
+      </c>
+      <c r="C104" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D104" s="1" t="s">
         <v>229</v>
       </c>
-      <c r="B104" s="1" t="s">
-        <v>230</v>
-      </c>
-      <c r="C104" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="D104" s="1" t="s">
-        <v>222</v>
-      </c>
       <c r="E104" s="1" t="s">
-        <v>18</v>
+        <v>8</v>
       </c>
       <c r="F104" s="1" t="s">
         <v>37</v>
@@ -4079,19 +4049,19 @@
     </row>
     <row r="105" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A105" s="1" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="B105" s="1" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="C105" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D105" s="1" t="s">
-        <v>222</v>
+        <v>229</v>
       </c>
       <c r="E105" s="1" t="s">
-        <v>22</v>
+        <v>11</v>
       </c>
       <c r="F105" s="1" t="s">
         <v>37</v>
@@ -4099,22 +4069,22 @@
     </row>
     <row r="106" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A106" s="1" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="B106" s="1" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="C106" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D106" s="1" t="s">
-        <v>235</v>
+        <v>229</v>
       </c>
       <c r="E106" s="1" t="s">
-        <v>4</v>
+        <v>15</v>
       </c>
       <c r="F106" s="1" t="s">
-        <v>37</v>
+        <v>5</v>
       </c>
     </row>
     <row r="107" spans="1:6" x14ac:dyDescent="0.25">
@@ -4128,13 +4098,13 @@
         <v>3</v>
       </c>
       <c r="D107" s="1" t="s">
-        <v>235</v>
+        <v>229</v>
       </c>
       <c r="E107" s="1" t="s">
-        <v>8</v>
+        <v>18</v>
       </c>
       <c r="F107" s="1" t="s">
-        <v>37</v>
+        <v>19</v>
       </c>
     </row>
     <row r="108" spans="1:6" x14ac:dyDescent="0.25">
@@ -4148,73 +4118,73 @@
         <v>3</v>
       </c>
       <c r="D108" s="1" t="s">
-        <v>235</v>
+        <v>240</v>
       </c>
       <c r="E108" s="1" t="s">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="F108" s="1" t="s">
-        <v>37</v>
+        <v>137</v>
       </c>
     </row>
     <row r="109" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A109" s="1" t="s">
+        <v>241</v>
+      </c>
+      <c r="B109" s="1" t="s">
+        <v>242</v>
+      </c>
+      <c r="C109" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D109" s="1" t="s">
         <v>240</v>
       </c>
-      <c r="B109" s="1" t="s">
-        <v>241</v>
-      </c>
-      <c r="C109" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="D109" s="1" t="s">
-        <v>235</v>
-      </c>
       <c r="E109" s="1" t="s">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="F109" s="1" t="s">
-        <v>5</v>
+        <v>137</v>
       </c>
     </row>
     <row r="110" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A110" s="1" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="B110" s="1" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="C110" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D110" s="1" t="s">
-        <v>235</v>
+        <v>240</v>
       </c>
       <c r="E110" s="1" t="s">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="F110" s="1" t="s">
-        <v>19</v>
+        <v>37</v>
       </c>
     </row>
     <row r="111" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A111" s="1" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="B111" s="1" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="C111" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D111" s="1" t="s">
-        <v>246</v>
+        <v>240</v>
       </c>
       <c r="E111" s="1" t="s">
-        <v>4</v>
+        <v>15</v>
       </c>
       <c r="F111" s="1" t="s">
-        <v>142</v>
+        <v>37</v>
       </c>
     </row>
     <row r="112" spans="1:6" x14ac:dyDescent="0.25">
@@ -4228,13 +4198,13 @@
         <v>3</v>
       </c>
       <c r="D112" s="1" t="s">
-        <v>246</v>
+        <v>240</v>
       </c>
       <c r="E112" s="1" t="s">
-        <v>8</v>
+        <v>18</v>
       </c>
       <c r="F112" s="1" t="s">
-        <v>142</v>
+        <v>19</v>
       </c>
     </row>
     <row r="113" spans="1:6" x14ac:dyDescent="0.25">
@@ -4248,13 +4218,13 @@
         <v>3</v>
       </c>
       <c r="D113" s="1" t="s">
-        <v>246</v>
+        <v>240</v>
       </c>
       <c r="E113" s="1" t="s">
-        <v>11</v>
+        <v>22</v>
       </c>
       <c r="F113" s="1" t="s">
-        <v>37</v>
+        <v>19</v>
       </c>
     </row>
     <row r="114" spans="1:6" x14ac:dyDescent="0.25">
@@ -4268,73 +4238,73 @@
         <v>3</v>
       </c>
       <c r="D114" s="1" t="s">
-        <v>246</v>
+        <v>253</v>
       </c>
       <c r="E114" s="1" t="s">
-        <v>15</v>
+        <v>4</v>
       </c>
       <c r="F114" s="1" t="s">
-        <v>37</v>
+        <v>5</v>
       </c>
     </row>
     <row r="115" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A115" s="1" t="s">
+        <v>254</v>
+      </c>
+      <c r="B115" s="1" t="s">
+        <v>255</v>
+      </c>
+      <c r="C115" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D115" s="1" t="s">
         <v>253</v>
       </c>
-      <c r="B115" s="1" t="s">
-        <v>254</v>
-      </c>
-      <c r="C115" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="D115" s="1" t="s">
-        <v>246</v>
-      </c>
       <c r="E115" s="1" t="s">
-        <v>18</v>
+        <v>8</v>
       </c>
       <c r="F115" s="1" t="s">
-        <v>19</v>
+        <v>5</v>
       </c>
     </row>
     <row r="116" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A116" s="1" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="B116" s="1" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="C116" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D116" s="1" t="s">
-        <v>246</v>
+        <v>253</v>
       </c>
       <c r="E116" s="1" t="s">
-        <v>22</v>
+        <v>11</v>
       </c>
       <c r="F116" s="1" t="s">
-        <v>19</v>
+        <v>5</v>
       </c>
     </row>
     <row r="117" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A117" s="1" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="B117" s="1" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="C117" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D117" s="1" t="s">
-        <v>259</v>
+        <v>253</v>
       </c>
       <c r="E117" s="1" t="s">
-        <v>4</v>
+        <v>15</v>
       </c>
       <c r="F117" s="1" t="s">
-        <v>5</v>
+        <v>19</v>
       </c>
     </row>
     <row r="118" spans="1:6" x14ac:dyDescent="0.25">
@@ -4348,13 +4318,13 @@
         <v>3</v>
       </c>
       <c r="D118" s="1" t="s">
-        <v>259</v>
+        <v>253</v>
       </c>
       <c r="E118" s="1" t="s">
-        <v>8</v>
+        <v>18</v>
       </c>
       <c r="F118" s="1" t="s">
-        <v>5</v>
+        <v>19</v>
       </c>
     </row>
     <row r="119" spans="1:6" x14ac:dyDescent="0.25">
@@ -4368,10 +4338,10 @@
         <v>3</v>
       </c>
       <c r="D119" s="1" t="s">
-        <v>259</v>
+        <v>264</v>
       </c>
       <c r="E119" s="1" t="s">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="F119" s="1" t="s">
         <v>5</v>
@@ -4379,59 +4349,59 @@
     </row>
     <row r="120" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A120" s="1" t="s">
+        <v>265</v>
+      </c>
+      <c r="B120" s="1" t="s">
+        <v>266</v>
+      </c>
+      <c r="C120" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D120" s="1" t="s">
         <v>264</v>
       </c>
-      <c r="B120" s="1" t="s">
-        <v>265</v>
-      </c>
-      <c r="C120" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="D120" s="1" t="s">
-        <v>259</v>
-      </c>
       <c r="E120" s="1" t="s">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="F120" s="1" t="s">
-        <v>19</v>
+        <v>5</v>
       </c>
     </row>
     <row r="121" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A121" s="1" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="B121" s="1" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="C121" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D121" s="1" t="s">
-        <v>259</v>
+        <v>264</v>
       </c>
       <c r="E121" s="1" t="s">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="F121" s="1" t="s">
-        <v>19</v>
+        <v>5</v>
       </c>
     </row>
     <row r="122" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A122" s="1" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="B122" s="1" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="C122" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D122" s="1" t="s">
-        <v>270</v>
+        <v>264</v>
       </c>
       <c r="E122" s="1" t="s">
-        <v>4</v>
+        <v>15</v>
       </c>
       <c r="F122" s="1" t="s">
         <v>5</v>
@@ -4448,110 +4418,110 @@
         <v>3</v>
       </c>
       <c r="D123" s="1" t="s">
-        <v>270</v>
+        <v>264</v>
       </c>
       <c r="E123" s="1" t="s">
-        <v>8</v>
+        <v>18</v>
       </c>
       <c r="F123" s="1" t="s">
-        <v>5</v>
+        <v>273</v>
       </c>
     </row>
     <row r="124" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A124" s="1" t="s">
+        <v>274</v>
+      </c>
+      <c r="B124" s="1" t="s">
+        <v>275</v>
+      </c>
+      <c r="C124" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D124" s="1" t="s">
+        <v>264</v>
+      </c>
+      <c r="E124" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="F124" s="1" t="s">
         <v>273</v>
-      </c>
-      <c r="B124" s="1" t="s">
-        <v>274</v>
-      </c>
-      <c r="C124" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="D124" s="1" t="s">
-        <v>270</v>
-      </c>
-      <c r="E124" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="F124" s="1" t="s">
-        <v>5</v>
       </c>
     </row>
     <row r="125" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A125" s="1" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="B125" s="1" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="C125" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D125" s="1" t="s">
-        <v>270</v>
+        <v>278</v>
       </c>
       <c r="E125" s="1" t="s">
-        <v>15</v>
+        <v>4</v>
       </c>
       <c r="F125" s="1" t="s">
-        <v>5</v>
+        <v>37</v>
       </c>
     </row>
     <row r="126" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A126" s="1" t="s">
-        <v>277</v>
+        <v>279</v>
       </c>
       <c r="B126" s="1" t="s">
+        <v>280</v>
+      </c>
+      <c r="C126" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D126" s="1" t="s">
         <v>278</v>
       </c>
-      <c r="C126" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="D126" s="1" t="s">
-        <v>270</v>
-      </c>
       <c r="E126" s="1" t="s">
-        <v>18</v>
+        <v>8</v>
       </c>
       <c r="F126" s="1" t="s">
-        <v>279</v>
+        <v>37</v>
       </c>
     </row>
     <row r="127" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A127" s="1" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="B127" s="1" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="C127" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D127" s="1" t="s">
-        <v>270</v>
+        <v>278</v>
       </c>
       <c r="E127" s="1" t="s">
-        <v>22</v>
+        <v>11</v>
       </c>
       <c r="F127" s="1" t="s">
-        <v>279</v>
+        <v>37</v>
       </c>
     </row>
     <row r="128" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A128" s="1" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="B128" s="1" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="C128" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D128" s="1" t="s">
-        <v>284</v>
+        <v>278</v>
       </c>
       <c r="E128" s="1" t="s">
-        <v>4</v>
+        <v>15</v>
       </c>
       <c r="F128" s="1" t="s">
         <v>37</v>
@@ -4568,13 +4538,13 @@
         <v>3</v>
       </c>
       <c r="D129" s="1" t="s">
-        <v>284</v>
+        <v>278</v>
       </c>
       <c r="E129" s="1" t="s">
-        <v>8</v>
+        <v>18</v>
       </c>
       <c r="F129" s="1" t="s">
-        <v>37</v>
+        <v>5</v>
       </c>
     </row>
     <row r="130" spans="1:6" x14ac:dyDescent="0.25">
@@ -4588,13 +4558,13 @@
         <v>3</v>
       </c>
       <c r="D130" s="1" t="s">
-        <v>284</v>
+        <v>278</v>
       </c>
       <c r="E130" s="1" t="s">
-        <v>11</v>
+        <v>22</v>
       </c>
       <c r="F130" s="1" t="s">
-        <v>37</v>
+        <v>5</v>
       </c>
     </row>
     <row r="131" spans="1:6" x14ac:dyDescent="0.25">
@@ -4608,30 +4578,30 @@
         <v>3</v>
       </c>
       <c r="D131" s="1" t="s">
-        <v>284</v>
+        <v>291</v>
       </c>
       <c r="E131" s="1" t="s">
-        <v>15</v>
+        <v>4</v>
       </c>
       <c r="F131" s="1" t="s">
-        <v>37</v>
+        <v>5</v>
       </c>
     </row>
     <row r="132" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A132" s="1" t="s">
+        <v>292</v>
+      </c>
+      <c r="B132" s="1" t="s">
+        <v>293</v>
+      </c>
+      <c r="C132" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D132" s="1" t="s">
         <v>291</v>
       </c>
-      <c r="B132" s="1" t="s">
-        <v>292</v>
-      </c>
-      <c r="C132" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="D132" s="1" t="s">
-        <v>284</v>
-      </c>
       <c r="E132" s="1" t="s">
-        <v>18</v>
+        <v>8</v>
       </c>
       <c r="F132" s="1" t="s">
         <v>5</v>
@@ -4639,19 +4609,19 @@
     </row>
     <row r="133" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A133" s="1" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="B133" s="1" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="C133" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D133" s="1" t="s">
-        <v>284</v>
+        <v>291</v>
       </c>
       <c r="E133" s="1" t="s">
-        <v>22</v>
+        <v>11</v>
       </c>
       <c r="F133" s="1" t="s">
         <v>5</v>
@@ -4659,22 +4629,22 @@
     </row>
     <row r="134" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A134" s="1" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="B134" s="1" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="C134" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D134" s="1" t="s">
-        <v>297</v>
+        <v>291</v>
       </c>
       <c r="E134" s="1" t="s">
-        <v>4</v>
+        <v>15</v>
       </c>
       <c r="F134" s="1" t="s">
-        <v>5</v>
+        <v>37</v>
       </c>
     </row>
     <row r="135" spans="1:6" x14ac:dyDescent="0.25">
@@ -4688,13 +4658,13 @@
         <v>3</v>
       </c>
       <c r="D135" s="1" t="s">
-        <v>297</v>
+        <v>291</v>
       </c>
       <c r="E135" s="1" t="s">
-        <v>8</v>
+        <v>18</v>
       </c>
       <c r="F135" s="1" t="s">
-        <v>5</v>
+        <v>37</v>
       </c>
     </row>
     <row r="136" spans="1:6" x14ac:dyDescent="0.25">
@@ -4708,13 +4678,13 @@
         <v>3</v>
       </c>
       <c r="D136" s="1" t="s">
-        <v>297</v>
+        <v>291</v>
       </c>
       <c r="E136" s="1" t="s">
-        <v>11</v>
+        <v>22</v>
       </c>
       <c r="F136" s="1" t="s">
-        <v>5</v>
+        <v>37</v>
       </c>
     </row>
     <row r="137" spans="1:6" x14ac:dyDescent="0.25">
@@ -4728,10 +4698,10 @@
         <v>3</v>
       </c>
       <c r="D137" s="1" t="s">
-        <v>297</v>
+        <v>304</v>
       </c>
       <c r="E137" s="1" t="s">
-        <v>15</v>
+        <v>4</v>
       </c>
       <c r="F137" s="1" t="s">
         <v>37</v>
@@ -4739,19 +4709,19 @@
     </row>
     <row r="138" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A138" s="1" t="s">
+        <v>305</v>
+      </c>
+      <c r="B138" s="1" t="s">
+        <v>306</v>
+      </c>
+      <c r="C138" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D138" s="1" t="s">
         <v>304</v>
       </c>
-      <c r="B138" s="1" t="s">
-        <v>305</v>
-      </c>
-      <c r="C138" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="D138" s="1" t="s">
-        <v>297</v>
-      </c>
       <c r="E138" s="1" t="s">
-        <v>18</v>
+        <v>8</v>
       </c>
       <c r="F138" s="1" t="s">
         <v>37</v>
@@ -4759,19 +4729,19 @@
     </row>
     <row r="139" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A139" s="1" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="B139" s="1" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="C139" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D139" s="1" t="s">
-        <v>297</v>
+        <v>304</v>
       </c>
       <c r="E139" s="1" t="s">
-        <v>22</v>
+        <v>11</v>
       </c>
       <c r="F139" s="1" t="s">
         <v>37</v>
@@ -4779,22 +4749,22 @@
     </row>
     <row r="140" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A140" s="1" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="B140" s="1" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="C140" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D140" s="1" t="s">
-        <v>310</v>
+        <v>304</v>
       </c>
       <c r="E140" s="1" t="s">
-        <v>4</v>
+        <v>15</v>
       </c>
       <c r="F140" s="1" t="s">
-        <v>37</v>
+        <v>12</v>
       </c>
     </row>
     <row r="141" spans="1:6" x14ac:dyDescent="0.25">
@@ -4808,10 +4778,10 @@
         <v>3</v>
       </c>
       <c r="D141" s="1" t="s">
-        <v>310</v>
+        <v>304</v>
       </c>
       <c r="E141" s="1" t="s">
-        <v>8</v>
+        <v>18</v>
       </c>
       <c r="F141" s="1" t="s">
         <v>37</v>
@@ -4828,10 +4798,10 @@
         <v>3</v>
       </c>
       <c r="D142" s="1" t="s">
-        <v>310</v>
+        <v>315</v>
       </c>
       <c r="E142" s="1" t="s">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="F142" s="1" t="s">
         <v>37</v>
@@ -4839,39 +4809,39 @@
     </row>
     <row r="143" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A143" s="1" t="s">
+        <v>316</v>
+      </c>
+      <c r="B143" s="1" t="s">
+        <v>317</v>
+      </c>
+      <c r="C143" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D143" s="1" t="s">
         <v>315</v>
       </c>
-      <c r="B143" s="1" t="s">
-        <v>316</v>
-      </c>
-      <c r="C143" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="D143" s="1" t="s">
-        <v>310</v>
-      </c>
       <c r="E143" s="1" t="s">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="F143" s="1" t="s">
-        <v>12</v>
+        <v>37</v>
       </c>
     </row>
     <row r="144" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A144" s="1" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="B144" s="1" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="C144" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D144" s="1" t="s">
-        <v>310</v>
+        <v>315</v>
       </c>
       <c r="E144" s="1" t="s">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="F144" s="1" t="s">
         <v>37</v>
@@ -4879,19 +4849,19 @@
     </row>
     <row r="145" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A145" s="1" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="B145" s="1" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="C145" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D145" s="1" t="s">
-        <v>321</v>
+        <v>315</v>
       </c>
       <c r="E145" s="1" t="s">
-        <v>4</v>
+        <v>15</v>
       </c>
       <c r="F145" s="1" t="s">
         <v>37</v>
@@ -4908,10 +4878,10 @@
         <v>3</v>
       </c>
       <c r="D146" s="1" t="s">
-        <v>321</v>
+        <v>315</v>
       </c>
       <c r="E146" s="1" t="s">
-        <v>8</v>
+        <v>18</v>
       </c>
       <c r="F146" s="1" t="s">
         <v>37</v>
@@ -4928,10 +4898,10 @@
         <v>3</v>
       </c>
       <c r="D147" s="1" t="s">
-        <v>321</v>
+        <v>326</v>
       </c>
       <c r="E147" s="1" t="s">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="F147" s="1" t="s">
         <v>37</v>
@@ -4939,19 +4909,19 @@
     </row>
     <row r="148" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A148" s="1" t="s">
+        <v>327</v>
+      </c>
+      <c r="B148" s="1" t="s">
+        <v>328</v>
+      </c>
+      <c r="C148" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D148" s="1" t="s">
         <v>326</v>
       </c>
-      <c r="B148" s="1" t="s">
-        <v>327</v>
-      </c>
-      <c r="C148" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="D148" s="1" t="s">
-        <v>321</v>
-      </c>
       <c r="E148" s="1" t="s">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="F148" s="1" t="s">
         <v>37</v>
@@ -4959,42 +4929,42 @@
     </row>
     <row r="149" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A149" s="1" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="B149" s="1" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="C149" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D149" s="1" t="s">
-        <v>321</v>
+        <v>326</v>
       </c>
       <c r="E149" s="1" t="s">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="F149" s="1" t="s">
-        <v>37</v>
+        <v>19</v>
       </c>
     </row>
     <row r="150" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A150" s="1" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="B150" s="1" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="C150" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D150" s="1" t="s">
-        <v>332</v>
+        <v>326</v>
       </c>
       <c r="E150" s="1" t="s">
-        <v>4</v>
+        <v>15</v>
       </c>
       <c r="F150" s="1" t="s">
-        <v>37</v>
+        <v>19</v>
       </c>
     </row>
     <row r="151" spans="1:6" x14ac:dyDescent="0.25">
@@ -5008,13 +4978,13 @@
         <v>3</v>
       </c>
       <c r="D151" s="1" t="s">
-        <v>332</v>
+        <v>326</v>
       </c>
       <c r="E151" s="1" t="s">
-        <v>8</v>
+        <v>18</v>
       </c>
       <c r="F151" s="1" t="s">
-        <v>37</v>
+        <v>5</v>
       </c>
     </row>
     <row r="152" spans="1:6" x14ac:dyDescent="0.25">
@@ -5028,70 +4998,70 @@
         <v>3</v>
       </c>
       <c r="D152" s="1" t="s">
-        <v>332</v>
+        <v>337</v>
       </c>
       <c r="E152" s="1" t="s">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="F152" s="1" t="s">
-        <v>19</v>
+        <v>37</v>
       </c>
     </row>
     <row r="153" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A153" s="1" t="s">
+        <v>338</v>
+      </c>
+      <c r="B153" s="1" t="s">
+        <v>339</v>
+      </c>
+      <c r="C153" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D153" s="1" t="s">
         <v>337</v>
       </c>
-      <c r="B153" s="1" t="s">
-        <v>338</v>
-      </c>
-      <c r="C153" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="D153" s="1" t="s">
-        <v>332</v>
-      </c>
       <c r="E153" s="1" t="s">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="F153" s="1" t="s">
-        <v>19</v>
+        <v>37</v>
       </c>
     </row>
     <row r="154" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A154" s="1" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="B154" s="1" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="C154" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D154" s="1" t="s">
-        <v>332</v>
+        <v>337</v>
       </c>
       <c r="E154" s="1" t="s">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="F154" s="1" t="s">
-        <v>5</v>
+        <v>37</v>
       </c>
     </row>
     <row r="155" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A155" s="1" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="B155" s="1" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="C155" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D155" s="1" t="s">
-        <v>343</v>
+        <v>337</v>
       </c>
       <c r="E155" s="1" t="s">
-        <v>4</v>
+        <v>15</v>
       </c>
       <c r="F155" s="1" t="s">
         <v>37</v>
@@ -5108,10 +5078,10 @@
         <v>3</v>
       </c>
       <c r="D156" s="1" t="s">
-        <v>343</v>
+        <v>337</v>
       </c>
       <c r="E156" s="1" t="s">
-        <v>8</v>
+        <v>18</v>
       </c>
       <c r="F156" s="1" t="s">
         <v>37</v>
@@ -5128,13 +5098,13 @@
         <v>3</v>
       </c>
       <c r="D157" s="1" t="s">
-        <v>343</v>
+        <v>337</v>
       </c>
       <c r="E157" s="1" t="s">
-        <v>11</v>
+        <v>22</v>
       </c>
       <c r="F157" s="1" t="s">
-        <v>37</v>
+        <v>90</v>
       </c>
     </row>
     <row r="158" spans="1:6" x14ac:dyDescent="0.25">
@@ -5148,13 +5118,13 @@
         <v>3</v>
       </c>
       <c r="D158" s="1" t="s">
-        <v>343</v>
+        <v>337</v>
       </c>
       <c r="E158" s="1" t="s">
-        <v>15</v>
+        <v>86</v>
       </c>
       <c r="F158" s="1" t="s">
-        <v>37</v>
+        <v>90</v>
       </c>
     </row>
     <row r="159" spans="1:6" x14ac:dyDescent="0.25">
@@ -5168,10 +5138,10 @@
         <v>3</v>
       </c>
       <c r="D159" s="1" t="s">
-        <v>343</v>
+        <v>337</v>
       </c>
       <c r="E159" s="1" t="s">
-        <v>18</v>
+        <v>89</v>
       </c>
       <c r="F159" s="1" t="s">
         <v>37</v>
@@ -5188,73 +5158,73 @@
         <v>3</v>
       </c>
       <c r="D160" s="1" t="s">
-        <v>343</v>
+        <v>354</v>
       </c>
       <c r="E160" s="1" t="s">
-        <v>22</v>
+        <v>4</v>
       </c>
       <c r="F160" s="1" t="s">
-        <v>117</v>
+        <v>37</v>
       </c>
     </row>
     <row r="161" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A161" s="1" t="s">
+        <v>355</v>
+      </c>
+      <c r="B161" s="1" t="s">
+        <v>356</v>
+      </c>
+      <c r="C161" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D161" s="1" t="s">
         <v>354</v>
       </c>
-      <c r="B161" s="1" t="s">
-        <v>355</v>
-      </c>
-      <c r="C161" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="D161" s="1" t="s">
-        <v>343</v>
-      </c>
       <c r="E161" s="1" t="s">
-        <v>86</v>
+        <v>8</v>
       </c>
       <c r="F161" s="1" t="s">
-        <v>117</v>
+        <v>19</v>
       </c>
     </row>
     <row r="162" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A162" s="1" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="B162" s="1" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="C162" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D162" s="1" t="s">
-        <v>343</v>
+        <v>354</v>
       </c>
       <c r="E162" s="1" t="s">
-        <v>89</v>
+        <v>11</v>
       </c>
       <c r="F162" s="1" t="s">
-        <v>37</v>
+        <v>19</v>
       </c>
     </row>
     <row r="163" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A163" s="1" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="B163" s="1" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="C163" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D163" s="1" t="s">
-        <v>360</v>
+        <v>354</v>
       </c>
       <c r="E163" s="1" t="s">
-        <v>4</v>
+        <v>15</v>
       </c>
       <c r="F163" s="1" t="s">
-        <v>37</v>
+        <v>19</v>
       </c>
     </row>
     <row r="164" spans="1:6" x14ac:dyDescent="0.25">
@@ -5268,10 +5238,10 @@
         <v>3</v>
       </c>
       <c r="D164" s="1" t="s">
-        <v>360</v>
+        <v>354</v>
       </c>
       <c r="E164" s="1" t="s">
-        <v>8</v>
+        <v>18</v>
       </c>
       <c r="F164" s="1" t="s">
         <v>19</v>
@@ -5288,13 +5258,13 @@
         <v>3</v>
       </c>
       <c r="D165" s="1" t="s">
-        <v>360</v>
+        <v>354</v>
       </c>
       <c r="E165" s="1" t="s">
-        <v>11</v>
+        <v>22</v>
       </c>
       <c r="F165" s="1" t="s">
-        <v>19</v>
+        <v>37</v>
       </c>
     </row>
     <row r="166" spans="1:6" x14ac:dyDescent="0.25">
@@ -5308,73 +5278,73 @@
         <v>3</v>
       </c>
       <c r="D166" s="1" t="s">
-        <v>360</v>
+        <v>367</v>
       </c>
       <c r="E166" s="1" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="F166" s="1" t="s">
-        <v>19</v>
+        <v>37</v>
       </c>
     </row>
     <row r="167" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A167" s="1" t="s">
+        <v>368</v>
+      </c>
+      <c r="B167" s="1" t="s">
+        <v>369</v>
+      </c>
+      <c r="C167" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D167" s="1" t="s">
         <v>367</v>
       </c>
-      <c r="B167" s="1" t="s">
-        <v>368</v>
-      </c>
-      <c r="C167" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="D167" s="1" t="s">
-        <v>360</v>
-      </c>
       <c r="E167" s="1" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="F167" s="1" t="s">
-        <v>19</v>
+        <v>37</v>
       </c>
     </row>
     <row r="168" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A168" s="1" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="B168" s="1" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="C168" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D168" s="1" t="s">
-        <v>360</v>
+        <v>367</v>
       </c>
       <c r="E168" s="1" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="F168" s="1" t="s">
-        <v>37</v>
+        <v>5</v>
       </c>
     </row>
     <row r="169" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A169" s="1" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="B169" s="1" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="C169" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D169" s="1" t="s">
-        <v>373</v>
+        <v>367</v>
       </c>
       <c r="E169" s="1" t="s">
-        <v>4</v>
+        <v>22</v>
       </c>
       <c r="F169" s="1" t="s">
-        <v>37</v>
+        <v>5</v>
       </c>
     </row>
     <row r="170" spans="1:6" x14ac:dyDescent="0.25">
@@ -5388,13 +5358,13 @@
         <v>3</v>
       </c>
       <c r="D170" s="1" t="s">
-        <v>373</v>
+        <v>367</v>
       </c>
       <c r="E170" s="1" t="s">
-        <v>8</v>
+        <v>86</v>
       </c>
       <c r="F170" s="1" t="s">
-        <v>5</v>
+        <v>12</v>
       </c>
     </row>
     <row r="171" spans="1:6" x14ac:dyDescent="0.25">
@@ -5408,13 +5378,13 @@
         <v>3</v>
       </c>
       <c r="D171" s="1" t="s">
-        <v>373</v>
+        <v>367</v>
       </c>
       <c r="E171" s="1" t="s">
-        <v>11</v>
+        <v>89</v>
       </c>
       <c r="F171" s="1" t="s">
-        <v>37</v>
+        <v>12</v>
       </c>
     </row>
     <row r="172" spans="1:6" x14ac:dyDescent="0.25">
@@ -5428,113 +5398,113 @@
         <v>3</v>
       </c>
       <c r="D172" s="1" t="s">
-        <v>373</v>
+        <v>380</v>
       </c>
       <c r="E172" s="1" t="s">
-        <v>15</v>
+        <v>4</v>
       </c>
       <c r="F172" s="1" t="s">
-        <v>37</v>
+        <v>137</v>
       </c>
     </row>
     <row r="173" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A173" s="1" t="s">
+        <v>381</v>
+      </c>
+      <c r="B173" s="1" t="s">
+        <v>382</v>
+      </c>
+      <c r="C173" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D173" s="1" t="s">
         <v>380</v>
       </c>
-      <c r="B173" s="1" t="s">
-        <v>381</v>
-      </c>
-      <c r="C173" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="D173" s="1" t="s">
-        <v>373</v>
-      </c>
       <c r="E173" s="1" t="s">
-        <v>18</v>
+        <v>8</v>
       </c>
       <c r="F173" s="1" t="s">
-        <v>5</v>
+        <v>37</v>
       </c>
     </row>
     <row r="174" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A174" s="1" t="s">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="B174" s="1" t="s">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="C174" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D174" s="1" t="s">
-        <v>373</v>
+        <v>380</v>
       </c>
       <c r="E174" s="1" t="s">
-        <v>22</v>
+        <v>11</v>
       </c>
       <c r="F174" s="1" t="s">
-        <v>5</v>
+        <v>19</v>
       </c>
     </row>
     <row r="175" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A175" s="1" t="s">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="B175" s="1" t="s">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="C175" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D175" s="1" t="s">
-        <v>373</v>
+        <v>380</v>
       </c>
       <c r="E175" s="1" t="s">
-        <v>86</v>
+        <v>15</v>
       </c>
       <c r="F175" s="1" t="s">
-        <v>12</v>
+        <v>37</v>
       </c>
     </row>
     <row r="176" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A176" s="1" t="s">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="B176" s="1" t="s">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="C176" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D176" s="1" t="s">
-        <v>373</v>
+        <v>380</v>
       </c>
       <c r="E176" s="1" t="s">
-        <v>92</v>
+        <v>18</v>
       </c>
       <c r="F176" s="1" t="s">
-        <v>12</v>
+        <v>37</v>
       </c>
     </row>
     <row r="177" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A177" s="1" t="s">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="B177" s="1" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="C177" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D177" s="1" t="s">
-        <v>390</v>
+        <v>380</v>
       </c>
       <c r="E177" s="1" t="s">
-        <v>4</v>
+        <v>22</v>
       </c>
       <c r="F177" s="1" t="s">
-        <v>142</v>
+        <v>37</v>
       </c>
     </row>
     <row r="178" spans="1:6" x14ac:dyDescent="0.25">
@@ -5548,13 +5518,13 @@
         <v>3</v>
       </c>
       <c r="D178" s="1" t="s">
-        <v>390</v>
+        <v>380</v>
       </c>
       <c r="E178" s="1" t="s">
-        <v>8</v>
+        <v>86</v>
       </c>
       <c r="F178" s="1" t="s">
-        <v>37</v>
+        <v>5</v>
       </c>
     </row>
     <row r="179" spans="1:6" x14ac:dyDescent="0.25">
@@ -5568,13 +5538,13 @@
         <v>3</v>
       </c>
       <c r="D179" s="1" t="s">
-        <v>390</v>
+        <v>380</v>
       </c>
       <c r="E179" s="1" t="s">
-        <v>11</v>
+        <v>89</v>
       </c>
       <c r="F179" s="1" t="s">
-        <v>19</v>
+        <v>37</v>
       </c>
     </row>
     <row r="180" spans="1:6" x14ac:dyDescent="0.25">
@@ -5588,210 +5558,210 @@
         <v>3</v>
       </c>
       <c r="D180" s="1" t="s">
-        <v>390</v>
+        <v>397</v>
       </c>
       <c r="E180" s="1" t="s">
-        <v>15</v>
+        <v>4</v>
       </c>
       <c r="F180" s="1" t="s">
-        <v>37</v>
+        <v>19</v>
       </c>
     </row>
     <row r="181" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A181" s="1" t="s">
+        <v>398</v>
+      </c>
+      <c r="B181" s="1" t="s">
+        <v>399</v>
+      </c>
+      <c r="C181" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D181" s="1" t="s">
         <v>397</v>
       </c>
-      <c r="B181" s="1" t="s">
-        <v>398</v>
-      </c>
-      <c r="C181" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="D181" s="1" t="s">
-        <v>390</v>
-      </c>
       <c r="E181" s="1" t="s">
-        <v>18</v>
+        <v>8</v>
       </c>
       <c r="F181" s="1" t="s">
-        <v>37</v>
+        <v>19</v>
       </c>
     </row>
     <row r="182" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A182" s="1" t="s">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="B182" s="1" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="C182" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D182" s="1" t="s">
-        <v>390</v>
+        <v>397</v>
       </c>
       <c r="E182" s="1" t="s">
-        <v>22</v>
+        <v>11</v>
       </c>
       <c r="F182" s="1" t="s">
-        <v>37</v>
+        <v>19</v>
       </c>
     </row>
     <row r="183" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A183" s="1" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="B183" s="1" t="s">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="C183" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D183" s="1" t="s">
-        <v>390</v>
+        <v>397</v>
       </c>
       <c r="E183" s="1" t="s">
-        <v>86</v>
+        <v>15</v>
       </c>
       <c r="F183" s="1" t="s">
-        <v>5</v>
+        <v>19</v>
       </c>
     </row>
     <row r="184" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A184" s="1" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="B184" s="1" t="s">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="C184" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D184" s="1" t="s">
-        <v>390</v>
+        <v>397</v>
       </c>
       <c r="E184" s="1" t="s">
-        <v>89</v>
+        <v>18</v>
       </c>
       <c r="F184" s="1" t="s">
-        <v>37</v>
+        <v>19</v>
       </c>
     </row>
     <row r="185" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A185" s="1" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="B185" s="1" t="s">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="C185" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D185" s="1" t="s">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="E185" s="1" t="s">
         <v>4</v>
       </c>
       <c r="F185" s="1" t="s">
-        <v>19</v>
+        <v>37</v>
       </c>
     </row>
     <row r="186" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A186" s="1" t="s">
+        <v>409</v>
+      </c>
+      <c r="B186" s="1" t="s">
+        <v>410</v>
+      </c>
+      <c r="C186" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D186" s="1" t="s">
         <v>408</v>
-      </c>
-      <c r="B186" s="1" t="s">
-        <v>409</v>
-      </c>
-      <c r="C186" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="D186" s="1" t="s">
-        <v>407</v>
       </c>
       <c r="E186" s="1" t="s">
         <v>8</v>
       </c>
       <c r="F186" s="1" t="s">
-        <v>19</v>
+        <v>37</v>
       </c>
     </row>
     <row r="187" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A187" s="1" t="s">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="B187" s="1" t="s">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="C187" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D187" s="1" t="s">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="E187" s="1" t="s">
         <v>11</v>
       </c>
       <c r="F187" s="1" t="s">
-        <v>19</v>
+        <v>37</v>
       </c>
     </row>
     <row r="188" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A188" s="1" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="B188" s="1" t="s">
-        <v>413</v>
+        <v>414</v>
       </c>
       <c r="C188" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D188" s="1" t="s">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="E188" s="1" t="s">
         <v>15</v>
       </c>
       <c r="F188" s="1" t="s">
-        <v>19</v>
+        <v>37</v>
       </c>
     </row>
     <row r="189" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A189" s="1" t="s">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="B189" s="1" t="s">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="C189" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D189" s="1" t="s">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="E189" s="1" t="s">
         <v>18</v>
       </c>
       <c r="F189" s="1" t="s">
-        <v>19</v>
+        <v>37</v>
       </c>
     </row>
     <row r="190" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A190" s="1" t="s">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="B190" s="1" t="s">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="C190" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D190" s="1" t="s">
-        <v>418</v>
+        <v>408</v>
       </c>
       <c r="E190" s="1" t="s">
-        <v>4</v>
+        <v>22</v>
       </c>
       <c r="F190" s="1" t="s">
         <v>37</v>
@@ -5808,10 +5778,10 @@
         <v>3</v>
       </c>
       <c r="D191" s="1" t="s">
-        <v>418</v>
+        <v>408</v>
       </c>
       <c r="E191" s="1" t="s">
-        <v>8</v>
+        <v>86</v>
       </c>
       <c r="F191" s="1" t="s">
         <v>37</v>
@@ -5828,10 +5798,10 @@
         <v>3</v>
       </c>
       <c r="D192" s="1" t="s">
-        <v>418</v>
+        <v>408</v>
       </c>
       <c r="E192" s="1" t="s">
-        <v>11</v>
+        <v>89</v>
       </c>
       <c r="F192" s="1" t="s">
         <v>37</v>
@@ -5848,13 +5818,13 @@
         <v>3</v>
       </c>
       <c r="D193" s="1" t="s">
-        <v>418</v>
+        <v>408</v>
       </c>
       <c r="E193" s="1" t="s">
-        <v>15</v>
+        <v>93</v>
       </c>
       <c r="F193" s="1" t="s">
-        <v>37</v>
+        <v>12</v>
       </c>
     </row>
     <row r="194" spans="1:6" x14ac:dyDescent="0.25">
@@ -5868,10 +5838,10 @@
         <v>3</v>
       </c>
       <c r="D194" s="1" t="s">
-        <v>418</v>
+        <v>427</v>
       </c>
       <c r="E194" s="1" t="s">
-        <v>18</v>
+        <v>4</v>
       </c>
       <c r="F194" s="1" t="s">
         <v>37</v>
@@ -5879,19 +5849,19 @@
     </row>
     <row r="195" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A195" s="1" t="s">
+        <v>428</v>
+      </c>
+      <c r="B195" s="1" t="s">
+        <v>429</v>
+      </c>
+      <c r="C195" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D195" s="1" t="s">
         <v>427</v>
       </c>
-      <c r="B195" s="1" t="s">
-        <v>428</v>
-      </c>
-      <c r="C195" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="D195" s="1" t="s">
-        <v>418</v>
-      </c>
       <c r="E195" s="1" t="s">
-        <v>22</v>
+        <v>8</v>
       </c>
       <c r="F195" s="1" t="s">
         <v>37</v>
@@ -5899,19 +5869,19 @@
     </row>
     <row r="196" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A196" s="1" t="s">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="B196" s="1" t="s">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="C196" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D196" s="1" t="s">
-        <v>418</v>
+        <v>427</v>
       </c>
       <c r="E196" s="1" t="s">
-        <v>86</v>
+        <v>11</v>
       </c>
       <c r="F196" s="1" t="s">
         <v>37</v>
@@ -5919,59 +5889,59 @@
     </row>
     <row r="197" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A197" s="1" t="s">
-        <v>431</v>
+        <v>432</v>
       </c>
       <c r="B197" s="1" t="s">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="C197" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D197" s="1" t="s">
-        <v>418</v>
+        <v>427</v>
       </c>
       <c r="E197" s="1" t="s">
-        <v>89</v>
+        <v>15</v>
       </c>
       <c r="F197" s="1" t="s">
-        <v>37</v>
+        <v>90</v>
       </c>
     </row>
     <row r="198" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A198" s="1" t="s">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c r="B198" s="1" t="s">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="C198" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D198" s="1" t="s">
-        <v>418</v>
+        <v>427</v>
       </c>
       <c r="E198" s="1" t="s">
-        <v>92</v>
+        <v>18</v>
       </c>
       <c r="F198" s="1" t="s">
-        <v>12</v>
+        <v>37</v>
       </c>
     </row>
     <row r="199" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A199" s="1" t="s">
-        <v>435</v>
+        <v>436</v>
       </c>
       <c r="B199" s="1" t="s">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c r="C199" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D199" s="1" t="s">
-        <v>437</v>
+        <v>427</v>
       </c>
       <c r="E199" s="1" t="s">
-        <v>4</v>
+        <v>22</v>
       </c>
       <c r="F199" s="1" t="s">
         <v>37</v>
@@ -5988,10 +5958,10 @@
         <v>3</v>
       </c>
       <c r="D200" s="1" t="s">
-        <v>437</v>
+        <v>440</v>
       </c>
       <c r="E200" s="1" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="F200" s="1" t="s">
         <v>37</v>
@@ -5999,19 +5969,19 @@
     </row>
     <row r="201" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A201" s="1" t="s">
+        <v>441</v>
+      </c>
+      <c r="B201" s="1" t="s">
+        <v>442</v>
+      </c>
+      <c r="C201" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D201" s="1" t="s">
         <v>440</v>
       </c>
-      <c r="B201" s="1" t="s">
-        <v>441</v>
-      </c>
-      <c r="C201" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="D201" s="1" t="s">
-        <v>437</v>
-      </c>
       <c r="E201" s="1" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="F201" s="1" t="s">
         <v>37</v>
@@ -6019,39 +5989,39 @@
     </row>
     <row r="202" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A202" s="1" t="s">
-        <v>442</v>
+        <v>443</v>
       </c>
       <c r="B202" s="1" t="s">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="C202" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D202" s="1" t="s">
-        <v>437</v>
+        <v>440</v>
       </c>
       <c r="E202" s="1" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="F202" s="1" t="s">
-        <v>117</v>
+        <v>37</v>
       </c>
     </row>
     <row r="203" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A203" s="1" t="s">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="B203" s="1" t="s">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="C203" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D203" s="1" t="s">
-        <v>437</v>
+        <v>440</v>
       </c>
       <c r="E203" s="1" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="F203" s="1" t="s">
         <v>37</v>
@@ -6059,19 +6029,19 @@
     </row>
     <row r="204" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A204" s="1" t="s">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="B204" s="1" t="s">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="C204" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D204" s="1" t="s">
-        <v>437</v>
+        <v>440</v>
       </c>
       <c r="E204" s="1" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="F204" s="1" t="s">
         <v>37</v>
@@ -6079,19 +6049,19 @@
     </row>
     <row r="205" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A205" s="1" t="s">
-        <v>448</v>
+        <v>449</v>
       </c>
       <c r="B205" s="1" t="s">
-        <v>449</v>
+        <v>450</v>
       </c>
       <c r="C205" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D205" s="1" t="s">
-        <v>450</v>
+        <v>440</v>
       </c>
       <c r="E205" s="1" t="s">
-        <v>4</v>
+        <v>22</v>
       </c>
       <c r="F205" s="1" t="s">
         <v>37</v>
@@ -6108,10 +6078,10 @@
         <v>3</v>
       </c>
       <c r="D206" s="1" t="s">
-        <v>450</v>
+        <v>453</v>
       </c>
       <c r="E206" s="1" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="F206" s="1" t="s">
         <v>37</v>
@@ -6119,19 +6089,19 @@
     </row>
     <row r="207" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A207" s="1" t="s">
+        <v>454</v>
+      </c>
+      <c r="B207" s="1" t="s">
+        <v>455</v>
+      </c>
+      <c r="C207" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D207" s="1" t="s">
         <v>453</v>
       </c>
-      <c r="B207" s="1" t="s">
-        <v>454</v>
-      </c>
-      <c r="C207" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="D207" s="1" t="s">
-        <v>450</v>
-      </c>
       <c r="E207" s="1" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="F207" s="1" t="s">
         <v>37</v>
@@ -6139,19 +6109,19 @@
     </row>
     <row r="208" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A208" s="1" t="s">
-        <v>455</v>
+        <v>456</v>
       </c>
       <c r="B208" s="1" t="s">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="C208" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D208" s="1" t="s">
-        <v>450</v>
+        <v>453</v>
       </c>
       <c r="E208" s="1" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="F208" s="1" t="s">
         <v>37</v>
@@ -6159,19 +6129,19 @@
     </row>
     <row r="209" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A209" s="1" t="s">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="B209" s="1" t="s">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="C209" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D209" s="1" t="s">
-        <v>450</v>
+        <v>453</v>
       </c>
       <c r="E209" s="1" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="F209" s="1" t="s">
         <v>37</v>
@@ -6179,19 +6149,19 @@
     </row>
     <row r="210" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A210" s="1" t="s">
-        <v>459</v>
+        <v>460</v>
       </c>
       <c r="B210" s="1" t="s">
-        <v>460</v>
+        <v>461</v>
       </c>
       <c r="C210" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D210" s="1" t="s">
-        <v>450</v>
+        <v>453</v>
       </c>
       <c r="E210" s="1" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="F210" s="1" t="s">
         <v>37</v>
@@ -6199,16 +6169,16 @@
     </row>
     <row r="211" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A211" s="1" t="s">
-        <v>461</v>
+        <v>462</v>
       </c>
       <c r="B211" s="1" t="s">
-        <v>462</v>
+        <v>463</v>
       </c>
       <c r="C211" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D211" s="1" t="s">
-        <v>463</v>
+        <v>464</v>
       </c>
       <c r="E211" s="1" t="s">
         <v>4</v>
@@ -6219,16 +6189,16 @@
     </row>
     <row r="212" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A212" s="1" t="s">
+        <v>465</v>
+      </c>
+      <c r="B212" s="1" t="s">
+        <v>466</v>
+      </c>
+      <c r="C212" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D212" s="1" t="s">
         <v>464</v>
-      </c>
-      <c r="B212" s="1" t="s">
-        <v>465</v>
-      </c>
-      <c r="C212" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="D212" s="1" t="s">
-        <v>463</v>
       </c>
       <c r="E212" s="1" t="s">
         <v>8</v>
@@ -6239,16 +6209,16 @@
     </row>
     <row r="213" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A213" s="1" t="s">
-        <v>466</v>
+        <v>467</v>
       </c>
       <c r="B213" s="1" t="s">
-        <v>467</v>
+        <v>468</v>
       </c>
       <c r="C213" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D213" s="1" t="s">
-        <v>463</v>
+        <v>464</v>
       </c>
       <c r="E213" s="1" t="s">
         <v>11</v>
@@ -6259,16 +6229,16 @@
     </row>
     <row r="214" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A214" s="1" t="s">
-        <v>468</v>
+        <v>469</v>
       </c>
       <c r="B214" s="1" t="s">
-        <v>469</v>
+        <v>470</v>
       </c>
       <c r="C214" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D214" s="1" t="s">
-        <v>463</v>
+        <v>464</v>
       </c>
       <c r="E214" s="1" t="s">
         <v>15</v>
@@ -6279,16 +6249,16 @@
     </row>
     <row r="215" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A215" s="1" t="s">
-        <v>470</v>
+        <v>471</v>
       </c>
       <c r="B215" s="1" t="s">
-        <v>471</v>
+        <v>472</v>
       </c>
       <c r="C215" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D215" s="1" t="s">
-        <v>463</v>
+        <v>464</v>
       </c>
       <c r="E215" s="1" t="s">
         <v>18</v>
@@ -6299,16 +6269,16 @@
     </row>
     <row r="216" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A216" s="1" t="s">
-        <v>472</v>
+        <v>473</v>
       </c>
       <c r="B216" s="1" t="s">
-        <v>473</v>
+        <v>474</v>
       </c>
       <c r="C216" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D216" s="1" t="s">
-        <v>474</v>
+        <v>475</v>
       </c>
       <c r="E216" s="1" t="s">
         <v>4</v>
@@ -6319,16 +6289,16 @@
     </row>
     <row r="217" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A217" s="1" t="s">
+        <v>476</v>
+      </c>
+      <c r="B217" s="1" t="s">
+        <v>477</v>
+      </c>
+      <c r="C217" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D217" s="1" t="s">
         <v>475</v>
-      </c>
-      <c r="B217" s="1" t="s">
-        <v>476</v>
-      </c>
-      <c r="C217" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="D217" s="1" t="s">
-        <v>474</v>
       </c>
       <c r="E217" s="1" t="s">
         <v>8</v>
@@ -6339,16 +6309,16 @@
     </row>
     <row r="218" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A218" s="1" t="s">
-        <v>477</v>
+        <v>478</v>
       </c>
       <c r="B218" s="1" t="s">
-        <v>478</v>
+        <v>479</v>
       </c>
       <c r="C218" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D218" s="1" t="s">
-        <v>474</v>
+        <v>475</v>
       </c>
       <c r="E218" s="1" t="s">
         <v>11</v>
@@ -6359,16 +6329,16 @@
     </row>
     <row r="219" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A219" s="1" t="s">
-        <v>479</v>
+        <v>480</v>
       </c>
       <c r="B219" s="1" t="s">
-        <v>480</v>
+        <v>481</v>
       </c>
       <c r="C219" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D219" s="1" t="s">
-        <v>474</v>
+        <v>475</v>
       </c>
       <c r="E219" s="1" t="s">
         <v>15</v>
@@ -6379,16 +6349,16 @@
     </row>
     <row r="220" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A220" s="1" t="s">
-        <v>481</v>
+        <v>482</v>
       </c>
       <c r="B220" s="1" t="s">
-        <v>482</v>
+        <v>483</v>
       </c>
       <c r="C220" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D220" s="1" t="s">
-        <v>474</v>
+        <v>475</v>
       </c>
       <c r="E220" s="1" t="s">
         <v>18</v>
@@ -6399,19 +6369,19 @@
     </row>
     <row r="221" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A221" s="1" t="s">
-        <v>483</v>
+        <v>484</v>
       </c>
       <c r="B221" s="1" t="s">
-        <v>484</v>
+        <v>485</v>
       </c>
       <c r="C221" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D221" s="1" t="s">
-        <v>485</v>
+        <v>475</v>
       </c>
       <c r="E221" s="1" t="s">
-        <v>4</v>
+        <v>22</v>
       </c>
       <c r="F221" s="1" t="s">
         <v>37</v>
@@ -6428,10 +6398,10 @@
         <v>3</v>
       </c>
       <c r="D222" s="1" t="s">
-        <v>485</v>
+        <v>488</v>
       </c>
       <c r="E222" s="1" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="F222" s="1" t="s">
         <v>37</v>
@@ -6439,102 +6409,102 @@
     </row>
     <row r="223" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A223" s="1" t="s">
+        <v>489</v>
+      </c>
+      <c r="B223" s="1" t="s">
+        <v>490</v>
+      </c>
+      <c r="C223" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D223" s="1" t="s">
         <v>488</v>
       </c>
-      <c r="B223" s="1" t="s">
-        <v>489</v>
-      </c>
-      <c r="C223" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="D223" s="1" t="s">
-        <v>485</v>
-      </c>
       <c r="E223" s="1" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="F223" s="1" t="s">
-        <v>37</v>
+        <v>90</v>
       </c>
     </row>
     <row r="224" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A224" s="1" t="s">
-        <v>490</v>
+        <v>491</v>
       </c>
       <c r="B224" s="1" t="s">
-        <v>491</v>
+        <v>492</v>
       </c>
       <c r="C224" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D224" s="1" t="s">
-        <v>485</v>
+        <v>488</v>
       </c>
       <c r="E224" s="1" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="F224" s="1" t="s">
-        <v>37</v>
+        <v>90</v>
       </c>
     </row>
     <row r="225" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A225" s="1" t="s">
-        <v>492</v>
+        <v>493</v>
       </c>
       <c r="B225" s="1" t="s">
-        <v>493</v>
+        <v>494</v>
       </c>
       <c r="C225" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D225" s="1" t="s">
-        <v>485</v>
+        <v>488</v>
       </c>
       <c r="E225" s="1" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="F225" s="1" t="s">
-        <v>37</v>
+        <v>90</v>
       </c>
     </row>
     <row r="226" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A226" s="1" t="s">
-        <v>494</v>
+        <v>495</v>
       </c>
       <c r="B226" s="1" t="s">
-        <v>495</v>
+        <v>496</v>
       </c>
       <c r="C226" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D226" s="1" t="s">
-        <v>485</v>
+        <v>488</v>
       </c>
       <c r="E226" s="1" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="F226" s="1" t="s">
-        <v>37</v>
+        <v>90</v>
       </c>
     </row>
     <row r="227" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A227" s="1" t="s">
-        <v>496</v>
+        <v>497</v>
       </c>
       <c r="B227" s="1" t="s">
-        <v>497</v>
+        <v>498</v>
       </c>
       <c r="C227" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D227" s="1" t="s">
-        <v>498</v>
+        <v>488</v>
       </c>
       <c r="E227" s="1" t="s">
-        <v>4</v>
+        <v>22</v>
       </c>
       <c r="F227" s="1" t="s">
-        <v>37</v>
+        <v>90</v>
       </c>
     </row>
     <row r="228" spans="1:6" x14ac:dyDescent="0.25">
@@ -6548,13 +6518,13 @@
         <v>3</v>
       </c>
       <c r="D228" s="1" t="s">
-        <v>498</v>
+        <v>488</v>
       </c>
       <c r="E228" s="1" t="s">
-        <v>8</v>
+        <v>86</v>
       </c>
       <c r="F228" s="1" t="s">
-        <v>117</v>
+        <v>90</v>
       </c>
     </row>
     <row r="229" spans="1:6" x14ac:dyDescent="0.25">
@@ -6568,13 +6538,13 @@
         <v>3</v>
       </c>
       <c r="D229" s="1" t="s">
-        <v>498</v>
+        <v>488</v>
       </c>
       <c r="E229" s="1" t="s">
-        <v>11</v>
+        <v>89</v>
       </c>
       <c r="F229" s="1" t="s">
-        <v>117</v>
+        <v>19</v>
       </c>
     </row>
     <row r="230" spans="1:6" x14ac:dyDescent="0.25">
@@ -6588,13 +6558,13 @@
         <v>3</v>
       </c>
       <c r="D230" s="1" t="s">
-        <v>498</v>
+        <v>488</v>
       </c>
       <c r="E230" s="1" t="s">
-        <v>15</v>
+        <v>93</v>
       </c>
       <c r="F230" s="1" t="s">
-        <v>117</v>
+        <v>90</v>
       </c>
     </row>
     <row r="231" spans="1:6" x14ac:dyDescent="0.25">
@@ -6608,13 +6578,13 @@
         <v>3</v>
       </c>
       <c r="D231" s="1" t="s">
-        <v>498</v>
+        <v>488</v>
       </c>
       <c r="E231" s="1" t="s">
-        <v>18</v>
+        <v>96</v>
       </c>
       <c r="F231" s="1" t="s">
-        <v>117</v>
+        <v>90</v>
       </c>
     </row>
     <row r="232" spans="1:6" x14ac:dyDescent="0.25">
@@ -6628,192 +6598,92 @@
         <v>3</v>
       </c>
       <c r="D232" s="1" t="s">
-        <v>498</v>
+        <v>509</v>
       </c>
       <c r="E232" s="1" t="s">
-        <v>22</v>
+        <v>4</v>
       </c>
       <c r="F232" s="1" t="s">
-        <v>117</v>
+        <v>37</v>
       </c>
     </row>
     <row r="233" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A233" s="1" t="s">
+        <v>510</v>
+      </c>
+      <c r="B233" s="1" t="s">
+        <v>511</v>
+      </c>
+      <c r="C233" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D233" s="1" t="s">
         <v>509</v>
       </c>
-      <c r="B233" s="1" t="s">
-        <v>510</v>
-      </c>
-      <c r="C233" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="D233" s="1" t="s">
-        <v>498</v>
-      </c>
       <c r="E233" s="1" t="s">
-        <v>86</v>
+        <v>8</v>
       </c>
       <c r="F233" s="1" t="s">
-        <v>117</v>
+        <v>37</v>
       </c>
     </row>
     <row r="234" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A234" s="1" t="s">
-        <v>511</v>
+        <v>512</v>
       </c>
       <c r="B234" s="1" t="s">
-        <v>512</v>
+        <v>513</v>
       </c>
       <c r="C234" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D234" s="1" t="s">
-        <v>498</v>
+        <v>509</v>
       </c>
       <c r="E234" s="1" t="s">
-        <v>89</v>
+        <v>11</v>
       </c>
       <c r="F234" s="1" t="s">
-        <v>19</v>
+        <v>37</v>
       </c>
     </row>
     <row r="235" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A235" s="1" t="s">
-        <v>513</v>
+        <v>514</v>
       </c>
       <c r="B235" s="1" t="s">
-        <v>514</v>
+        <v>515</v>
       </c>
       <c r="C235" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D235" s="1" t="s">
-        <v>498</v>
+        <v>509</v>
       </c>
       <c r="E235" s="1" t="s">
-        <v>92</v>
+        <v>15</v>
       </c>
       <c r="F235" s="1" t="s">
-        <v>117</v>
+        <v>37</v>
       </c>
     </row>
     <row r="236" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A236" s="1" t="s">
-        <v>515</v>
+        <v>516</v>
       </c>
       <c r="B236" s="1" t="s">
-        <v>516</v>
+        <v>517</v>
       </c>
       <c r="C236" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D236" s="1" t="s">
-        <v>498</v>
+        <v>509</v>
       </c>
       <c r="E236" s="1" t="s">
-        <v>95</v>
+        <v>18</v>
       </c>
       <c r="F236" s="1" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="237" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A237" s="1" t="s">
-        <v>517</v>
-      </c>
-      <c r="B237" s="1" t="s">
-        <v>518</v>
-      </c>
-      <c r="C237" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="D237" s="1" t="s">
-        <v>519</v>
-      </c>
-      <c r="E237" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F237" s="1" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="238" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A238" s="1" t="s">
-        <v>520</v>
-      </c>
-      <c r="B238" s="1" t="s">
-        <v>521</v>
-      </c>
-      <c r="C238" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="D238" s="1" t="s">
-        <v>519</v>
-      </c>
-      <c r="E238" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="F238" s="1" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="239" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A239" s="1" t="s">
-        <v>522</v>
-      </c>
-      <c r="B239" s="1" t="s">
-        <v>523</v>
-      </c>
-      <c r="C239" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="D239" s="1" t="s">
-        <v>519</v>
-      </c>
-      <c r="E239" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="F239" s="1" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="240" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A240" s="1" t="s">
-        <v>524</v>
-      </c>
-      <c r="B240" s="1" t="s">
-        <v>525</v>
-      </c>
-      <c r="C240" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="D240" s="1" t="s">
-        <v>519</v>
-      </c>
-      <c r="E240" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="F240" s="1" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="241" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A241" s="1" t="s">
-        <v>526</v>
-      </c>
-      <c r="B241" s="1" t="s">
-        <v>527</v>
-      </c>
-      <c r="C241" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="D241" s="1" t="s">
-        <v>519</v>
-      </c>
-      <c r="E241" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="F241" s="1" t="s">
         <v>37</v>
       </c>
     </row>

--- a/SNK06D.xlsx
+++ b/SNK06D.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1416" uniqueCount="518">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1422" uniqueCount="520">
   <si>
     <t/>
   </si>
@@ -524,6 +524,12 @@
   </si>
   <si>
     <t>12</t>
+  </si>
+  <si>
+    <t>20140882</t>
+  </si>
+  <si>
+    <t>LAYS WAVY SAPI 105G</t>
   </si>
   <si>
     <t>20122571</t>
@@ -1957,7 +1963,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F236"/>
+  <dimension ref="A1:F237"/>
   <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="55"/>
   <cols>
     <col min="1" max="1" width="10" customWidth="1"/>
@@ -3501,10 +3507,10 @@
         <v>170</v>
       </c>
       <c r="E77" s="1" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="F77" s="1" t="s">
-        <v>19</v>
+        <v>37</v>
       </c>
     </row>
     <row r="78" spans="1:6" x14ac:dyDescent="0.25">
@@ -3521,7 +3527,7 @@
         <v>170</v>
       </c>
       <c r="E78" s="1" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="F78" s="1" t="s">
         <v>19</v>
@@ -3541,10 +3547,10 @@
         <v>170</v>
       </c>
       <c r="E79" s="1" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="F79" s="1" t="s">
-        <v>12</v>
+        <v>19</v>
       </c>
     </row>
     <row r="80" spans="1:6" x14ac:dyDescent="0.25">
@@ -3558,33 +3564,33 @@
         <v>3</v>
       </c>
       <c r="D80" s="1" t="s">
-        <v>179</v>
+        <v>170</v>
       </c>
       <c r="E80" s="1" t="s">
-        <v>4</v>
+        <v>18</v>
       </c>
       <c r="F80" s="1" t="s">
-        <v>5</v>
+        <v>12</v>
       </c>
     </row>
     <row r="81" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A81" s="1" t="s">
+        <v>179</v>
+      </c>
+      <c r="B81" s="1" t="s">
         <v>180</v>
       </c>
-      <c r="B81" s="1" t="s">
+      <c r="C81" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D81" s="1" t="s">
         <v>181</v>
       </c>
-      <c r="C81" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="D81" s="1" t="s">
-        <v>179</v>
-      </c>
       <c r="E81" s="1" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="F81" s="1" t="s">
-        <v>37</v>
+        <v>5</v>
       </c>
     </row>
     <row r="82" spans="1:6" x14ac:dyDescent="0.25">
@@ -3598,13 +3604,13 @@
         <v>3</v>
       </c>
       <c r="D82" s="1" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="E82" s="1" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="F82" s="1" t="s">
-        <v>5</v>
+        <v>37</v>
       </c>
     </row>
     <row r="83" spans="1:6" x14ac:dyDescent="0.25">
@@ -3618,10 +3624,10 @@
         <v>3</v>
       </c>
       <c r="D83" s="1" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="E83" s="1" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="F83" s="1" t="s">
         <v>5</v>
@@ -3638,13 +3644,13 @@
         <v>3</v>
       </c>
       <c r="D84" s="1" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="E84" s="1" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="F84" s="1" t="s">
-        <v>12</v>
+        <v>5</v>
       </c>
     </row>
     <row r="85" spans="1:6" x14ac:dyDescent="0.25">
@@ -3658,10 +3664,10 @@
         <v>3</v>
       </c>
       <c r="D85" s="1" t="s">
-        <v>190</v>
+        <v>181</v>
       </c>
       <c r="E85" s="1" t="s">
-        <v>4</v>
+        <v>18</v>
       </c>
       <c r="F85" s="1" t="s">
         <v>12</v>
@@ -3669,19 +3675,19 @@
     </row>
     <row r="86" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A86" s="1" t="s">
+        <v>190</v>
+      </c>
+      <c r="B86" s="1" t="s">
         <v>191</v>
       </c>
-      <c r="B86" s="1" t="s">
+      <c r="C86" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D86" s="1" t="s">
         <v>192</v>
       </c>
-      <c r="C86" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="D86" s="1" t="s">
-        <v>190</v>
-      </c>
       <c r="E86" s="1" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="F86" s="1" t="s">
         <v>12</v>
@@ -3698,13 +3704,13 @@
         <v>3</v>
       </c>
       <c r="D87" s="1" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="E87" s="1" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="F87" s="1" t="s">
-        <v>19</v>
+        <v>12</v>
       </c>
     </row>
     <row r="88" spans="1:6" x14ac:dyDescent="0.25">
@@ -3718,13 +3724,13 @@
         <v>3</v>
       </c>
       <c r="D88" s="1" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="E88" s="1" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="F88" s="1" t="s">
-        <v>37</v>
+        <v>19</v>
       </c>
     </row>
     <row r="89" spans="1:6" x14ac:dyDescent="0.25">
@@ -3738,10 +3744,10 @@
         <v>3</v>
       </c>
       <c r="D89" s="1" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="E89" s="1" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="F89" s="1" t="s">
         <v>37</v>
@@ -3758,10 +3764,10 @@
         <v>3</v>
       </c>
       <c r="D90" s="1" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="E90" s="1" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="F90" s="1" t="s">
         <v>37</v>
@@ -3778,10 +3784,10 @@
         <v>3</v>
       </c>
       <c r="D91" s="1" t="s">
-        <v>203</v>
+        <v>192</v>
       </c>
       <c r="E91" s="1" t="s">
-        <v>4</v>
+        <v>22</v>
       </c>
       <c r="F91" s="1" t="s">
         <v>37</v>
@@ -3789,19 +3795,19 @@
     </row>
     <row r="92" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A92" s="1" t="s">
+        <v>203</v>
+      </c>
+      <c r="B92" s="1" t="s">
         <v>204</v>
       </c>
-      <c r="B92" s="1" t="s">
+      <c r="C92" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D92" s="1" t="s">
         <v>205</v>
       </c>
-      <c r="C92" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="D92" s="1" t="s">
-        <v>203</v>
-      </c>
       <c r="E92" s="1" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="F92" s="1" t="s">
         <v>37</v>
@@ -3818,10 +3824,10 @@
         <v>3</v>
       </c>
       <c r="D93" s="1" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="E93" s="1" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="F93" s="1" t="s">
         <v>37</v>
@@ -3838,13 +3844,13 @@
         <v>3</v>
       </c>
       <c r="D94" s="1" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="E94" s="1" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="F94" s="1" t="s">
-        <v>137</v>
+        <v>37</v>
       </c>
     </row>
     <row r="95" spans="1:6" x14ac:dyDescent="0.25">
@@ -3858,13 +3864,13 @@
         <v>3</v>
       </c>
       <c r="D95" s="1" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="E95" s="1" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="F95" s="1" t="s">
-        <v>37</v>
+        <v>137</v>
       </c>
     </row>
     <row r="96" spans="1:6" x14ac:dyDescent="0.25">
@@ -3878,10 +3884,10 @@
         <v>3</v>
       </c>
       <c r="D96" s="1" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="E96" s="1" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="F96" s="1" t="s">
         <v>37</v>
@@ -3898,10 +3904,10 @@
         <v>3</v>
       </c>
       <c r="D97" s="1" t="s">
-        <v>216</v>
+        <v>205</v>
       </c>
       <c r="E97" s="1" t="s">
-        <v>4</v>
+        <v>22</v>
       </c>
       <c r="F97" s="1" t="s">
         <v>37</v>
@@ -3909,22 +3915,22 @@
     </row>
     <row r="98" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A98" s="1" t="s">
+        <v>216</v>
+      </c>
+      <c r="B98" s="1" t="s">
         <v>217</v>
       </c>
-      <c r="B98" s="1" t="s">
+      <c r="C98" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D98" s="1" t="s">
         <v>218</v>
       </c>
-      <c r="C98" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="D98" s="1" t="s">
-        <v>216</v>
-      </c>
       <c r="E98" s="1" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="F98" s="1" t="s">
-        <v>5</v>
+        <v>37</v>
       </c>
     </row>
     <row r="99" spans="1:6" x14ac:dyDescent="0.25">
@@ -3938,13 +3944,13 @@
         <v>3</v>
       </c>
       <c r="D99" s="1" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="E99" s="1" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="F99" s="1" t="s">
-        <v>37</v>
+        <v>5</v>
       </c>
     </row>
     <row r="100" spans="1:6" x14ac:dyDescent="0.25">
@@ -3958,13 +3964,13 @@
         <v>3</v>
       </c>
       <c r="D100" s="1" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="E100" s="1" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="F100" s="1" t="s">
-        <v>19</v>
+        <v>37</v>
       </c>
     </row>
     <row r="101" spans="1:6" x14ac:dyDescent="0.25">
@@ -3978,13 +3984,13 @@
         <v>3</v>
       </c>
       <c r="D101" s="1" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="E101" s="1" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="F101" s="1" t="s">
-        <v>37</v>
+        <v>19</v>
       </c>
     </row>
     <row r="102" spans="1:6" x14ac:dyDescent="0.25">
@@ -3998,10 +4004,10 @@
         <v>3</v>
       </c>
       <c r="D102" s="1" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="E102" s="1" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="F102" s="1" t="s">
         <v>37</v>
@@ -4018,10 +4024,10 @@
         <v>3</v>
       </c>
       <c r="D103" s="1" t="s">
-        <v>229</v>
+        <v>218</v>
       </c>
       <c r="E103" s="1" t="s">
-        <v>4</v>
+        <v>22</v>
       </c>
       <c r="F103" s="1" t="s">
         <v>37</v>
@@ -4029,19 +4035,19 @@
     </row>
     <row r="104" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A104" s="1" t="s">
+        <v>229</v>
+      </c>
+      <c r="B104" s="1" t="s">
         <v>230</v>
       </c>
-      <c r="B104" s="1" t="s">
+      <c r="C104" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D104" s="1" t="s">
         <v>231</v>
       </c>
-      <c r="C104" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="D104" s="1" t="s">
-        <v>229</v>
-      </c>
       <c r="E104" s="1" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="F104" s="1" t="s">
         <v>37</v>
@@ -4058,10 +4064,10 @@
         <v>3</v>
       </c>
       <c r="D105" s="1" t="s">
-        <v>229</v>
+        <v>231</v>
       </c>
       <c r="E105" s="1" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="F105" s="1" t="s">
         <v>37</v>
@@ -4078,13 +4084,13 @@
         <v>3</v>
       </c>
       <c r="D106" s="1" t="s">
-        <v>229</v>
+        <v>231</v>
       </c>
       <c r="E106" s="1" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="F106" s="1" t="s">
-        <v>5</v>
+        <v>37</v>
       </c>
     </row>
     <row r="107" spans="1:6" x14ac:dyDescent="0.25">
@@ -4098,13 +4104,13 @@
         <v>3</v>
       </c>
       <c r="D107" s="1" t="s">
-        <v>229</v>
+        <v>231</v>
       </c>
       <c r="E107" s="1" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="F107" s="1" t="s">
-        <v>19</v>
+        <v>5</v>
       </c>
     </row>
     <row r="108" spans="1:6" x14ac:dyDescent="0.25">
@@ -4118,30 +4124,30 @@
         <v>3</v>
       </c>
       <c r="D108" s="1" t="s">
-        <v>240</v>
+        <v>231</v>
       </c>
       <c r="E108" s="1" t="s">
-        <v>4</v>
+        <v>18</v>
       </c>
       <c r="F108" s="1" t="s">
-        <v>137</v>
+        <v>19</v>
       </c>
     </row>
     <row r="109" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A109" s="1" t="s">
+        <v>240</v>
+      </c>
+      <c r="B109" s="1" t="s">
         <v>241</v>
       </c>
-      <c r="B109" s="1" t="s">
+      <c r="C109" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D109" s="1" t="s">
         <v>242</v>
       </c>
-      <c r="C109" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="D109" s="1" t="s">
-        <v>240</v>
-      </c>
       <c r="E109" s="1" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="F109" s="1" t="s">
         <v>137</v>
@@ -4158,13 +4164,13 @@
         <v>3</v>
       </c>
       <c r="D110" s="1" t="s">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="E110" s="1" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="F110" s="1" t="s">
-        <v>37</v>
+        <v>137</v>
       </c>
     </row>
     <row r="111" spans="1:6" x14ac:dyDescent="0.25">
@@ -4178,10 +4184,10 @@
         <v>3</v>
       </c>
       <c r="D111" s="1" t="s">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="E111" s="1" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="F111" s="1" t="s">
         <v>37</v>
@@ -4198,13 +4204,13 @@
         <v>3</v>
       </c>
       <c r="D112" s="1" t="s">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="E112" s="1" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="F112" s="1" t="s">
-        <v>19</v>
+        <v>37</v>
       </c>
     </row>
     <row r="113" spans="1:6" x14ac:dyDescent="0.25">
@@ -4218,10 +4224,10 @@
         <v>3</v>
       </c>
       <c r="D113" s="1" t="s">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="E113" s="1" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="F113" s="1" t="s">
         <v>19</v>
@@ -4238,30 +4244,30 @@
         <v>3</v>
       </c>
       <c r="D114" s="1" t="s">
-        <v>253</v>
+        <v>242</v>
       </c>
       <c r="E114" s="1" t="s">
-        <v>4</v>
+        <v>22</v>
       </c>
       <c r="F114" s="1" t="s">
-        <v>5</v>
+        <v>19</v>
       </c>
     </row>
     <row r="115" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A115" s="1" t="s">
+        <v>253</v>
+      </c>
+      <c r="B115" s="1" t="s">
         <v>254</v>
       </c>
-      <c r="B115" s="1" t="s">
+      <c r="C115" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D115" s="1" t="s">
         <v>255</v>
       </c>
-      <c r="C115" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="D115" s="1" t="s">
-        <v>253</v>
-      </c>
       <c r="E115" s="1" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="F115" s="1" t="s">
         <v>5</v>
@@ -4278,10 +4284,10 @@
         <v>3</v>
       </c>
       <c r="D116" s="1" t="s">
-        <v>253</v>
+        <v>255</v>
       </c>
       <c r="E116" s="1" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="F116" s="1" t="s">
         <v>5</v>
@@ -4298,13 +4304,13 @@
         <v>3</v>
       </c>
       <c r="D117" s="1" t="s">
-        <v>253</v>
+        <v>255</v>
       </c>
       <c r="E117" s="1" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="F117" s="1" t="s">
-        <v>19</v>
+        <v>5</v>
       </c>
     </row>
     <row r="118" spans="1:6" x14ac:dyDescent="0.25">
@@ -4318,10 +4324,10 @@
         <v>3</v>
       </c>
       <c r="D118" s="1" t="s">
-        <v>253</v>
+        <v>255</v>
       </c>
       <c r="E118" s="1" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="F118" s="1" t="s">
         <v>19</v>
@@ -4338,30 +4344,30 @@
         <v>3</v>
       </c>
       <c r="D119" s="1" t="s">
-        <v>264</v>
+        <v>255</v>
       </c>
       <c r="E119" s="1" t="s">
-        <v>4</v>
+        <v>18</v>
       </c>
       <c r="F119" s="1" t="s">
-        <v>5</v>
+        <v>19</v>
       </c>
     </row>
     <row r="120" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A120" s="1" t="s">
+        <v>264</v>
+      </c>
+      <c r="B120" s="1" t="s">
         <v>265</v>
       </c>
-      <c r="B120" s="1" t="s">
+      <c r="C120" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D120" s="1" t="s">
         <v>266</v>
       </c>
-      <c r="C120" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="D120" s="1" t="s">
-        <v>264</v>
-      </c>
       <c r="E120" s="1" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="F120" s="1" t="s">
         <v>5</v>
@@ -4378,10 +4384,10 @@
         <v>3</v>
       </c>
       <c r="D121" s="1" t="s">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="E121" s="1" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="F121" s="1" t="s">
         <v>5</v>
@@ -4398,10 +4404,10 @@
         <v>3</v>
       </c>
       <c r="D122" s="1" t="s">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="E122" s="1" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="F122" s="1" t="s">
         <v>5</v>
@@ -4418,33 +4424,33 @@
         <v>3</v>
       </c>
       <c r="D123" s="1" t="s">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="E123" s="1" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="F123" s="1" t="s">
-        <v>273</v>
+        <v>5</v>
       </c>
     </row>
     <row r="124" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A124" s="1" t="s">
+        <v>273</v>
+      </c>
+      <c r="B124" s="1" t="s">
         <v>274</v>
       </c>
-      <c r="B124" s="1" t="s">
+      <c r="C124" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D124" s="1" t="s">
+        <v>266</v>
+      </c>
+      <c r="E124" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="F124" s="1" t="s">
         <v>275</v>
-      </c>
-      <c r="C124" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="D124" s="1" t="s">
-        <v>264</v>
-      </c>
-      <c r="E124" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="F124" s="1" t="s">
-        <v>273</v>
       </c>
     </row>
     <row r="125" spans="1:6" x14ac:dyDescent="0.25">
@@ -4458,30 +4464,30 @@
         <v>3</v>
       </c>
       <c r="D125" s="1" t="s">
-        <v>278</v>
+        <v>266</v>
       </c>
       <c r="E125" s="1" t="s">
-        <v>4</v>
+        <v>22</v>
       </c>
       <c r="F125" s="1" t="s">
-        <v>37</v>
+        <v>275</v>
       </c>
     </row>
     <row r="126" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A126" s="1" t="s">
+        <v>278</v>
+      </c>
+      <c r="B126" s="1" t="s">
         <v>279</v>
       </c>
-      <c r="B126" s="1" t="s">
+      <c r="C126" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D126" s="1" t="s">
         <v>280</v>
       </c>
-      <c r="C126" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="D126" s="1" t="s">
-        <v>278</v>
-      </c>
       <c r="E126" s="1" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="F126" s="1" t="s">
         <v>37</v>
@@ -4498,10 +4504,10 @@
         <v>3</v>
       </c>
       <c r="D127" s="1" t="s">
-        <v>278</v>
+        <v>280</v>
       </c>
       <c r="E127" s="1" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="F127" s="1" t="s">
         <v>37</v>
@@ -4518,10 +4524,10 @@
         <v>3</v>
       </c>
       <c r="D128" s="1" t="s">
-        <v>278</v>
+        <v>280</v>
       </c>
       <c r="E128" s="1" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="F128" s="1" t="s">
         <v>37</v>
@@ -4538,13 +4544,13 @@
         <v>3</v>
       </c>
       <c r="D129" s="1" t="s">
-        <v>278</v>
+        <v>280</v>
       </c>
       <c r="E129" s="1" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="F129" s="1" t="s">
-        <v>5</v>
+        <v>37</v>
       </c>
     </row>
     <row r="130" spans="1:6" x14ac:dyDescent="0.25">
@@ -4558,10 +4564,10 @@
         <v>3</v>
       </c>
       <c r="D130" s="1" t="s">
-        <v>278</v>
+        <v>280</v>
       </c>
       <c r="E130" s="1" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="F130" s="1" t="s">
         <v>5</v>
@@ -4578,10 +4584,10 @@
         <v>3</v>
       </c>
       <c r="D131" s="1" t="s">
-        <v>291</v>
+        <v>280</v>
       </c>
       <c r="E131" s="1" t="s">
-        <v>4</v>
+        <v>22</v>
       </c>
       <c r="F131" s="1" t="s">
         <v>5</v>
@@ -4589,19 +4595,19 @@
     </row>
     <row r="132" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A132" s="1" t="s">
+        <v>291</v>
+      </c>
+      <c r="B132" s="1" t="s">
         <v>292</v>
       </c>
-      <c r="B132" s="1" t="s">
+      <c r="C132" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D132" s="1" t="s">
         <v>293</v>
       </c>
-      <c r="C132" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="D132" s="1" t="s">
-        <v>291</v>
-      </c>
       <c r="E132" s="1" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="F132" s="1" t="s">
         <v>5</v>
@@ -4618,10 +4624,10 @@
         <v>3</v>
       </c>
       <c r="D133" s="1" t="s">
-        <v>291</v>
+        <v>293</v>
       </c>
       <c r="E133" s="1" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="F133" s="1" t="s">
         <v>5</v>
@@ -4638,13 +4644,13 @@
         <v>3</v>
       </c>
       <c r="D134" s="1" t="s">
-        <v>291</v>
+        <v>293</v>
       </c>
       <c r="E134" s="1" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="F134" s="1" t="s">
-        <v>37</v>
+        <v>5</v>
       </c>
     </row>
     <row r="135" spans="1:6" x14ac:dyDescent="0.25">
@@ -4658,10 +4664,10 @@
         <v>3</v>
       </c>
       <c r="D135" s="1" t="s">
-        <v>291</v>
+        <v>293</v>
       </c>
       <c r="E135" s="1" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="F135" s="1" t="s">
         <v>37</v>
@@ -4678,10 +4684,10 @@
         <v>3</v>
       </c>
       <c r="D136" s="1" t="s">
-        <v>291</v>
+        <v>293</v>
       </c>
       <c r="E136" s="1" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="F136" s="1" t="s">
         <v>37</v>
@@ -4698,10 +4704,10 @@
         <v>3</v>
       </c>
       <c r="D137" s="1" t="s">
-        <v>304</v>
+        <v>293</v>
       </c>
       <c r="E137" s="1" t="s">
-        <v>4</v>
+        <v>22</v>
       </c>
       <c r="F137" s="1" t="s">
         <v>37</v>
@@ -4709,19 +4715,19 @@
     </row>
     <row r="138" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A138" s="1" t="s">
+        <v>304</v>
+      </c>
+      <c r="B138" s="1" t="s">
         <v>305</v>
       </c>
-      <c r="B138" s="1" t="s">
+      <c r="C138" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D138" s="1" t="s">
         <v>306</v>
       </c>
-      <c r="C138" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="D138" s="1" t="s">
-        <v>304</v>
-      </c>
       <c r="E138" s="1" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="F138" s="1" t="s">
         <v>37</v>
@@ -4738,10 +4744,10 @@
         <v>3</v>
       </c>
       <c r="D139" s="1" t="s">
-        <v>304</v>
+        <v>306</v>
       </c>
       <c r="E139" s="1" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="F139" s="1" t="s">
         <v>37</v>
@@ -4758,13 +4764,13 @@
         <v>3</v>
       </c>
       <c r="D140" s="1" t="s">
-        <v>304</v>
+        <v>306</v>
       </c>
       <c r="E140" s="1" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="F140" s="1" t="s">
-        <v>12</v>
+        <v>37</v>
       </c>
     </row>
     <row r="141" spans="1:6" x14ac:dyDescent="0.25">
@@ -4778,13 +4784,13 @@
         <v>3</v>
       </c>
       <c r="D141" s="1" t="s">
-        <v>304</v>
+        <v>306</v>
       </c>
       <c r="E141" s="1" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="F141" s="1" t="s">
-        <v>37</v>
+        <v>12</v>
       </c>
     </row>
     <row r="142" spans="1:6" x14ac:dyDescent="0.25">
@@ -4798,10 +4804,10 @@
         <v>3</v>
       </c>
       <c r="D142" s="1" t="s">
-        <v>315</v>
+        <v>306</v>
       </c>
       <c r="E142" s="1" t="s">
-        <v>4</v>
+        <v>18</v>
       </c>
       <c r="F142" s="1" t="s">
         <v>37</v>
@@ -4809,19 +4815,19 @@
     </row>
     <row r="143" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A143" s="1" t="s">
+        <v>315</v>
+      </c>
+      <c r="B143" s="1" t="s">
         <v>316</v>
       </c>
-      <c r="B143" s="1" t="s">
+      <c r="C143" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D143" s="1" t="s">
         <v>317</v>
       </c>
-      <c r="C143" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="D143" s="1" t="s">
-        <v>315</v>
-      </c>
       <c r="E143" s="1" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="F143" s="1" t="s">
         <v>37</v>
@@ -4838,10 +4844,10 @@
         <v>3</v>
       </c>
       <c r="D144" s="1" t="s">
-        <v>315</v>
+        <v>317</v>
       </c>
       <c r="E144" s="1" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="F144" s="1" t="s">
         <v>37</v>
@@ -4858,10 +4864,10 @@
         <v>3</v>
       </c>
       <c r="D145" s="1" t="s">
-        <v>315</v>
+        <v>317</v>
       </c>
       <c r="E145" s="1" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="F145" s="1" t="s">
         <v>37</v>
@@ -4878,10 +4884,10 @@
         <v>3</v>
       </c>
       <c r="D146" s="1" t="s">
-        <v>315</v>
+        <v>317</v>
       </c>
       <c r="E146" s="1" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="F146" s="1" t="s">
         <v>37</v>
@@ -4898,10 +4904,10 @@
         <v>3</v>
       </c>
       <c r="D147" s="1" t="s">
-        <v>326</v>
+        <v>317</v>
       </c>
       <c r="E147" s="1" t="s">
-        <v>4</v>
+        <v>18</v>
       </c>
       <c r="F147" s="1" t="s">
         <v>37</v>
@@ -4909,19 +4915,19 @@
     </row>
     <row r="148" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A148" s="1" t="s">
+        <v>326</v>
+      </c>
+      <c r="B148" s="1" t="s">
         <v>327</v>
       </c>
-      <c r="B148" s="1" t="s">
+      <c r="C148" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D148" s="1" t="s">
         <v>328</v>
       </c>
-      <c r="C148" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="D148" s="1" t="s">
-        <v>326</v>
-      </c>
       <c r="E148" s="1" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="F148" s="1" t="s">
         <v>37</v>
@@ -4938,13 +4944,13 @@
         <v>3</v>
       </c>
       <c r="D149" s="1" t="s">
-        <v>326</v>
+        <v>328</v>
       </c>
       <c r="E149" s="1" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="F149" s="1" t="s">
-        <v>19</v>
+        <v>37</v>
       </c>
     </row>
     <row r="150" spans="1:6" x14ac:dyDescent="0.25">
@@ -4958,10 +4964,10 @@
         <v>3</v>
       </c>
       <c r="D150" s="1" t="s">
-        <v>326</v>
+        <v>328</v>
       </c>
       <c r="E150" s="1" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="F150" s="1" t="s">
         <v>19</v>
@@ -4978,13 +4984,13 @@
         <v>3</v>
       </c>
       <c r="D151" s="1" t="s">
-        <v>326</v>
+        <v>328</v>
       </c>
       <c r="E151" s="1" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="F151" s="1" t="s">
-        <v>5</v>
+        <v>19</v>
       </c>
     </row>
     <row r="152" spans="1:6" x14ac:dyDescent="0.25">
@@ -4998,30 +5004,30 @@
         <v>3</v>
       </c>
       <c r="D152" s="1" t="s">
-        <v>337</v>
+        <v>328</v>
       </c>
       <c r="E152" s="1" t="s">
-        <v>4</v>
+        <v>18</v>
       </c>
       <c r="F152" s="1" t="s">
-        <v>37</v>
+        <v>5</v>
       </c>
     </row>
     <row r="153" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A153" s="1" t="s">
+        <v>337</v>
+      </c>
+      <c r="B153" s="1" t="s">
         <v>338</v>
       </c>
-      <c r="B153" s="1" t="s">
+      <c r="C153" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D153" s="1" t="s">
         <v>339</v>
       </c>
-      <c r="C153" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="D153" s="1" t="s">
-        <v>337</v>
-      </c>
       <c r="E153" s="1" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="F153" s="1" t="s">
         <v>37</v>
@@ -5038,10 +5044,10 @@
         <v>3</v>
       </c>
       <c r="D154" s="1" t="s">
-        <v>337</v>
+        <v>339</v>
       </c>
       <c r="E154" s="1" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="F154" s="1" t="s">
         <v>37</v>
@@ -5058,10 +5064,10 @@
         <v>3</v>
       </c>
       <c r="D155" s="1" t="s">
-        <v>337</v>
+        <v>339</v>
       </c>
       <c r="E155" s="1" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="F155" s="1" t="s">
         <v>37</v>
@@ -5078,10 +5084,10 @@
         <v>3</v>
       </c>
       <c r="D156" s="1" t="s">
-        <v>337</v>
+        <v>339</v>
       </c>
       <c r="E156" s="1" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="F156" s="1" t="s">
         <v>37</v>
@@ -5098,13 +5104,13 @@
         <v>3</v>
       </c>
       <c r="D157" s="1" t="s">
-        <v>337</v>
+        <v>339</v>
       </c>
       <c r="E157" s="1" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="F157" s="1" t="s">
-        <v>90</v>
+        <v>37</v>
       </c>
     </row>
     <row r="158" spans="1:6" x14ac:dyDescent="0.25">
@@ -5118,10 +5124,10 @@
         <v>3</v>
       </c>
       <c r="D158" s="1" t="s">
-        <v>337</v>
+        <v>339</v>
       </c>
       <c r="E158" s="1" t="s">
-        <v>86</v>
+        <v>22</v>
       </c>
       <c r="F158" s="1" t="s">
         <v>90</v>
@@ -5138,13 +5144,13 @@
         <v>3</v>
       </c>
       <c r="D159" s="1" t="s">
-        <v>337</v>
+        <v>339</v>
       </c>
       <c r="E159" s="1" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="F159" s="1" t="s">
-        <v>37</v>
+        <v>90</v>
       </c>
     </row>
     <row r="160" spans="1:6" x14ac:dyDescent="0.25">
@@ -5158,10 +5164,10 @@
         <v>3</v>
       </c>
       <c r="D160" s="1" t="s">
-        <v>354</v>
+        <v>339</v>
       </c>
       <c r="E160" s="1" t="s">
-        <v>4</v>
+        <v>89</v>
       </c>
       <c r="F160" s="1" t="s">
         <v>37</v>
@@ -5169,22 +5175,22 @@
     </row>
     <row r="161" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A161" s="1" t="s">
+        <v>354</v>
+      </c>
+      <c r="B161" s="1" t="s">
         <v>355</v>
       </c>
-      <c r="B161" s="1" t="s">
+      <c r="C161" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D161" s="1" t="s">
         <v>356</v>
       </c>
-      <c r="C161" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="D161" s="1" t="s">
-        <v>354</v>
-      </c>
       <c r="E161" s="1" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="F161" s="1" t="s">
-        <v>19</v>
+        <v>37</v>
       </c>
     </row>
     <row r="162" spans="1:6" x14ac:dyDescent="0.25">
@@ -5198,10 +5204,10 @@
         <v>3</v>
       </c>
       <c r="D162" s="1" t="s">
-        <v>354</v>
+        <v>356</v>
       </c>
       <c r="E162" s="1" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="F162" s="1" t="s">
         <v>19</v>
@@ -5218,10 +5224,10 @@
         <v>3</v>
       </c>
       <c r="D163" s="1" t="s">
-        <v>354</v>
+        <v>356</v>
       </c>
       <c r="E163" s="1" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="F163" s="1" t="s">
         <v>19</v>
@@ -5238,10 +5244,10 @@
         <v>3</v>
       </c>
       <c r="D164" s="1" t="s">
-        <v>354</v>
+        <v>356</v>
       </c>
       <c r="E164" s="1" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="F164" s="1" t="s">
         <v>19</v>
@@ -5258,13 +5264,13 @@
         <v>3</v>
       </c>
       <c r="D165" s="1" t="s">
-        <v>354</v>
+        <v>356</v>
       </c>
       <c r="E165" s="1" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="F165" s="1" t="s">
-        <v>37</v>
+        <v>19</v>
       </c>
     </row>
     <row r="166" spans="1:6" x14ac:dyDescent="0.25">
@@ -5278,10 +5284,10 @@
         <v>3</v>
       </c>
       <c r="D166" s="1" t="s">
-        <v>367</v>
+        <v>356</v>
       </c>
       <c r="E166" s="1" t="s">
-        <v>11</v>
+        <v>22</v>
       </c>
       <c r="F166" s="1" t="s">
         <v>37</v>
@@ -5289,16 +5295,16 @@
     </row>
     <row r="167" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A167" s="1" t="s">
+        <v>367</v>
+      </c>
+      <c r="B167" s="1" t="s">
         <v>368</v>
       </c>
-      <c r="B167" s="1" t="s">
+      <c r="C167" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D167" s="1" t="s">
         <v>369</v>
-      </c>
-      <c r="C167" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="D167" s="1" t="s">
-        <v>367</v>
       </c>
       <c r="E167" s="1" t="s">
         <v>15</v>
@@ -5318,13 +5324,13 @@
         <v>3</v>
       </c>
       <c r="D168" s="1" t="s">
-        <v>367</v>
+        <v>369</v>
       </c>
       <c r="E168" s="1" t="s">
         <v>18</v>
       </c>
       <c r="F168" s="1" t="s">
-        <v>5</v>
+        <v>37</v>
       </c>
     </row>
     <row r="169" spans="1:6" x14ac:dyDescent="0.25">
@@ -5338,7 +5344,7 @@
         <v>3</v>
       </c>
       <c r="D169" s="1" t="s">
-        <v>367</v>
+        <v>369</v>
       </c>
       <c r="E169" s="1" t="s">
         <v>22</v>
@@ -5358,13 +5364,13 @@
         <v>3</v>
       </c>
       <c r="D170" s="1" t="s">
-        <v>367</v>
+        <v>369</v>
       </c>
       <c r="E170" s="1" t="s">
         <v>86</v>
       </c>
       <c r="F170" s="1" t="s">
-        <v>12</v>
+        <v>5</v>
       </c>
     </row>
     <row r="171" spans="1:6" x14ac:dyDescent="0.25">
@@ -5378,7 +5384,7 @@
         <v>3</v>
       </c>
       <c r="D171" s="1" t="s">
-        <v>367</v>
+        <v>369</v>
       </c>
       <c r="E171" s="1" t="s">
         <v>89</v>
@@ -5398,33 +5404,33 @@
         <v>3</v>
       </c>
       <c r="D172" s="1" t="s">
-        <v>380</v>
+        <v>369</v>
       </c>
       <c r="E172" s="1" t="s">
-        <v>4</v>
+        <v>93</v>
       </c>
       <c r="F172" s="1" t="s">
-        <v>137</v>
+        <v>12</v>
       </c>
     </row>
     <row r="173" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A173" s="1" t="s">
+        <v>380</v>
+      </c>
+      <c r="B173" s="1" t="s">
         <v>381</v>
       </c>
-      <c r="B173" s="1" t="s">
+      <c r="C173" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D173" s="1" t="s">
         <v>382</v>
       </c>
-      <c r="C173" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="D173" s="1" t="s">
-        <v>380</v>
-      </c>
       <c r="E173" s="1" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="F173" s="1" t="s">
-        <v>37</v>
+        <v>137</v>
       </c>
     </row>
     <row r="174" spans="1:6" x14ac:dyDescent="0.25">
@@ -5438,13 +5444,13 @@
         <v>3</v>
       </c>
       <c r="D174" s="1" t="s">
-        <v>380</v>
+        <v>382</v>
       </c>
       <c r="E174" s="1" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="F174" s="1" t="s">
-        <v>19</v>
+        <v>37</v>
       </c>
     </row>
     <row r="175" spans="1:6" x14ac:dyDescent="0.25">
@@ -5458,13 +5464,13 @@
         <v>3</v>
       </c>
       <c r="D175" s="1" t="s">
-        <v>380</v>
+        <v>382</v>
       </c>
       <c r="E175" s="1" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="F175" s="1" t="s">
-        <v>37</v>
+        <v>19</v>
       </c>
     </row>
     <row r="176" spans="1:6" x14ac:dyDescent="0.25">
@@ -5478,10 +5484,10 @@
         <v>3</v>
       </c>
       <c r="D176" s="1" t="s">
-        <v>380</v>
+        <v>382</v>
       </c>
       <c r="E176" s="1" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="F176" s="1" t="s">
         <v>37</v>
@@ -5498,10 +5504,10 @@
         <v>3</v>
       </c>
       <c r="D177" s="1" t="s">
-        <v>380</v>
+        <v>382</v>
       </c>
       <c r="E177" s="1" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="F177" s="1" t="s">
         <v>37</v>
@@ -5518,13 +5524,13 @@
         <v>3</v>
       </c>
       <c r="D178" s="1" t="s">
-        <v>380</v>
+        <v>382</v>
       </c>
       <c r="E178" s="1" t="s">
-        <v>86</v>
+        <v>22</v>
       </c>
       <c r="F178" s="1" t="s">
-        <v>5</v>
+        <v>37</v>
       </c>
     </row>
     <row r="179" spans="1:6" x14ac:dyDescent="0.25">
@@ -5538,13 +5544,13 @@
         <v>3</v>
       </c>
       <c r="D179" s="1" t="s">
-        <v>380</v>
+        <v>382</v>
       </c>
       <c r="E179" s="1" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="F179" s="1" t="s">
-        <v>37</v>
+        <v>5</v>
       </c>
     </row>
     <row r="180" spans="1:6" x14ac:dyDescent="0.25">
@@ -5558,30 +5564,30 @@
         <v>3</v>
       </c>
       <c r="D180" s="1" t="s">
-        <v>397</v>
+        <v>382</v>
       </c>
       <c r="E180" s="1" t="s">
-        <v>4</v>
+        <v>89</v>
       </c>
       <c r="F180" s="1" t="s">
-        <v>19</v>
+        <v>37</v>
       </c>
     </row>
     <row r="181" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A181" s="1" t="s">
+        <v>397</v>
+      </c>
+      <c r="B181" s="1" t="s">
         <v>398</v>
       </c>
-      <c r="B181" s="1" t="s">
+      <c r="C181" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D181" s="1" t="s">
         <v>399</v>
       </c>
-      <c r="C181" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="D181" s="1" t="s">
-        <v>397</v>
-      </c>
       <c r="E181" s="1" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="F181" s="1" t="s">
         <v>19</v>
@@ -5598,10 +5604,10 @@
         <v>3</v>
       </c>
       <c r="D182" s="1" t="s">
-        <v>397</v>
+        <v>399</v>
       </c>
       <c r="E182" s="1" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="F182" s="1" t="s">
         <v>19</v>
@@ -5618,10 +5624,10 @@
         <v>3</v>
       </c>
       <c r="D183" s="1" t="s">
-        <v>397</v>
+        <v>399</v>
       </c>
       <c r="E183" s="1" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="F183" s="1" t="s">
         <v>19</v>
@@ -5638,10 +5644,10 @@
         <v>3</v>
       </c>
       <c r="D184" s="1" t="s">
-        <v>397</v>
+        <v>399</v>
       </c>
       <c r="E184" s="1" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="F184" s="1" t="s">
         <v>19</v>
@@ -5658,30 +5664,30 @@
         <v>3</v>
       </c>
       <c r="D185" s="1" t="s">
-        <v>408</v>
+        <v>399</v>
       </c>
       <c r="E185" s="1" t="s">
-        <v>4</v>
+        <v>18</v>
       </c>
       <c r="F185" s="1" t="s">
-        <v>37</v>
+        <v>19</v>
       </c>
     </row>
     <row r="186" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A186" s="1" t="s">
+        <v>408</v>
+      </c>
+      <c r="B186" s="1" t="s">
         <v>409</v>
       </c>
-      <c r="B186" s="1" t="s">
+      <c r="C186" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D186" s="1" t="s">
         <v>410</v>
       </c>
-      <c r="C186" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="D186" s="1" t="s">
-        <v>408</v>
-      </c>
       <c r="E186" s="1" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="F186" s="1" t="s">
         <v>37</v>
@@ -5698,10 +5704,10 @@
         <v>3</v>
       </c>
       <c r="D187" s="1" t="s">
-        <v>408</v>
+        <v>410</v>
       </c>
       <c r="E187" s="1" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="F187" s="1" t="s">
         <v>37</v>
@@ -5718,10 +5724,10 @@
         <v>3</v>
       </c>
       <c r="D188" s="1" t="s">
-        <v>408</v>
+        <v>410</v>
       </c>
       <c r="E188" s="1" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="F188" s="1" t="s">
         <v>37</v>
@@ -5738,10 +5744,10 @@
         <v>3</v>
       </c>
       <c r="D189" s="1" t="s">
-        <v>408</v>
+        <v>410</v>
       </c>
       <c r="E189" s="1" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="F189" s="1" t="s">
         <v>37</v>
@@ -5758,10 +5764,10 @@
         <v>3</v>
       </c>
       <c r="D190" s="1" t="s">
-        <v>408</v>
+        <v>410</v>
       </c>
       <c r="E190" s="1" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="F190" s="1" t="s">
         <v>37</v>
@@ -5778,10 +5784,10 @@
         <v>3</v>
       </c>
       <c r="D191" s="1" t="s">
-        <v>408</v>
+        <v>410</v>
       </c>
       <c r="E191" s="1" t="s">
-        <v>86</v>
+        <v>22</v>
       </c>
       <c r="F191" s="1" t="s">
         <v>37</v>
@@ -5798,10 +5804,10 @@
         <v>3</v>
       </c>
       <c r="D192" s="1" t="s">
-        <v>408</v>
+        <v>410</v>
       </c>
       <c r="E192" s="1" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="F192" s="1" t="s">
         <v>37</v>
@@ -5818,13 +5824,13 @@
         <v>3</v>
       </c>
       <c r="D193" s="1" t="s">
-        <v>408</v>
+        <v>410</v>
       </c>
       <c r="E193" s="1" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="F193" s="1" t="s">
-        <v>12</v>
+        <v>37</v>
       </c>
     </row>
     <row r="194" spans="1:6" x14ac:dyDescent="0.25">
@@ -5838,30 +5844,30 @@
         <v>3</v>
       </c>
       <c r="D194" s="1" t="s">
-        <v>427</v>
+        <v>410</v>
       </c>
       <c r="E194" s="1" t="s">
-        <v>4</v>
+        <v>93</v>
       </c>
       <c r="F194" s="1" t="s">
-        <v>37</v>
+        <v>12</v>
       </c>
     </row>
     <row r="195" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A195" s="1" t="s">
+        <v>427</v>
+      </c>
+      <c r="B195" s="1" t="s">
         <v>428</v>
       </c>
-      <c r="B195" s="1" t="s">
+      <c r="C195" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D195" s="1" t="s">
         <v>429</v>
       </c>
-      <c r="C195" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="D195" s="1" t="s">
-        <v>427</v>
-      </c>
       <c r="E195" s="1" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="F195" s="1" t="s">
         <v>37</v>
@@ -5878,10 +5884,10 @@
         <v>3</v>
       </c>
       <c r="D196" s="1" t="s">
-        <v>427</v>
+        <v>429</v>
       </c>
       <c r="E196" s="1" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="F196" s="1" t="s">
         <v>37</v>
@@ -5898,13 +5904,13 @@
         <v>3</v>
       </c>
       <c r="D197" s="1" t="s">
-        <v>427</v>
+        <v>429</v>
       </c>
       <c r="E197" s="1" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="F197" s="1" t="s">
-        <v>90</v>
+        <v>37</v>
       </c>
     </row>
     <row r="198" spans="1:6" x14ac:dyDescent="0.25">
@@ -5918,13 +5924,13 @@
         <v>3</v>
       </c>
       <c r="D198" s="1" t="s">
-        <v>427</v>
+        <v>429</v>
       </c>
       <c r="E198" s="1" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="F198" s="1" t="s">
-        <v>37</v>
+        <v>90</v>
       </c>
     </row>
     <row r="199" spans="1:6" x14ac:dyDescent="0.25">
@@ -5938,10 +5944,10 @@
         <v>3</v>
       </c>
       <c r="D199" s="1" t="s">
-        <v>427</v>
+        <v>429</v>
       </c>
       <c r="E199" s="1" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="F199" s="1" t="s">
         <v>37</v>
@@ -5958,10 +5964,10 @@
         <v>3</v>
       </c>
       <c r="D200" s="1" t="s">
-        <v>440</v>
+        <v>429</v>
       </c>
       <c r="E200" s="1" t="s">
-        <v>4</v>
+        <v>22</v>
       </c>
       <c r="F200" s="1" t="s">
         <v>37</v>
@@ -5969,19 +5975,19 @@
     </row>
     <row r="201" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A201" s="1" t="s">
+        <v>440</v>
+      </c>
+      <c r="B201" s="1" t="s">
         <v>441</v>
       </c>
-      <c r="B201" s="1" t="s">
+      <c r="C201" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D201" s="1" t="s">
         <v>442</v>
       </c>
-      <c r="C201" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="D201" s="1" t="s">
-        <v>440</v>
-      </c>
       <c r="E201" s="1" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="F201" s="1" t="s">
         <v>37</v>
@@ -5998,10 +6004,10 @@
         <v>3</v>
       </c>
       <c r="D202" s="1" t="s">
-        <v>440</v>
+        <v>442</v>
       </c>
       <c r="E202" s="1" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="F202" s="1" t="s">
         <v>37</v>
@@ -6018,10 +6024,10 @@
         <v>3</v>
       </c>
       <c r="D203" s="1" t="s">
-        <v>440</v>
+        <v>442</v>
       </c>
       <c r="E203" s="1" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="F203" s="1" t="s">
         <v>37</v>
@@ -6038,10 +6044,10 @@
         <v>3</v>
       </c>
       <c r="D204" s="1" t="s">
-        <v>440</v>
+        <v>442</v>
       </c>
       <c r="E204" s="1" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="F204" s="1" t="s">
         <v>37</v>
@@ -6058,10 +6064,10 @@
         <v>3</v>
       </c>
       <c r="D205" s="1" t="s">
-        <v>440</v>
+        <v>442</v>
       </c>
       <c r="E205" s="1" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="F205" s="1" t="s">
         <v>37</v>
@@ -6078,10 +6084,10 @@
         <v>3</v>
       </c>
       <c r="D206" s="1" t="s">
-        <v>453</v>
+        <v>442</v>
       </c>
       <c r="E206" s="1" t="s">
-        <v>4</v>
+        <v>22</v>
       </c>
       <c r="F206" s="1" t="s">
         <v>37</v>
@@ -6089,19 +6095,19 @@
     </row>
     <row r="207" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A207" s="1" t="s">
+        <v>453</v>
+      </c>
+      <c r="B207" s="1" t="s">
         <v>454</v>
       </c>
-      <c r="B207" s="1" t="s">
+      <c r="C207" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D207" s="1" t="s">
         <v>455</v>
       </c>
-      <c r="C207" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="D207" s="1" t="s">
-        <v>453</v>
-      </c>
       <c r="E207" s="1" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="F207" s="1" t="s">
         <v>37</v>
@@ -6118,10 +6124,10 @@
         <v>3</v>
       </c>
       <c r="D208" s="1" t="s">
-        <v>453</v>
+        <v>455</v>
       </c>
       <c r="E208" s="1" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="F208" s="1" t="s">
         <v>37</v>
@@ -6138,10 +6144,10 @@
         <v>3</v>
       </c>
       <c r="D209" s="1" t="s">
-        <v>453</v>
+        <v>455</v>
       </c>
       <c r="E209" s="1" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="F209" s="1" t="s">
         <v>37</v>
@@ -6158,10 +6164,10 @@
         <v>3</v>
       </c>
       <c r="D210" s="1" t="s">
-        <v>453</v>
+        <v>455</v>
       </c>
       <c r="E210" s="1" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="F210" s="1" t="s">
         <v>37</v>
@@ -6178,10 +6184,10 @@
         <v>3</v>
       </c>
       <c r="D211" s="1" t="s">
-        <v>464</v>
+        <v>455</v>
       </c>
       <c r="E211" s="1" t="s">
-        <v>4</v>
+        <v>18</v>
       </c>
       <c r="F211" s="1" t="s">
         <v>37</v>
@@ -6189,19 +6195,19 @@
     </row>
     <row r="212" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A212" s="1" t="s">
+        <v>464</v>
+      </c>
+      <c r="B212" s="1" t="s">
         <v>465</v>
       </c>
-      <c r="B212" s="1" t="s">
+      <c r="C212" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D212" s="1" t="s">
         <v>466</v>
       </c>
-      <c r="C212" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="D212" s="1" t="s">
-        <v>464</v>
-      </c>
       <c r="E212" s="1" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="F212" s="1" t="s">
         <v>37</v>
@@ -6218,10 +6224,10 @@
         <v>3</v>
       </c>
       <c r="D213" s="1" t="s">
-        <v>464</v>
+        <v>466</v>
       </c>
       <c r="E213" s="1" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="F213" s="1" t="s">
         <v>37</v>
@@ -6238,10 +6244,10 @@
         <v>3</v>
       </c>
       <c r="D214" s="1" t="s">
-        <v>464</v>
+        <v>466</v>
       </c>
       <c r="E214" s="1" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="F214" s="1" t="s">
         <v>37</v>
@@ -6258,10 +6264,10 @@
         <v>3</v>
       </c>
       <c r="D215" s="1" t="s">
-        <v>464</v>
+        <v>466</v>
       </c>
       <c r="E215" s="1" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="F215" s="1" t="s">
         <v>37</v>
@@ -6278,10 +6284,10 @@
         <v>3</v>
       </c>
       <c r="D216" s="1" t="s">
-        <v>475</v>
+        <v>466</v>
       </c>
       <c r="E216" s="1" t="s">
-        <v>4</v>
+        <v>18</v>
       </c>
       <c r="F216" s="1" t="s">
         <v>37</v>
@@ -6289,19 +6295,19 @@
     </row>
     <row r="217" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A217" s="1" t="s">
+        <v>475</v>
+      </c>
+      <c r="B217" s="1" t="s">
         <v>476</v>
       </c>
-      <c r="B217" s="1" t="s">
+      <c r="C217" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D217" s="1" t="s">
         <v>477</v>
       </c>
-      <c r="C217" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="D217" s="1" t="s">
-        <v>475</v>
-      </c>
       <c r="E217" s="1" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="F217" s="1" t="s">
         <v>37</v>
@@ -6318,10 +6324,10 @@
         <v>3</v>
       </c>
       <c r="D218" s="1" t="s">
-        <v>475</v>
+        <v>477</v>
       </c>
       <c r="E218" s="1" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="F218" s="1" t="s">
         <v>37</v>
@@ -6338,10 +6344,10 @@
         <v>3</v>
       </c>
       <c r="D219" s="1" t="s">
-        <v>475</v>
+        <v>477</v>
       </c>
       <c r="E219" s="1" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="F219" s="1" t="s">
         <v>37</v>
@@ -6358,10 +6364,10 @@
         <v>3</v>
       </c>
       <c r="D220" s="1" t="s">
-        <v>475</v>
+        <v>477</v>
       </c>
       <c r="E220" s="1" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="F220" s="1" t="s">
         <v>37</v>
@@ -6378,10 +6384,10 @@
         <v>3</v>
       </c>
       <c r="D221" s="1" t="s">
-        <v>475</v>
+        <v>477</v>
       </c>
       <c r="E221" s="1" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="F221" s="1" t="s">
         <v>37</v>
@@ -6398,10 +6404,10 @@
         <v>3</v>
       </c>
       <c r="D222" s="1" t="s">
-        <v>488</v>
+        <v>477</v>
       </c>
       <c r="E222" s="1" t="s">
-        <v>4</v>
+        <v>22</v>
       </c>
       <c r="F222" s="1" t="s">
         <v>37</v>
@@ -6409,22 +6415,22 @@
     </row>
     <row r="223" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A223" s="1" t="s">
+        <v>488</v>
+      </c>
+      <c r="B223" s="1" t="s">
         <v>489</v>
       </c>
-      <c r="B223" s="1" t="s">
+      <c r="C223" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D223" s="1" t="s">
         <v>490</v>
       </c>
-      <c r="C223" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="D223" s="1" t="s">
-        <v>488</v>
-      </c>
       <c r="E223" s="1" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="F223" s="1" t="s">
-        <v>90</v>
+        <v>37</v>
       </c>
     </row>
     <row r="224" spans="1:6" x14ac:dyDescent="0.25">
@@ -6438,10 +6444,10 @@
         <v>3</v>
       </c>
       <c r="D224" s="1" t="s">
-        <v>488</v>
+        <v>490</v>
       </c>
       <c r="E224" s="1" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="F224" s="1" t="s">
         <v>90</v>
@@ -6458,10 +6464,10 @@
         <v>3</v>
       </c>
       <c r="D225" s="1" t="s">
-        <v>488</v>
+        <v>490</v>
       </c>
       <c r="E225" s="1" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="F225" s="1" t="s">
         <v>90</v>
@@ -6478,10 +6484,10 @@
         <v>3</v>
       </c>
       <c r="D226" s="1" t="s">
-        <v>488</v>
+        <v>490</v>
       </c>
       <c r="E226" s="1" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="F226" s="1" t="s">
         <v>90</v>
@@ -6498,10 +6504,10 @@
         <v>3</v>
       </c>
       <c r="D227" s="1" t="s">
-        <v>488</v>
+        <v>490</v>
       </c>
       <c r="E227" s="1" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="F227" s="1" t="s">
         <v>90</v>
@@ -6518,10 +6524,10 @@
         <v>3</v>
       </c>
       <c r="D228" s="1" t="s">
-        <v>488</v>
+        <v>490</v>
       </c>
       <c r="E228" s="1" t="s">
-        <v>86</v>
+        <v>22</v>
       </c>
       <c r="F228" s="1" t="s">
         <v>90</v>
@@ -6538,13 +6544,13 @@
         <v>3</v>
       </c>
       <c r="D229" s="1" t="s">
-        <v>488</v>
+        <v>490</v>
       </c>
       <c r="E229" s="1" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="F229" s="1" t="s">
-        <v>19</v>
+        <v>90</v>
       </c>
     </row>
     <row r="230" spans="1:6" x14ac:dyDescent="0.25">
@@ -6558,13 +6564,13 @@
         <v>3</v>
       </c>
       <c r="D230" s="1" t="s">
-        <v>488</v>
+        <v>490</v>
       </c>
       <c r="E230" s="1" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="F230" s="1" t="s">
-        <v>90</v>
+        <v>19</v>
       </c>
     </row>
     <row r="231" spans="1:6" x14ac:dyDescent="0.25">
@@ -6578,10 +6584,10 @@
         <v>3</v>
       </c>
       <c r="D231" s="1" t="s">
-        <v>488</v>
+        <v>490</v>
       </c>
       <c r="E231" s="1" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="F231" s="1" t="s">
         <v>90</v>
@@ -6598,30 +6604,30 @@
         <v>3</v>
       </c>
       <c r="D232" s="1" t="s">
-        <v>509</v>
+        <v>490</v>
       </c>
       <c r="E232" s="1" t="s">
-        <v>4</v>
+        <v>96</v>
       </c>
       <c r="F232" s="1" t="s">
-        <v>37</v>
+        <v>90</v>
       </c>
     </row>
     <row r="233" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A233" s="1" t="s">
+        <v>509</v>
+      </c>
+      <c r="B233" s="1" t="s">
         <v>510</v>
       </c>
-      <c r="B233" s="1" t="s">
+      <c r="C233" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D233" s="1" t="s">
         <v>511</v>
       </c>
-      <c r="C233" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="D233" s="1" t="s">
-        <v>509</v>
-      </c>
       <c r="E233" s="1" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="F233" s="1" t="s">
         <v>37</v>
@@ -6638,10 +6644,10 @@
         <v>3</v>
       </c>
       <c r="D234" s="1" t="s">
-        <v>509</v>
+        <v>511</v>
       </c>
       <c r="E234" s="1" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="F234" s="1" t="s">
         <v>37</v>
@@ -6658,10 +6664,10 @@
         <v>3</v>
       </c>
       <c r="D235" s="1" t="s">
-        <v>509</v>
+        <v>511</v>
       </c>
       <c r="E235" s="1" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="F235" s="1" t="s">
         <v>37</v>
@@ -6678,12 +6684,32 @@
         <v>3</v>
       </c>
       <c r="D236" s="1" t="s">
-        <v>509</v>
+        <v>511</v>
       </c>
       <c r="E236" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="F236" s="1" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="237" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A237" s="1" t="s">
+        <v>518</v>
+      </c>
+      <c r="B237" s="1" t="s">
+        <v>519</v>
+      </c>
+      <c r="C237" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D237" s="1" t="s">
+        <v>511</v>
+      </c>
+      <c r="E237" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="F236" s="1" t="s">
+      <c r="F237" s="1" t="s">
         <v>37</v>
       </c>
     </row>

--- a/SNK06D.xlsx
+++ b/SNK06D.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1422" uniqueCount="520">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1428" uniqueCount="522">
   <si>
     <t/>
   </si>
@@ -280,78 +280,81 @@
     <t>MR POTATO CRBNARA 40</t>
   </si>
   <si>
+    <t>9</t>
+  </si>
+  <si>
+    <t>PT,(E-1B)</t>
+  </si>
+  <si>
+    <t>20139544</t>
+  </si>
+  <si>
+    <t>LAYS STAX SOUR&amp;O 70G</t>
+  </si>
+  <si>
+    <t>10</t>
+  </si>
+  <si>
+    <t>20139536</t>
+  </si>
+  <si>
+    <t>LAYS STAX ORGNL 70G</t>
+  </si>
+  <si>
+    <t>11</t>
+  </si>
+  <si>
+    <t>20023846</t>
+  </si>
+  <si>
+    <t>PRNGLES ORIGNAL 102G</t>
+  </si>
+  <si>
+    <t>20023845</t>
+  </si>
+  <si>
+    <t>PRINGLES CHEESY 102G</t>
+  </si>
+  <si>
+    <t>20044093</t>
+  </si>
+  <si>
+    <t>PRNGLES S.CRM&amp;O 102G</t>
+  </si>
+  <si>
+    <t>20136007</t>
+  </si>
+  <si>
+    <t>MR.POTATO BBQ 106G</t>
+  </si>
+  <si>
+    <t>20135539</t>
+  </si>
+  <si>
+    <t>MR.POTATO ORGNL 106G</t>
+  </si>
+  <si>
+    <t>20135538</t>
+  </si>
+  <si>
+    <t>MR.POTATO SOUR&amp;O 106</t>
+  </si>
+  <si>
+    <t>20137054</t>
+  </si>
+  <si>
+    <t>CHTATO LITE ASLI 110</t>
+  </si>
+  <si>
+    <t>20137572</t>
+  </si>
+  <si>
+    <t>CHTATO LITE KEJU 110</t>
+  </si>
+  <si>
     <t>8</t>
   </si>
   <si>
-    <t>PT,(E-1B)</t>
-  </si>
-  <si>
-    <t>20139544</t>
-  </si>
-  <si>
-    <t>LAYS STAX SOUR&amp;O 70G</t>
-  </si>
-  <si>
-    <t>9</t>
-  </si>
-  <si>
-    <t>20139536</t>
-  </si>
-  <si>
-    <t>LAYS STAX ORGNL 70G</t>
-  </si>
-  <si>
-    <t>10</t>
-  </si>
-  <si>
-    <t>20023846</t>
-  </si>
-  <si>
-    <t>PRNGLES ORIGNAL 102G</t>
-  </si>
-  <si>
-    <t>20023845</t>
-  </si>
-  <si>
-    <t>PRINGLES CHEESY 102G</t>
-  </si>
-  <si>
-    <t>20044093</t>
-  </si>
-  <si>
-    <t>PRNGLES S.CRM&amp;O 102G</t>
-  </si>
-  <si>
-    <t>20136007</t>
-  </si>
-  <si>
-    <t>MR.POTATO BBQ 106G</t>
-  </si>
-  <si>
-    <t>20135539</t>
-  </si>
-  <si>
-    <t>MR.POTATO ORGNL 106G</t>
-  </si>
-  <si>
-    <t>20135538</t>
-  </si>
-  <si>
-    <t>MR.POTATO SOUR&amp;O 106</t>
-  </si>
-  <si>
-    <t>20137054</t>
-  </si>
-  <si>
-    <t>CHTATO LITE ASLI 110</t>
-  </si>
-  <si>
-    <t>20137572</t>
-  </si>
-  <si>
-    <t>CHTATO LITE KEJU 110</t>
-  </si>
-  <si>
     <t>10000739</t>
   </si>
   <si>
@@ -490,9 +493,6 @@
     <t>QTELA KRPK BLDO 175G</t>
   </si>
   <si>
-    <t>11</t>
-  </si>
-  <si>
     <t>20012681</t>
   </si>
   <si>
@@ -847,25 +847,64 @@
     <t>CHIKI NUTTY CRML 50G</t>
   </si>
   <si>
+    <t>20132657</t>
+  </si>
+  <si>
+    <t>WONHAE TPKI CRM.RS80</t>
+  </si>
+  <si>
+    <t>21</t>
+  </si>
+  <si>
+    <t>20139930</t>
+  </si>
+  <si>
+    <t>WONHAE TPKI CHS TR80</t>
+  </si>
+  <si>
+    <t>20141100</t>
+  </si>
+  <si>
+    <t>WONHAE BANANA MB 60G</t>
+  </si>
+  <si>
+    <t>20116410</t>
+  </si>
+  <si>
+    <t>CHIKI TWIST CORN 75G</t>
+  </si>
+  <si>
+    <t>20129201</t>
+  </si>
+  <si>
+    <t>CHIKI TWIST F.HOT 75</t>
+  </si>
+  <si>
     <t>20034682</t>
   </si>
   <si>
     <t>RIN-BEE STICK KEJU60</t>
   </si>
   <si>
-    <t>21</t>
-  </si>
-  <si>
-    <t>20132657</t>
-  </si>
-  <si>
-    <t>WONHAE TPKI CRM.RS80</t>
-  </si>
-  <si>
-    <t>20139930</t>
-  </si>
-  <si>
-    <t>WONHAE TPKI CHS TR80</t>
+    <t>22</t>
+  </si>
+  <si>
+    <t>20057730</t>
+  </si>
+  <si>
+    <t>TIC TIC STCK BWNG 70</t>
+  </si>
+  <si>
+    <t>20103371</t>
+  </si>
+  <si>
+    <t>TIC TIC STK BWG+SS65</t>
+  </si>
+  <si>
+    <t>20072575</t>
+  </si>
+  <si>
+    <t>KRISBEE F.FRIES 65G</t>
   </si>
   <si>
     <t>20016624</t>
@@ -874,16 +913,208 @@
     <t>STT FRENCH FRIES 24G</t>
   </si>
   <si>
-    <t>20116410</t>
-  </si>
-  <si>
-    <t>CHIKI TWIST CORN 75G</t>
-  </si>
-  <si>
-    <t>20129201</t>
-  </si>
-  <si>
-    <t>CHIKI TWIST F.HOT 75</t>
+    <t>20125389</t>
+  </si>
+  <si>
+    <t>STT FRCH FRS LVL3 60</t>
+  </si>
+  <si>
+    <t>20138241</t>
+  </si>
+  <si>
+    <t>CHEETOS KEJU 120G</t>
+  </si>
+  <si>
+    <t>23</t>
+  </si>
+  <si>
+    <t>20132876</t>
+  </si>
+  <si>
+    <t>OISHIT THIN TRUFF100</t>
+  </si>
+  <si>
+    <t>20140085</t>
+  </si>
+  <si>
+    <t>O/TATER THIN SWD 100</t>
+  </si>
+  <si>
+    <t>20024699</t>
+  </si>
+  <si>
+    <t>STT FRENCH FRIES 62G</t>
+  </si>
+  <si>
+    <t>20138236</t>
+  </si>
+  <si>
+    <t>CHEETOS JGG BKR 120G</t>
+  </si>
+  <si>
+    <t>24</t>
+  </si>
+  <si>
+    <t>20134273</t>
+  </si>
+  <si>
+    <t>POPPY POP JGG BKR130</t>
+  </si>
+  <si>
+    <t>20092858</t>
+  </si>
+  <si>
+    <t>TWISTKO JGNG BKR 145</t>
+  </si>
+  <si>
+    <t>20133064</t>
+  </si>
+  <si>
+    <t>KRAKER UDANG PDS 130</t>
+  </si>
+  <si>
+    <t>20138106</t>
+  </si>
+  <si>
+    <t>TIC TIC STCK BWG 135</t>
+  </si>
+  <si>
+    <t>20092857</t>
+  </si>
+  <si>
+    <t>STT FRENCH FRIES 130</t>
+  </si>
+  <si>
+    <t>25</t>
+  </si>
+  <si>
+    <t>20119036</t>
+  </si>
+  <si>
+    <t>RIN-BEE STK KJU 130G</t>
+  </si>
+  <si>
+    <t>20126424</t>
+  </si>
+  <si>
+    <t>TARO SEAWEED 115G</t>
+  </si>
+  <si>
+    <t>20120421</t>
+  </si>
+  <si>
+    <t>TARO POTATO BBQ 115G</t>
+  </si>
+  <si>
+    <t>20101933</t>
+  </si>
+  <si>
+    <t>CHIKI BALL CHOC 200G</t>
+  </si>
+  <si>
+    <t>20117923</t>
+  </si>
+  <si>
+    <t>T K NOI S/LVR ORI2'S</t>
+  </si>
+  <si>
+    <t>26</t>
+  </si>
+  <si>
+    <t>20022707</t>
+  </si>
+  <si>
+    <t>TAO KAE CRSPY ORG 15</t>
+  </si>
+  <si>
+    <t>20137779</t>
+  </si>
+  <si>
+    <t>TAO KAE/N WGYU 6G</t>
+  </si>
+  <si>
+    <t>20024856</t>
+  </si>
+  <si>
+    <t>TAO KAE CLASSIC 3.2G</t>
+  </si>
+  <si>
+    <t>20137577</t>
+  </si>
+  <si>
+    <t>TKN SPICY MAYO 3.2G</t>
+  </si>
+  <si>
+    <t>20072581</t>
+  </si>
+  <si>
+    <t>IDM SEAWEED ORG 20G</t>
+  </si>
+  <si>
+    <t>20072582</t>
+  </si>
+  <si>
+    <t>IDM SEAWEED BBQ 20G</t>
+  </si>
+  <si>
+    <t>20138203</t>
+  </si>
+  <si>
+    <t>M/SK GIM BORI BIG 3G</t>
+  </si>
+  <si>
+    <t>20117928</t>
+  </si>
+  <si>
+    <t>T K NOI S/LVR SPCY2S</t>
+  </si>
+  <si>
+    <t>27</t>
+  </si>
+  <si>
+    <t>20042370</t>
+  </si>
+  <si>
+    <t>M/SUKA R/LAUT PNG 9G</t>
+  </si>
+  <si>
+    <t>20097390</t>
+  </si>
+  <si>
+    <t>M/SUKA NORI BBQ2X4.5</t>
+  </si>
+  <si>
+    <t>20073871</t>
+  </si>
+  <si>
+    <t>M/SUKA NORI PDS2X4.5</t>
+  </si>
+  <si>
+    <t>20097391</t>
+  </si>
+  <si>
+    <t>M/SK NORI S.EGG2X4.5</t>
+  </si>
+  <si>
+    <t>20118737</t>
+  </si>
+  <si>
+    <t>M/SK NORI J.BKR2X4.5</t>
+  </si>
+  <si>
+    <t>20064426</t>
+  </si>
+  <si>
+    <t>TWISTKO JGNG BKR 70G</t>
+  </si>
+  <si>
+    <t>28</t>
+  </si>
+  <si>
+    <t>10006890</t>
+  </si>
+  <si>
+    <t>TWISTKO JGNG BKR 40G</t>
   </si>
   <si>
     <t>20114756</t>
@@ -892,9 +1123,6 @@
     <t>GURIBEE BBQ BLDO 65G</t>
   </si>
   <si>
-    <t>22</t>
-  </si>
-  <si>
     <t>20114757</t>
   </si>
   <si>
@@ -907,226 +1135,142 @@
     <t>GURIBEE KEJU 65G</t>
   </si>
   <si>
-    <t>20057730</t>
-  </si>
-  <si>
-    <t>TIC TIC STCK BWNG 70</t>
-  </si>
-  <si>
-    <t>20103371</t>
-  </si>
-  <si>
-    <t>TIC TIC STK BWG+SS65</t>
-  </si>
-  <si>
-    <t>20125389</t>
-  </si>
-  <si>
-    <t>STT FRCH FRS LVL3 60</t>
-  </si>
-  <si>
-    <t>20138241</t>
-  </si>
-  <si>
-    <t>CHEETOS KEJU 120G</t>
-  </si>
-  <si>
-    <t>23</t>
-  </si>
-  <si>
-    <t>20132876</t>
-  </si>
-  <si>
-    <t>OISHIT THIN TRUFF100</t>
-  </si>
-  <si>
-    <t>20140085</t>
-  </si>
-  <si>
-    <t>O/TATER THIN SWD 100</t>
-  </si>
-  <si>
-    <t>20072575</t>
-  </si>
-  <si>
-    <t>KRISBEE F.FRIES 65G</t>
-  </si>
-  <si>
-    <t>20024699</t>
-  </si>
-  <si>
-    <t>STT FRENCH FRIES 62G</t>
-  </si>
-  <si>
-    <t>20138236</t>
-  </si>
-  <si>
-    <t>CHEETOS JGG BKR 120G</t>
-  </si>
-  <si>
-    <t>24</t>
-  </si>
-  <si>
-    <t>20134273</t>
-  </si>
-  <si>
-    <t>POPPY POP JGG BKR130</t>
-  </si>
-  <si>
-    <t>20092858</t>
-  </si>
-  <si>
-    <t>TWISTKO JGNG BKR 145</t>
-  </si>
-  <si>
-    <t>20133064</t>
-  </si>
-  <si>
-    <t>KRAKER UDANG PDS 130</t>
-  </si>
-  <si>
-    <t>20138106</t>
-  </si>
-  <si>
-    <t>TIC TIC STCK BWG 135</t>
-  </si>
-  <si>
-    <t>20092857</t>
-  </si>
-  <si>
-    <t>STT FRENCH FRIES 130</t>
-  </si>
-  <si>
-    <t>25</t>
-  </si>
-  <si>
-    <t>20119036</t>
-  </si>
-  <si>
-    <t>RIN-BEE STK KJU 130G</t>
-  </si>
-  <si>
-    <t>20126424</t>
-  </si>
-  <si>
-    <t>TARO SEAWEED 115G</t>
-  </si>
-  <si>
-    <t>20120421</t>
-  </si>
-  <si>
-    <t>TARO POTATO BBQ 115G</t>
-  </si>
-  <si>
-    <t>20101933</t>
-  </si>
-  <si>
-    <t>CHIKI BALL CHOC 200G</t>
-  </si>
-  <si>
-    <t>20117923</t>
-  </si>
-  <si>
-    <t>T K NOI S/LVR ORI2'S</t>
-  </si>
-  <si>
-    <t>26</t>
-  </si>
-  <si>
-    <t>20022707</t>
-  </si>
-  <si>
-    <t>TAO KAE CRSPY ORG 15</t>
-  </si>
-  <si>
-    <t>20137779</t>
-  </si>
-  <si>
-    <t>TAO KAE/N WGYU 6G</t>
-  </si>
-  <si>
-    <t>20024856</t>
-  </si>
-  <si>
-    <t>TAO KAE CLASSIC 3.2G</t>
-  </si>
-  <si>
-    <t>20137577</t>
-  </si>
-  <si>
-    <t>TKN SPICY MAYO 3.2G</t>
-  </si>
-  <si>
-    <t>20072581</t>
-  </si>
-  <si>
-    <t>IDM SEAWEED ORG 20G</t>
-  </si>
-  <si>
-    <t>20072582</t>
-  </si>
-  <si>
-    <t>IDM SEAWEED BBQ 20G</t>
-  </si>
-  <si>
-    <t>20138203</t>
-  </si>
-  <si>
-    <t>M/SK GIM BORI BIG 3G</t>
-  </si>
-  <si>
-    <t>20117928</t>
-  </si>
-  <si>
-    <t>T K NOI S/LVR SPCY2S</t>
-  </si>
-  <si>
-    <t>27</t>
-  </si>
-  <si>
-    <t>20042370</t>
-  </si>
-  <si>
-    <t>M/SUKA R/LAUT PNG 9G</t>
-  </si>
-  <si>
-    <t>20097390</t>
-  </si>
-  <si>
-    <t>M/SUKA NORI BBQ2X4.5</t>
-  </si>
-  <si>
-    <t>20073871</t>
-  </si>
-  <si>
-    <t>M/SUKA NORI PDS2X4.5</t>
-  </si>
-  <si>
-    <t>20097391</t>
-  </si>
-  <si>
-    <t>M/SK NORI S.EGG2X4.5</t>
-  </si>
-  <si>
-    <t>20118737</t>
-  </si>
-  <si>
-    <t>M/SK NORI J.BKR2X4.5</t>
-  </si>
-  <si>
-    <t>20064426</t>
-  </si>
-  <si>
-    <t>TWISTKO JGNG BKR 70G</t>
-  </si>
-  <si>
-    <t>28</t>
-  </si>
-  <si>
-    <t>10006890</t>
-  </si>
-  <si>
-    <t>TWISTKO JGNG BKR 40G</t>
+    <t>20138466</t>
+  </si>
+  <si>
+    <t>NABATI AHH STRW 30G</t>
+  </si>
+  <si>
+    <t>29</t>
+  </si>
+  <si>
+    <t>20135812</t>
+  </si>
+  <si>
+    <t>NABATI RCHSE AHH 30G</t>
+  </si>
+  <si>
+    <t>20137069</t>
+  </si>
+  <si>
+    <t>KUSUKA UBI BBQ 42G</t>
+  </si>
+  <si>
+    <t>20004229</t>
+  </si>
+  <si>
+    <t>SMAX RING CHEESE 40G</t>
+  </si>
+  <si>
+    <t>10000753</t>
+  </si>
+  <si>
+    <t>TARO SNACK SEAWED 32</t>
+  </si>
+  <si>
+    <t>10000752</t>
+  </si>
+  <si>
+    <t>TARO SNACK BARBQ 32G</t>
+  </si>
+  <si>
+    <t>20081238</t>
+  </si>
+  <si>
+    <t>TARO NET TRYK BBQ 62</t>
+  </si>
+  <si>
+    <t>30</t>
+  </si>
+  <si>
+    <t>20055205</t>
+  </si>
+  <si>
+    <t>TARO SEAWEED 62G</t>
+  </si>
+  <si>
+    <t>20055204</t>
+  </si>
+  <si>
+    <t>TARO POTATO BBQ 62G</t>
+  </si>
+  <si>
+    <t>20069696</t>
+  </si>
+  <si>
+    <t>OISHI POPCRN KRML100</t>
+  </si>
+  <si>
+    <t>31</t>
+  </si>
+  <si>
+    <t>20069844</t>
+  </si>
+  <si>
+    <t>OISHI POPCRN COK 100</t>
+  </si>
+  <si>
+    <t>20125388</t>
+  </si>
+  <si>
+    <t>OISHI PCORN M/BLG100</t>
+  </si>
+  <si>
+    <t>20045784</t>
+  </si>
+  <si>
+    <t>OISHI SPNG/C CHO 100</t>
+  </si>
+  <si>
+    <t>20047335</t>
+  </si>
+  <si>
+    <t>OISHI SPNG STRW 100G</t>
+  </si>
+  <si>
+    <t>20136289</t>
+  </si>
+  <si>
+    <t>OISHI SPONGE UBI 100</t>
+  </si>
+  <si>
+    <t>20034686</t>
+  </si>
+  <si>
+    <t>OISHI PILLOW UBI 100</t>
+  </si>
+  <si>
+    <t>20034685</t>
+  </si>
+  <si>
+    <t>OISHI PILLOW CHO 100</t>
+  </si>
+  <si>
+    <t>20097777</t>
+  </si>
+  <si>
+    <t>KRISBEE PLW CHO 100G</t>
+  </si>
+  <si>
+    <t>20036562</t>
+  </si>
+  <si>
+    <t>S/N SOSIS AYAM 500</t>
+  </si>
+  <si>
+    <t>32</t>
+  </si>
+  <si>
+    <t>20129035</t>
+  </si>
+  <si>
+    <t>S/N SS AYM.BWG 2X40G</t>
+  </si>
+  <si>
+    <t>10024188</t>
+  </si>
+  <si>
+    <t>SOZZIS SOSIS AYAM 3S</t>
   </si>
   <si>
     <t>10024189</t>
@@ -1135,43 +1279,16 @@
     <t>SOZZIS SOSIS SAPI 3S</t>
   </si>
   <si>
-    <t>10024188</t>
-  </si>
-  <si>
-    <t>SOZZIS SOSIS AYAM 3S</t>
-  </si>
-  <si>
-    <t>20129035</t>
-  </si>
-  <si>
-    <t>S/N SS AYM.BWG 2X40G</t>
-  </si>
-  <si>
-    <t>20036562</t>
-  </si>
-  <si>
-    <t>S/N SOSIS AYAM 500</t>
-  </si>
-  <si>
-    <t>20138466</t>
-  </si>
-  <si>
-    <t>NABATI AHH STRW 30G</t>
-  </si>
-  <si>
-    <t>29</t>
-  </si>
-  <si>
-    <t>20135812</t>
-  </si>
-  <si>
-    <t>NABATI RCHSE AHH 30G</t>
-  </si>
-  <si>
-    <t>20137069</t>
-  </si>
-  <si>
-    <t>KUSUKA UBI BBQ 42G</t>
+    <t>20028585</t>
+  </si>
+  <si>
+    <t>MI GEMEZ ENAK PREM22</t>
+  </si>
+  <si>
+    <t>20091447</t>
+  </si>
+  <si>
+    <t>MI GEMEZ SPICY 3X26G</t>
   </si>
   <si>
     <t>10027672</t>
@@ -1180,127 +1297,19 @@
     <t>GERY SNCK SEREAL 100</t>
   </si>
   <si>
-    <t>20091447</t>
-  </si>
-  <si>
-    <t>MI GEMEZ SPICY 3X26G</t>
-  </si>
-  <si>
-    <t>20028585</t>
-  </si>
-  <si>
-    <t>MI GEMEZ ENAK PREM22</t>
-  </si>
-  <si>
     <t>20103852</t>
   </si>
   <si>
     <t>JETZ CHOCOFIESTA 65G</t>
   </si>
   <si>
-    <t>20004229</t>
-  </si>
-  <si>
-    <t>SMAX RING CHEESE 40G</t>
-  </si>
-  <si>
-    <t>20081238</t>
-  </si>
-  <si>
-    <t>TARO NET TRYK BBQ 62</t>
-  </si>
-  <si>
-    <t>30</t>
-  </si>
-  <si>
-    <t>20055205</t>
-  </si>
-  <si>
-    <t>TARO SEAWEED 62G</t>
-  </si>
-  <si>
-    <t>20055204</t>
-  </si>
-  <si>
-    <t>TARO POTATO BBQ 62G</t>
-  </si>
-  <si>
-    <t>10000753</t>
-  </si>
-  <si>
-    <t>TARO SNACK SEAWED 32</t>
-  </si>
-  <si>
-    <t>10000752</t>
-  </si>
-  <si>
-    <t>TARO SNACK BARBQ 32G</t>
-  </si>
-  <si>
-    <t>20069696</t>
-  </si>
-  <si>
-    <t>OISHI POPCRN KRML100</t>
-  </si>
-  <si>
-    <t>31</t>
-  </si>
-  <si>
-    <t>20069844</t>
-  </si>
-  <si>
-    <t>OISHI POPCRN COK 100</t>
-  </si>
-  <si>
-    <t>20125388</t>
-  </si>
-  <si>
-    <t>OISHI PCORN M/BLG100</t>
-  </si>
-  <si>
-    <t>20045784</t>
-  </si>
-  <si>
-    <t>OISHI SPNG/C CHO 100</t>
-  </si>
-  <si>
-    <t>20047335</t>
-  </si>
-  <si>
-    <t>OISHI SPNG STRW 100G</t>
-  </si>
-  <si>
-    <t>20136289</t>
-  </si>
-  <si>
-    <t>OISHI SPONGE UBI 100</t>
-  </si>
-  <si>
-    <t>20034686</t>
-  </si>
-  <si>
-    <t>OISHI PILLOW UBI 100</t>
-  </si>
-  <si>
-    <t>20034685</t>
-  </si>
-  <si>
-    <t>OISHI PILLOW CHO 100</t>
-  </si>
-  <si>
-    <t>20097777</t>
-  </si>
-  <si>
-    <t>KRISBEE PLW CHO 100G</t>
-  </si>
-  <si>
     <t>20007824</t>
   </si>
   <si>
     <t>D/K KCNG SANGRAI 180</t>
   </si>
   <si>
-    <t>32</t>
+    <t>33</t>
   </si>
   <si>
     <t>10000348</t>
@@ -1339,7 +1348,7 @@
     <t>DK KCNG BWNG PTH 180</t>
   </si>
   <si>
-    <t>33</t>
+    <t>34</t>
   </si>
   <si>
     <t>20040528</t>
@@ -1372,37 +1381,64 @@
     <t>GRUDA PILUS MI GR 80</t>
   </si>
   <si>
+    <t>10026501</t>
+  </si>
+  <si>
+    <t>DK KACANG SUKRO 95G</t>
+  </si>
+  <si>
+    <t>35</t>
+  </si>
+  <si>
+    <t>20035264</t>
+  </si>
+  <si>
+    <t>IDM KC.ATOM/SHANG140</t>
+  </si>
+  <si>
+    <t>10029724</t>
+  </si>
+  <si>
+    <t>GARUDA KCNG ATOM 100</t>
+  </si>
+  <si>
+    <t>10003840</t>
+  </si>
+  <si>
+    <t>GARUDA KCG.TELUR 110</t>
+  </si>
+  <si>
+    <t>20072370</t>
+  </si>
+  <si>
+    <t>IDM KCNG BUMBU 150G</t>
+  </si>
+  <si>
+    <t>20042632</t>
+  </si>
+  <si>
+    <t>IDM KCG ATOM PDS 140</t>
+  </si>
+  <si>
+    <t>20136516</t>
+  </si>
+  <si>
+    <t>IDM KC ATM CB IJO120</t>
+  </si>
+  <si>
     <t>20072316</t>
   </si>
   <si>
     <t>D/K SUKRO KEDELE 95G</t>
   </si>
   <si>
-    <t>34</t>
-  </si>
-  <si>
-    <t>20072370</t>
-  </si>
-  <si>
-    <t>IDM KCNG BUMBU 150G</t>
-  </si>
-  <si>
-    <t>10003840</t>
-  </si>
-  <si>
-    <t>GARUDA KCG.TELUR 110</t>
-  </si>
-  <si>
-    <t>20042632</t>
-  </si>
-  <si>
-    <t>IDM KCG ATOM PDS 140</t>
-  </si>
-  <si>
-    <t>20136516</t>
-  </si>
-  <si>
-    <t>IDM KC ATM CB IJO120</t>
+    <t>36</t>
+  </si>
+  <si>
+    <t>20062966</t>
+  </si>
+  <si>
+    <t>DK SUKRO BBQ 95G</t>
   </si>
   <si>
     <t>20084707</t>
@@ -1411,31 +1447,28 @@
     <t>SUKRO KC OVEN BWG 95</t>
   </si>
   <si>
-    <t>35</t>
-  </si>
-  <si>
-    <t>20062966</t>
-  </si>
-  <si>
-    <t>DK SUKRO BBQ 95G</t>
-  </si>
-  <si>
-    <t>20035264</t>
-  </si>
-  <si>
-    <t>IDM KC.ATOM/SHANG140</t>
-  </si>
-  <si>
-    <t>10029724</t>
-  </si>
-  <si>
-    <t>GARUDA KCNG ATOM 100</t>
-  </si>
-  <si>
-    <t>10026501</t>
-  </si>
-  <si>
-    <t>DK KACANG SUKRO 95G</t>
+    <t>20139132</t>
+  </si>
+  <si>
+    <t>GRUDA RS.MAX B&amp;S 80G</t>
+  </si>
+  <si>
+    <t>20120796</t>
+  </si>
+  <si>
+    <t>GRUDA ROSTA JG.B 95</t>
+  </si>
+  <si>
+    <t>20089490</t>
+  </si>
+  <si>
+    <t>GARUDA ROSTA PDS 90G</t>
+  </si>
+  <si>
+    <t>10005355</t>
+  </si>
+  <si>
+    <t>GRUDA K.ATOM PDS 220</t>
   </si>
   <si>
     <t>20056977</t>
@@ -1444,7 +1477,7 @@
     <t>GARUDA ROSTA BWG 95</t>
   </si>
   <si>
-    <t>36</t>
+    <t>37</t>
   </si>
   <si>
     <t>20095753</t>
@@ -1453,37 +1486,16 @@
     <t>GRUDA ROSTA WGYU 95</t>
   </si>
   <si>
-    <t>20139132</t>
-  </si>
-  <si>
-    <t>GRUDA RS.MAX B&amp;S 80G</t>
-  </si>
-  <si>
-    <t>20120796</t>
-  </si>
-  <si>
-    <t>GRUDA ROSTA JG.B 95</t>
-  </si>
-  <si>
-    <t>20089490</t>
-  </si>
-  <si>
-    <t>GARUDA ROSTA PDS 90G</t>
-  </si>
-  <si>
-    <t>10005355</t>
-  </si>
-  <si>
-    <t>GRUDA K.ATOM PDS 220</t>
-  </si>
-  <si>
     <t>20137700</t>
   </si>
   <si>
     <t>MAYASI CSHW KTCY 35G</t>
   </si>
   <si>
-    <t>37</t>
+    <t>20066374</t>
+  </si>
+  <si>
+    <t>IDM MIX NUTS 80G</t>
   </si>
   <si>
     <t>20104000</t>
@@ -1498,55 +1510,49 @@
     <t>IDM KCNG KORO BLD 80</t>
   </si>
   <si>
+    <t>10003507</t>
+  </si>
+  <si>
+    <t>MR.P KACANG MADU 80G</t>
+  </si>
+  <si>
+    <t>20047037</t>
+  </si>
+  <si>
+    <t>IDM KACANG BALI 150G</t>
+  </si>
+  <si>
+    <t>20052766</t>
+  </si>
+  <si>
+    <t>IDM KCNG METE MDU 80</t>
+  </si>
+  <si>
+    <t>38</t>
+  </si>
+  <si>
+    <t>20096682</t>
+  </si>
+  <si>
+    <t>IDM KACANG JUMBO 80</t>
+  </si>
+  <si>
+    <t>20112944</t>
+  </si>
+  <si>
+    <t>IDM KUACI SUSU 80G</t>
+  </si>
+  <si>
     <t>20093516</t>
   </si>
   <si>
     <t>INDOMARET KUACI 80G</t>
   </si>
   <si>
-    <t>20112944</t>
-  </si>
-  <si>
-    <t>IDM KUACI SUSU 80G</t>
-  </si>
-  <si>
-    <t>20066374</t>
-  </si>
-  <si>
-    <t>IDM MIX NUTS 80G</t>
-  </si>
-  <si>
-    <t>20052766</t>
-  </si>
-  <si>
-    <t>IDM KCNG METE MDU 80</t>
-  </si>
-  <si>
-    <t>10003507</t>
-  </si>
-  <si>
-    <t>MR.P KACANG MADU 80G</t>
-  </si>
-  <si>
-    <t>20096682</t>
-  </si>
-  <si>
-    <t>IDM KACANG JUMBO 80</t>
-  </si>
-  <si>
-    <t>20047037</t>
-  </si>
-  <si>
-    <t>IDM KACANG BALI 150G</t>
-  </si>
-  <si>
     <t>20098348</t>
   </si>
   <si>
     <t>REBO KUACI ORIGNL140</t>
-  </si>
-  <si>
-    <t>38</t>
   </si>
   <si>
     <t>20068536</t>
@@ -1963,7 +1969,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F237"/>
+  <dimension ref="A1:F238"/>
   <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="55"/>
   <cols>
     <col min="1" max="1" width="10" customWidth="1"/>
@@ -2947,7 +2953,7 @@
         <v>86</v>
       </c>
       <c r="E49" s="1" t="s">
-        <v>89</v>
+        <v>113</v>
       </c>
       <c r="F49" s="1" t="s">
         <v>5</v>
@@ -2955,10 +2961,10 @@
     </row>
     <row r="50" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A50" s="1" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="B50" s="1" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="C50" s="1" t="s">
         <v>3</v>
@@ -2967,7 +2973,7 @@
         <v>86</v>
       </c>
       <c r="E50" s="1" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="F50" s="1" t="s">
         <v>5</v>
@@ -2975,10 +2981,10 @@
     </row>
     <row r="51" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A51" s="1" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="B51" s="1" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="C51" s="1" t="s">
         <v>3</v>
@@ -2987,7 +2993,7 @@
         <v>86</v>
       </c>
       <c r="E51" s="1" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="F51" s="1" t="s">
         <v>5</v>
@@ -2995,16 +3001,16 @@
     </row>
     <row r="52" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A52" s="1" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="B52" s="1" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="C52" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D52" s="1" t="s">
-        <v>89</v>
+        <v>113</v>
       </c>
       <c r="E52" s="1" t="s">
         <v>4</v>
@@ -3015,16 +3021,16 @@
     </row>
     <row r="53" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A53" s="1" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="B53" s="1" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="C53" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D53" s="1" t="s">
-        <v>89</v>
+        <v>113</v>
       </c>
       <c r="E53" s="1" t="s">
         <v>8</v>
@@ -3035,16 +3041,16 @@
     </row>
     <row r="54" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A54" s="1" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="B54" s="1" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="C54" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D54" s="1" t="s">
-        <v>89</v>
+        <v>113</v>
       </c>
       <c r="E54" s="1" t="s">
         <v>11</v>
@@ -3055,16 +3061,16 @@
     </row>
     <row r="55" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A55" s="1" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="B55" s="1" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="C55" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D55" s="1" t="s">
-        <v>89</v>
+        <v>113</v>
       </c>
       <c r="E55" s="1" t="s">
         <v>15</v>
@@ -3075,16 +3081,16 @@
     </row>
     <row r="56" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A56" s="1" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="B56" s="1" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="C56" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D56" s="1" t="s">
-        <v>89</v>
+        <v>113</v>
       </c>
       <c r="E56" s="1" t="s">
         <v>18</v>
@@ -3095,16 +3101,16 @@
     </row>
     <row r="57" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A57" s="1" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="B57" s="1" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="C57" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D57" s="1" t="s">
-        <v>89</v>
+        <v>113</v>
       </c>
       <c r="E57" s="1" t="s">
         <v>22</v>
@@ -3115,16 +3121,16 @@
     </row>
     <row r="58" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A58" s="1" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="B58" s="1" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="C58" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D58" s="1" t="s">
-        <v>89</v>
+        <v>113</v>
       </c>
       <c r="E58" s="1" t="s">
         <v>86</v>
@@ -3135,16 +3141,16 @@
     </row>
     <row r="59" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A59" s="1" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="B59" s="1" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="C59" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D59" s="1" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="E59" s="1" t="s">
         <v>4</v>
@@ -3155,16 +3161,16 @@
     </row>
     <row r="60" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A60" s="1" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="B60" s="1" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="C60" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D60" s="1" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="E60" s="1" t="s">
         <v>8</v>
@@ -3175,56 +3181,56 @@
     </row>
     <row r="61" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A61" s="1" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="B61" s="1" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="C61" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D61" s="1" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="E61" s="1" t="s">
         <v>11</v>
       </c>
       <c r="F61" s="1" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
     </row>
     <row r="62" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A62" s="1" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="B62" s="1" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="C62" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D62" s="1" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="E62" s="1" t="s">
         <v>15</v>
       </c>
       <c r="F62" s="1" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
     </row>
     <row r="63" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A63" s="1" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="B63" s="1" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="C63" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D63" s="1" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="E63" s="1" t="s">
         <v>18</v>
@@ -3235,16 +3241,16 @@
     </row>
     <row r="64" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A64" s="1" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="B64" s="1" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="C64" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D64" s="1" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="E64" s="1" t="s">
         <v>22</v>
@@ -3255,16 +3261,16 @@
     </row>
     <row r="65" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A65" s="1" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="B65" s="1" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="C65" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D65" s="1" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="E65" s="1" t="s">
         <v>86</v>
@@ -3275,16 +3281,16 @@
     </row>
     <row r="66" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A66" s="1" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="B66" s="1" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="C66" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D66" s="1" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="E66" s="1" t="s">
         <v>4</v>
@@ -3295,56 +3301,56 @@
     </row>
     <row r="67" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A67" s="1" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="B67" s="1" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="C67" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D67" s="1" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="E67" s="1" t="s">
         <v>8</v>
       </c>
       <c r="F67" s="1" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
     </row>
     <row r="68" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A68" s="1" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="B68" s="1" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="C68" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D68" s="1" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="E68" s="1" t="s">
         <v>11</v>
       </c>
       <c r="F68" s="1" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
     </row>
     <row r="69" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A69" s="1" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="B69" s="1" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="C69" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D69" s="1" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="E69" s="1" t="s">
         <v>15</v>
@@ -3355,16 +3361,16 @@
     </row>
     <row r="70" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A70" s="1" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="B70" s="1" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="C70" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D70" s="1" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="E70" s="1" t="s">
         <v>18</v>
@@ -3375,16 +3381,16 @@
     </row>
     <row r="71" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A71" s="1" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="B71" s="1" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="C71" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D71" s="1" t="s">
-        <v>159</v>
+        <v>96</v>
       </c>
       <c r="E71" s="1" t="s">
         <v>4</v>
@@ -3404,7 +3410,7 @@
         <v>3</v>
       </c>
       <c r="D72" s="1" t="s">
-        <v>159</v>
+        <v>96</v>
       </c>
       <c r="E72" s="1" t="s">
         <v>8</v>
@@ -3424,7 +3430,7 @@
         <v>3</v>
       </c>
       <c r="D73" s="1" t="s">
-        <v>159</v>
+        <v>96</v>
       </c>
       <c r="E73" s="1" t="s">
         <v>11</v>
@@ -3444,7 +3450,7 @@
         <v>3</v>
       </c>
       <c r="D74" s="1" t="s">
-        <v>159</v>
+        <v>96</v>
       </c>
       <c r="E74" s="1" t="s">
         <v>15</v>
@@ -3464,7 +3470,7 @@
         <v>3</v>
       </c>
       <c r="D75" s="1" t="s">
-        <v>159</v>
+        <v>96</v>
       </c>
       <c r="E75" s="1" t="s">
         <v>18</v>
@@ -3870,7 +3876,7 @@
         <v>15</v>
       </c>
       <c r="F95" s="1" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
     </row>
     <row r="96" spans="1:6" x14ac:dyDescent="0.25">
@@ -4150,7 +4156,7 @@
         <v>4</v>
       </c>
       <c r="F109" s="1" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
     </row>
     <row r="110" spans="1:6" x14ac:dyDescent="0.25">
@@ -4170,7 +4176,7 @@
         <v>8</v>
       </c>
       <c r="F110" s="1" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
     </row>
     <row r="111" spans="1:6" x14ac:dyDescent="0.25">
@@ -4550,7 +4556,7 @@
         <v>15</v>
       </c>
       <c r="F129" s="1" t="s">
-        <v>37</v>
+        <v>5</v>
       </c>
     </row>
     <row r="130" spans="1:6" x14ac:dyDescent="0.25">
@@ -4584,33 +4590,33 @@
         <v>3</v>
       </c>
       <c r="D131" s="1" t="s">
-        <v>280</v>
+        <v>291</v>
       </c>
       <c r="E131" s="1" t="s">
-        <v>22</v>
+        <v>4</v>
       </c>
       <c r="F131" s="1" t="s">
-        <v>5</v>
+        <v>37</v>
       </c>
     </row>
     <row r="132" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A132" s="1" t="s">
+        <v>292</v>
+      </c>
+      <c r="B132" s="1" t="s">
+        <v>293</v>
+      </c>
+      <c r="C132" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D132" s="1" t="s">
         <v>291</v>
       </c>
-      <c r="B132" s="1" t="s">
-        <v>292</v>
-      </c>
-      <c r="C132" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="D132" s="1" t="s">
-        <v>293</v>
-      </c>
       <c r="E132" s="1" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="F132" s="1" t="s">
-        <v>5</v>
+        <v>37</v>
       </c>
     </row>
     <row r="133" spans="1:6" x14ac:dyDescent="0.25">
@@ -4624,13 +4630,13 @@
         <v>3</v>
       </c>
       <c r="D133" s="1" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="E133" s="1" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="F133" s="1" t="s">
-        <v>5</v>
+        <v>37</v>
       </c>
     </row>
     <row r="134" spans="1:6" x14ac:dyDescent="0.25">
@@ -4644,13 +4650,13 @@
         <v>3</v>
       </c>
       <c r="D134" s="1" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="E134" s="1" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="F134" s="1" t="s">
-        <v>5</v>
+        <v>12</v>
       </c>
     </row>
     <row r="135" spans="1:6" x14ac:dyDescent="0.25">
@@ -4664,10 +4670,10 @@
         <v>3</v>
       </c>
       <c r="D135" s="1" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="E135" s="1" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="F135" s="1" t="s">
         <v>37</v>
@@ -4684,10 +4690,10 @@
         <v>3</v>
       </c>
       <c r="D136" s="1" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="E136" s="1" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="F136" s="1" t="s">
         <v>37</v>
@@ -4704,10 +4710,10 @@
         <v>3</v>
       </c>
       <c r="D137" s="1" t="s">
-        <v>293</v>
+        <v>304</v>
       </c>
       <c r="E137" s="1" t="s">
-        <v>22</v>
+        <v>4</v>
       </c>
       <c r="F137" s="1" t="s">
         <v>37</v>
@@ -4715,19 +4721,19 @@
     </row>
     <row r="138" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A138" s="1" t="s">
+        <v>305</v>
+      </c>
+      <c r="B138" s="1" t="s">
+        <v>306</v>
+      </c>
+      <c r="C138" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D138" s="1" t="s">
         <v>304</v>
       </c>
-      <c r="B138" s="1" t="s">
-        <v>305</v>
-      </c>
-      <c r="C138" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="D138" s="1" t="s">
-        <v>306</v>
-      </c>
       <c r="E138" s="1" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="F138" s="1" t="s">
         <v>37</v>
@@ -4744,10 +4750,10 @@
         <v>3</v>
       </c>
       <c r="D139" s="1" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="E139" s="1" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="F139" s="1" t="s">
         <v>37</v>
@@ -4764,10 +4770,10 @@
         <v>3</v>
       </c>
       <c r="D140" s="1" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="E140" s="1" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="F140" s="1" t="s">
         <v>37</v>
@@ -4784,30 +4790,30 @@
         <v>3</v>
       </c>
       <c r="D141" s="1" t="s">
-        <v>306</v>
+        <v>313</v>
       </c>
       <c r="E141" s="1" t="s">
-        <v>15</v>
+        <v>4</v>
       </c>
       <c r="F141" s="1" t="s">
-        <v>12</v>
+        <v>37</v>
       </c>
     </row>
     <row r="142" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A142" s="1" t="s">
+        <v>314</v>
+      </c>
+      <c r="B142" s="1" t="s">
+        <v>315</v>
+      </c>
+      <c r="C142" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D142" s="1" t="s">
         <v>313</v>
       </c>
-      <c r="B142" s="1" t="s">
-        <v>314</v>
-      </c>
-      <c r="C142" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="D142" s="1" t="s">
-        <v>306</v>
-      </c>
       <c r="E142" s="1" t="s">
-        <v>18</v>
+        <v>8</v>
       </c>
       <c r="F142" s="1" t="s">
         <v>37</v>
@@ -4815,19 +4821,19 @@
     </row>
     <row r="143" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A143" s="1" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="B143" s="1" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="C143" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D143" s="1" t="s">
-        <v>317</v>
+        <v>313</v>
       </c>
       <c r="E143" s="1" t="s">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="F143" s="1" t="s">
         <v>37</v>
@@ -4844,10 +4850,10 @@
         <v>3</v>
       </c>
       <c r="D144" s="1" t="s">
-        <v>317</v>
+        <v>313</v>
       </c>
       <c r="E144" s="1" t="s">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="F144" s="1" t="s">
         <v>37</v>
@@ -4864,10 +4870,10 @@
         <v>3</v>
       </c>
       <c r="D145" s="1" t="s">
-        <v>317</v>
+        <v>313</v>
       </c>
       <c r="E145" s="1" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="F145" s="1" t="s">
         <v>37</v>
@@ -4884,10 +4890,10 @@
         <v>3</v>
       </c>
       <c r="D146" s="1" t="s">
-        <v>317</v>
+        <v>324</v>
       </c>
       <c r="E146" s="1" t="s">
-        <v>15</v>
+        <v>4</v>
       </c>
       <c r="F146" s="1" t="s">
         <v>37</v>
@@ -4895,19 +4901,19 @@
     </row>
     <row r="147" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A147" s="1" t="s">
+        <v>325</v>
+      </c>
+      <c r="B147" s="1" t="s">
+        <v>326</v>
+      </c>
+      <c r="C147" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D147" s="1" t="s">
         <v>324</v>
       </c>
-      <c r="B147" s="1" t="s">
-        <v>325</v>
-      </c>
-      <c r="C147" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="D147" s="1" t="s">
-        <v>317</v>
-      </c>
       <c r="E147" s="1" t="s">
-        <v>18</v>
+        <v>8</v>
       </c>
       <c r="F147" s="1" t="s">
         <v>37</v>
@@ -4915,22 +4921,22 @@
     </row>
     <row r="148" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A148" s="1" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="B148" s="1" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="C148" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D148" s="1" t="s">
-        <v>328</v>
+        <v>324</v>
       </c>
       <c r="E148" s="1" t="s">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="F148" s="1" t="s">
-        <v>37</v>
+        <v>19</v>
       </c>
     </row>
     <row r="149" spans="1:6" x14ac:dyDescent="0.25">
@@ -4944,13 +4950,13 @@
         <v>3</v>
       </c>
       <c r="D149" s="1" t="s">
-        <v>328</v>
+        <v>324</v>
       </c>
       <c r="E149" s="1" t="s">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="F149" s="1" t="s">
-        <v>37</v>
+        <v>19</v>
       </c>
     </row>
     <row r="150" spans="1:6" x14ac:dyDescent="0.25">
@@ -4964,13 +4970,13 @@
         <v>3</v>
       </c>
       <c r="D150" s="1" t="s">
-        <v>328</v>
+        <v>324</v>
       </c>
       <c r="E150" s="1" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="F150" s="1" t="s">
-        <v>19</v>
+        <v>5</v>
       </c>
     </row>
     <row r="151" spans="1:6" x14ac:dyDescent="0.25">
@@ -4984,50 +4990,50 @@
         <v>3</v>
       </c>
       <c r="D151" s="1" t="s">
-        <v>328</v>
+        <v>335</v>
       </c>
       <c r="E151" s="1" t="s">
-        <v>15</v>
+        <v>4</v>
       </c>
       <c r="F151" s="1" t="s">
-        <v>19</v>
+        <v>37</v>
       </c>
     </row>
     <row r="152" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A152" s="1" t="s">
+        <v>336</v>
+      </c>
+      <c r="B152" s="1" t="s">
+        <v>337</v>
+      </c>
+      <c r="C152" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D152" s="1" t="s">
         <v>335</v>
       </c>
-      <c r="B152" s="1" t="s">
-        <v>336</v>
-      </c>
-      <c r="C152" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="D152" s="1" t="s">
-        <v>328</v>
-      </c>
       <c r="E152" s="1" t="s">
-        <v>18</v>
+        <v>8</v>
       </c>
       <c r="F152" s="1" t="s">
-        <v>5</v>
+        <v>37</v>
       </c>
     </row>
     <row r="153" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A153" s="1" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="B153" s="1" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="C153" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D153" s="1" t="s">
-        <v>339</v>
+        <v>335</v>
       </c>
       <c r="E153" s="1" t="s">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="F153" s="1" t="s">
         <v>37</v>
@@ -5044,10 +5050,10 @@
         <v>3</v>
       </c>
       <c r="D154" s="1" t="s">
-        <v>339</v>
+        <v>335</v>
       </c>
       <c r="E154" s="1" t="s">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="F154" s="1" t="s">
         <v>37</v>
@@ -5064,10 +5070,10 @@
         <v>3</v>
       </c>
       <c r="D155" s="1" t="s">
-        <v>339</v>
+        <v>335</v>
       </c>
       <c r="E155" s="1" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="F155" s="1" t="s">
         <v>37</v>
@@ -5084,13 +5090,13 @@
         <v>3</v>
       </c>
       <c r="D156" s="1" t="s">
-        <v>339</v>
+        <v>335</v>
       </c>
       <c r="E156" s="1" t="s">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="F156" s="1" t="s">
-        <v>37</v>
+        <v>90</v>
       </c>
     </row>
     <row r="157" spans="1:6" x14ac:dyDescent="0.25">
@@ -5104,13 +5110,13 @@
         <v>3</v>
       </c>
       <c r="D157" s="1" t="s">
-        <v>339</v>
+        <v>335</v>
       </c>
       <c r="E157" s="1" t="s">
-        <v>18</v>
+        <v>86</v>
       </c>
       <c r="F157" s="1" t="s">
-        <v>37</v>
+        <v>90</v>
       </c>
     </row>
     <row r="158" spans="1:6" x14ac:dyDescent="0.25">
@@ -5124,13 +5130,13 @@
         <v>3</v>
       </c>
       <c r="D158" s="1" t="s">
-        <v>339</v>
+        <v>335</v>
       </c>
       <c r="E158" s="1" t="s">
-        <v>22</v>
+        <v>113</v>
       </c>
       <c r="F158" s="1" t="s">
-        <v>90</v>
+        <v>37</v>
       </c>
     </row>
     <row r="159" spans="1:6" x14ac:dyDescent="0.25">
@@ -5144,53 +5150,53 @@
         <v>3</v>
       </c>
       <c r="D159" s="1" t="s">
-        <v>339</v>
+        <v>352</v>
       </c>
       <c r="E159" s="1" t="s">
-        <v>86</v>
+        <v>4</v>
       </c>
       <c r="F159" s="1" t="s">
-        <v>90</v>
+        <v>37</v>
       </c>
     </row>
     <row r="160" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A160" s="1" t="s">
+        <v>353</v>
+      </c>
+      <c r="B160" s="1" t="s">
+        <v>354</v>
+      </c>
+      <c r="C160" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D160" s="1" t="s">
         <v>352</v>
       </c>
-      <c r="B160" s="1" t="s">
-        <v>353</v>
-      </c>
-      <c r="C160" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="D160" s="1" t="s">
-        <v>339</v>
-      </c>
       <c r="E160" s="1" t="s">
-        <v>89</v>
+        <v>8</v>
       </c>
       <c r="F160" s="1" t="s">
-        <v>37</v>
+        <v>19</v>
       </c>
     </row>
     <row r="161" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A161" s="1" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="B161" s="1" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="C161" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D161" s="1" t="s">
-        <v>356</v>
+        <v>352</v>
       </c>
       <c r="E161" s="1" t="s">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="F161" s="1" t="s">
-        <v>37</v>
+        <v>19</v>
       </c>
     </row>
     <row r="162" spans="1:6" x14ac:dyDescent="0.25">
@@ -5204,10 +5210,10 @@
         <v>3</v>
       </c>
       <c r="D162" s="1" t="s">
-        <v>356</v>
+        <v>352</v>
       </c>
       <c r="E162" s="1" t="s">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="F162" s="1" t="s">
         <v>19</v>
@@ -5224,10 +5230,10 @@
         <v>3</v>
       </c>
       <c r="D163" s="1" t="s">
-        <v>356</v>
+        <v>352</v>
       </c>
       <c r="E163" s="1" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="F163" s="1" t="s">
         <v>19</v>
@@ -5244,13 +5250,13 @@
         <v>3</v>
       </c>
       <c r="D164" s="1" t="s">
-        <v>356</v>
+        <v>352</v>
       </c>
       <c r="E164" s="1" t="s">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="F164" s="1" t="s">
-        <v>19</v>
+        <v>37</v>
       </c>
     </row>
     <row r="165" spans="1:6" x14ac:dyDescent="0.25">
@@ -5264,30 +5270,30 @@
         <v>3</v>
       </c>
       <c r="D165" s="1" t="s">
-        <v>356</v>
+        <v>365</v>
       </c>
       <c r="E165" s="1" t="s">
-        <v>18</v>
+        <v>4</v>
       </c>
       <c r="F165" s="1" t="s">
-        <v>19</v>
+        <v>37</v>
       </c>
     </row>
     <row r="166" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A166" s="1" t="s">
+        <v>366</v>
+      </c>
+      <c r="B166" s="1" t="s">
+        <v>367</v>
+      </c>
+      <c r="C166" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D166" s="1" t="s">
         <v>365</v>
       </c>
-      <c r="B166" s="1" t="s">
-        <v>366</v>
-      </c>
-      <c r="C166" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="D166" s="1" t="s">
-        <v>356</v>
-      </c>
       <c r="E166" s="1" t="s">
-        <v>22</v>
+        <v>8</v>
       </c>
       <c r="F166" s="1" t="s">
         <v>37</v>
@@ -5295,22 +5301,22 @@
     </row>
     <row r="167" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A167" s="1" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="B167" s="1" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="C167" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D167" s="1" t="s">
-        <v>369</v>
+        <v>365</v>
       </c>
       <c r="E167" s="1" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="F167" s="1" t="s">
-        <v>37</v>
+        <v>5</v>
       </c>
     </row>
     <row r="168" spans="1:6" x14ac:dyDescent="0.25">
@@ -5324,13 +5330,13 @@
         <v>3</v>
       </c>
       <c r="D168" s="1" t="s">
-        <v>369</v>
+        <v>365</v>
       </c>
       <c r="E168" s="1" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="F168" s="1" t="s">
-        <v>37</v>
+        <v>5</v>
       </c>
     </row>
     <row r="169" spans="1:6" x14ac:dyDescent="0.25">
@@ -5344,10 +5350,10 @@
         <v>3</v>
       </c>
       <c r="D169" s="1" t="s">
-        <v>369</v>
+        <v>365</v>
       </c>
       <c r="E169" s="1" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="F169" s="1" t="s">
         <v>5</v>
@@ -5364,73 +5370,73 @@
         <v>3</v>
       </c>
       <c r="D170" s="1" t="s">
-        <v>369</v>
+        <v>376</v>
       </c>
       <c r="E170" s="1" t="s">
-        <v>86</v>
+        <v>4</v>
       </c>
       <c r="F170" s="1" t="s">
-        <v>5</v>
+        <v>138</v>
       </c>
     </row>
     <row r="171" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A171" s="1" t="s">
+        <v>377</v>
+      </c>
+      <c r="B171" s="1" t="s">
+        <v>378</v>
+      </c>
+      <c r="C171" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D171" s="1" t="s">
         <v>376</v>
       </c>
-      <c r="B171" s="1" t="s">
-        <v>377</v>
-      </c>
-      <c r="C171" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="D171" s="1" t="s">
-        <v>369</v>
-      </c>
       <c r="E171" s="1" t="s">
-        <v>89</v>
+        <v>8</v>
       </c>
       <c r="F171" s="1" t="s">
-        <v>12</v>
+        <v>37</v>
       </c>
     </row>
     <row r="172" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A172" s="1" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="B172" s="1" t="s">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="C172" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D172" s="1" t="s">
-        <v>369</v>
+        <v>376</v>
       </c>
       <c r="E172" s="1" t="s">
-        <v>93</v>
+        <v>11</v>
       </c>
       <c r="F172" s="1" t="s">
-        <v>12</v>
+        <v>19</v>
       </c>
     </row>
     <row r="173" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A173" s="1" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="B173" s="1" t="s">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="C173" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D173" s="1" t="s">
-        <v>382</v>
+        <v>376</v>
       </c>
       <c r="E173" s="1" t="s">
-        <v>4</v>
+        <v>15</v>
       </c>
       <c r="F173" s="1" t="s">
-        <v>137</v>
+        <v>37</v>
       </c>
     </row>
     <row r="174" spans="1:6" x14ac:dyDescent="0.25">
@@ -5444,13 +5450,13 @@
         <v>3</v>
       </c>
       <c r="D174" s="1" t="s">
-        <v>382</v>
+        <v>376</v>
       </c>
       <c r="E174" s="1" t="s">
-        <v>8</v>
+        <v>18</v>
       </c>
       <c r="F174" s="1" t="s">
-        <v>37</v>
+        <v>19</v>
       </c>
     </row>
     <row r="175" spans="1:6" x14ac:dyDescent="0.25">
@@ -5464,10 +5470,10 @@
         <v>3</v>
       </c>
       <c r="D175" s="1" t="s">
-        <v>382</v>
+        <v>376</v>
       </c>
       <c r="E175" s="1" t="s">
-        <v>11</v>
+        <v>22</v>
       </c>
       <c r="F175" s="1" t="s">
         <v>19</v>
@@ -5484,90 +5490,90 @@
         <v>3</v>
       </c>
       <c r="D176" s="1" t="s">
-        <v>382</v>
+        <v>389</v>
       </c>
       <c r="E176" s="1" t="s">
-        <v>15</v>
+        <v>4</v>
       </c>
       <c r="F176" s="1" t="s">
-        <v>37</v>
+        <v>19</v>
       </c>
     </row>
     <row r="177" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A177" s="1" t="s">
+        <v>390</v>
+      </c>
+      <c r="B177" s="1" t="s">
+        <v>391</v>
+      </c>
+      <c r="C177" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D177" s="1" t="s">
         <v>389</v>
       </c>
-      <c r="B177" s="1" t="s">
-        <v>390</v>
-      </c>
-      <c r="C177" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="D177" s="1" t="s">
-        <v>382</v>
-      </c>
       <c r="E177" s="1" t="s">
-        <v>18</v>
+        <v>8</v>
       </c>
       <c r="F177" s="1" t="s">
-        <v>37</v>
+        <v>19</v>
       </c>
     </row>
     <row r="178" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A178" s="1" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="B178" s="1" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="C178" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D178" s="1" t="s">
-        <v>382</v>
+        <v>389</v>
       </c>
       <c r="E178" s="1" t="s">
-        <v>22</v>
+        <v>11</v>
       </c>
       <c r="F178" s="1" t="s">
-        <v>37</v>
+        <v>19</v>
       </c>
     </row>
     <row r="179" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A179" s="1" t="s">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="B179" s="1" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="C179" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D179" s="1" t="s">
-        <v>382</v>
+        <v>396</v>
       </c>
       <c r="E179" s="1" t="s">
-        <v>86</v>
+        <v>4</v>
       </c>
       <c r="F179" s="1" t="s">
-        <v>5</v>
+        <v>37</v>
       </c>
     </row>
     <row r="180" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A180" s="1" t="s">
-        <v>395</v>
+        <v>397</v>
       </c>
       <c r="B180" s="1" t="s">
+        <v>398</v>
+      </c>
+      <c r="C180" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D180" s="1" t="s">
         <v>396</v>
       </c>
-      <c r="C180" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="D180" s="1" t="s">
-        <v>382</v>
-      </c>
       <c r="E180" s="1" t="s">
-        <v>89</v>
+        <v>8</v>
       </c>
       <c r="F180" s="1" t="s">
         <v>37</v>
@@ -5575,119 +5581,119 @@
     </row>
     <row r="181" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A181" s="1" t="s">
-        <v>397</v>
+        <v>399</v>
       </c>
       <c r="B181" s="1" t="s">
-        <v>398</v>
+        <v>400</v>
       </c>
       <c r="C181" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D181" s="1" t="s">
-        <v>399</v>
+        <v>396</v>
       </c>
       <c r="E181" s="1" t="s">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="F181" s="1" t="s">
-        <v>19</v>
+        <v>37</v>
       </c>
     </row>
     <row r="182" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A182" s="1" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="B182" s="1" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="C182" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D182" s="1" t="s">
-        <v>399</v>
+        <v>396</v>
       </c>
       <c r="E182" s="1" t="s">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="F182" s="1" t="s">
-        <v>19</v>
+        <v>37</v>
       </c>
     </row>
     <row r="183" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A183" s="1" t="s">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="B183" s="1" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="C183" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D183" s="1" t="s">
-        <v>399</v>
+        <v>396</v>
       </c>
       <c r="E183" s="1" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="F183" s="1" t="s">
-        <v>19</v>
+        <v>37</v>
       </c>
     </row>
     <row r="184" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A184" s="1" t="s">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="B184" s="1" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="C184" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D184" s="1" t="s">
-        <v>399</v>
+        <v>396</v>
       </c>
       <c r="E184" s="1" t="s">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="F184" s="1" t="s">
-        <v>19</v>
+        <v>37</v>
       </c>
     </row>
     <row r="185" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A185" s="1" t="s">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="B185" s="1" t="s">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="C185" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D185" s="1" t="s">
-        <v>399</v>
+        <v>396</v>
       </c>
       <c r="E185" s="1" t="s">
-        <v>18</v>
+        <v>86</v>
       </c>
       <c r="F185" s="1" t="s">
-        <v>19</v>
+        <v>37</v>
       </c>
     </row>
     <row r="186" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A186" s="1" t="s">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="B186" s="1" t="s">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="C186" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D186" s="1" t="s">
-        <v>410</v>
+        <v>396</v>
       </c>
       <c r="E186" s="1" t="s">
-        <v>4</v>
+        <v>113</v>
       </c>
       <c r="F186" s="1" t="s">
         <v>37</v>
@@ -5704,13 +5710,13 @@
         <v>3</v>
       </c>
       <c r="D187" s="1" t="s">
-        <v>410</v>
+        <v>396</v>
       </c>
       <c r="E187" s="1" t="s">
-        <v>8</v>
+        <v>89</v>
       </c>
       <c r="F187" s="1" t="s">
-        <v>37</v>
+        <v>12</v>
       </c>
     </row>
     <row r="188" spans="1:6" x14ac:dyDescent="0.25">
@@ -5724,90 +5730,90 @@
         <v>3</v>
       </c>
       <c r="D188" s="1" t="s">
-        <v>410</v>
+        <v>415</v>
       </c>
       <c r="E188" s="1" t="s">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="F188" s="1" t="s">
-        <v>37</v>
+        <v>12</v>
       </c>
     </row>
     <row r="189" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A189" s="1" t="s">
+        <v>416</v>
+      </c>
+      <c r="B189" s="1" t="s">
+        <v>417</v>
+      </c>
+      <c r="C189" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D189" s="1" t="s">
         <v>415</v>
       </c>
-      <c r="B189" s="1" t="s">
-        <v>416</v>
-      </c>
-      <c r="C189" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="D189" s="1" t="s">
-        <v>410</v>
-      </c>
       <c r="E189" s="1" t="s">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="F189" s="1" t="s">
-        <v>37</v>
+        <v>12</v>
       </c>
     </row>
     <row r="190" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A190" s="1" t="s">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="B190" s="1" t="s">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="C190" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D190" s="1" t="s">
-        <v>410</v>
+        <v>415</v>
       </c>
       <c r="E190" s="1" t="s">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="F190" s="1" t="s">
-        <v>37</v>
+        <v>5</v>
       </c>
     </row>
     <row r="191" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A191" s="1" t="s">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="B191" s="1" t="s">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="C191" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D191" s="1" t="s">
-        <v>410</v>
+        <v>415</v>
       </c>
       <c r="E191" s="1" t="s">
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="F191" s="1" t="s">
-        <v>37</v>
+        <v>5</v>
       </c>
     </row>
     <row r="192" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A192" s="1" t="s">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="B192" s="1" t="s">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="C192" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D192" s="1" t="s">
-        <v>410</v>
+        <v>415</v>
       </c>
       <c r="E192" s="1" t="s">
-        <v>86</v>
+        <v>18</v>
       </c>
       <c r="F192" s="1" t="s">
         <v>37</v>
@@ -5815,19 +5821,19 @@
     </row>
     <row r="193" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A193" s="1" t="s">
-        <v>423</v>
+        <v>424</v>
       </c>
       <c r="B193" s="1" t="s">
-        <v>424</v>
+        <v>425</v>
       </c>
       <c r="C193" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D193" s="1" t="s">
-        <v>410</v>
+        <v>415</v>
       </c>
       <c r="E193" s="1" t="s">
-        <v>89</v>
+        <v>22</v>
       </c>
       <c r="F193" s="1" t="s">
         <v>37</v>
@@ -5835,42 +5841,42 @@
     </row>
     <row r="194" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A194" s="1" t="s">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="B194" s="1" t="s">
-        <v>426</v>
+        <v>427</v>
       </c>
       <c r="C194" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D194" s="1" t="s">
-        <v>410</v>
+        <v>415</v>
       </c>
       <c r="E194" s="1" t="s">
-        <v>93</v>
+        <v>86</v>
       </c>
       <c r="F194" s="1" t="s">
-        <v>12</v>
+        <v>37</v>
       </c>
     </row>
     <row r="195" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A195" s="1" t="s">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="B195" s="1" t="s">
-        <v>428</v>
+        <v>429</v>
       </c>
       <c r="C195" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D195" s="1" t="s">
-        <v>429</v>
+        <v>415</v>
       </c>
       <c r="E195" s="1" t="s">
-        <v>4</v>
+        <v>113</v>
       </c>
       <c r="F195" s="1" t="s">
-        <v>37</v>
+        <v>5</v>
       </c>
     </row>
     <row r="196" spans="1:6" x14ac:dyDescent="0.25">
@@ -5884,10 +5890,10 @@
         <v>3</v>
       </c>
       <c r="D196" s="1" t="s">
-        <v>429</v>
+        <v>432</v>
       </c>
       <c r="E196" s="1" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="F196" s="1" t="s">
         <v>37</v>
@@ -5895,19 +5901,19 @@
     </row>
     <row r="197" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A197" s="1" t="s">
+        <v>433</v>
+      </c>
+      <c r="B197" s="1" t="s">
+        <v>434</v>
+      </c>
+      <c r="C197" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D197" s="1" t="s">
         <v>432</v>
       </c>
-      <c r="B197" s="1" t="s">
-        <v>433</v>
-      </c>
-      <c r="C197" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="D197" s="1" t="s">
-        <v>429</v>
-      </c>
       <c r="E197" s="1" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="F197" s="1" t="s">
         <v>37</v>
@@ -5915,59 +5921,59 @@
     </row>
     <row r="198" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A198" s="1" t="s">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="B198" s="1" t="s">
-        <v>435</v>
+        <v>436</v>
       </c>
       <c r="C198" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D198" s="1" t="s">
-        <v>429</v>
+        <v>432</v>
       </c>
       <c r="E198" s="1" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="F198" s="1" t="s">
-        <v>90</v>
+        <v>37</v>
       </c>
     </row>
     <row r="199" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A199" s="1" t="s">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c r="B199" s="1" t="s">
-        <v>437</v>
+        <v>438</v>
       </c>
       <c r="C199" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D199" s="1" t="s">
-        <v>429</v>
+        <v>432</v>
       </c>
       <c r="E199" s="1" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="F199" s="1" t="s">
-        <v>37</v>
+        <v>90</v>
       </c>
     </row>
     <row r="200" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A200" s="1" t="s">
-        <v>438</v>
+        <v>439</v>
       </c>
       <c r="B200" s="1" t="s">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="C200" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D200" s="1" t="s">
-        <v>429</v>
+        <v>432</v>
       </c>
       <c r="E200" s="1" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="F200" s="1" t="s">
         <v>37</v>
@@ -5975,19 +5981,19 @@
     </row>
     <row r="201" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A201" s="1" t="s">
-        <v>440</v>
+        <v>441</v>
       </c>
       <c r="B201" s="1" t="s">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="C201" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D201" s="1" t="s">
-        <v>442</v>
+        <v>432</v>
       </c>
       <c r="E201" s="1" t="s">
-        <v>4</v>
+        <v>22</v>
       </c>
       <c r="F201" s="1" t="s">
         <v>37</v>
@@ -6004,10 +6010,10 @@
         <v>3</v>
       </c>
       <c r="D202" s="1" t="s">
-        <v>442</v>
+        <v>445</v>
       </c>
       <c r="E202" s="1" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="F202" s="1" t="s">
         <v>37</v>
@@ -6015,19 +6021,19 @@
     </row>
     <row r="203" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A203" s="1" t="s">
+        <v>446</v>
+      </c>
+      <c r="B203" s="1" t="s">
+        <v>447</v>
+      </c>
+      <c r="C203" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D203" s="1" t="s">
         <v>445</v>
       </c>
-      <c r="B203" s="1" t="s">
-        <v>446</v>
-      </c>
-      <c r="C203" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="D203" s="1" t="s">
-        <v>442</v>
-      </c>
       <c r="E203" s="1" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="F203" s="1" t="s">
         <v>37</v>
@@ -6035,19 +6041,19 @@
     </row>
     <row r="204" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A204" s="1" t="s">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="B204" s="1" t="s">
-        <v>448</v>
+        <v>449</v>
       </c>
       <c r="C204" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D204" s="1" t="s">
-        <v>442</v>
+        <v>445</v>
       </c>
       <c r="E204" s="1" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="F204" s="1" t="s">
         <v>37</v>
@@ -6055,19 +6061,19 @@
     </row>
     <row r="205" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A205" s="1" t="s">
-        <v>449</v>
+        <v>450</v>
       </c>
       <c r="B205" s="1" t="s">
-        <v>450</v>
+        <v>451</v>
       </c>
       <c r="C205" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D205" s="1" t="s">
-        <v>442</v>
+        <v>445</v>
       </c>
       <c r="E205" s="1" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="F205" s="1" t="s">
         <v>37</v>
@@ -6075,19 +6081,19 @@
     </row>
     <row r="206" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A206" s="1" t="s">
-        <v>451</v>
+        <v>452</v>
       </c>
       <c r="B206" s="1" t="s">
-        <v>452</v>
+        <v>453</v>
       </c>
       <c r="C206" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D206" s="1" t="s">
-        <v>442</v>
+        <v>445</v>
       </c>
       <c r="E206" s="1" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="F206" s="1" t="s">
         <v>37</v>
@@ -6095,19 +6101,19 @@
     </row>
     <row r="207" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A207" s="1" t="s">
-        <v>453</v>
+        <v>454</v>
       </c>
       <c r="B207" s="1" t="s">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="C207" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D207" s="1" t="s">
-        <v>455</v>
+        <v>445</v>
       </c>
       <c r="E207" s="1" t="s">
-        <v>4</v>
+        <v>22</v>
       </c>
       <c r="F207" s="1" t="s">
         <v>37</v>
@@ -6124,10 +6130,10 @@
         <v>3</v>
       </c>
       <c r="D208" s="1" t="s">
-        <v>455</v>
+        <v>458</v>
       </c>
       <c r="E208" s="1" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="F208" s="1" t="s">
         <v>37</v>
@@ -6135,19 +6141,19 @@
     </row>
     <row r="209" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A209" s="1" t="s">
+        <v>459</v>
+      </c>
+      <c r="B209" s="1" t="s">
+        <v>460</v>
+      </c>
+      <c r="C209" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D209" s="1" t="s">
         <v>458</v>
       </c>
-      <c r="B209" s="1" t="s">
-        <v>459</v>
-      </c>
-      <c r="C209" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="D209" s="1" t="s">
-        <v>455</v>
-      </c>
       <c r="E209" s="1" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="F209" s="1" t="s">
         <v>37</v>
@@ -6155,19 +6161,19 @@
     </row>
     <row r="210" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A210" s="1" t="s">
-        <v>460</v>
+        <v>461</v>
       </c>
       <c r="B210" s="1" t="s">
-        <v>461</v>
+        <v>462</v>
       </c>
       <c r="C210" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D210" s="1" t="s">
-        <v>455</v>
+        <v>458</v>
       </c>
       <c r="E210" s="1" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="F210" s="1" t="s">
         <v>37</v>
@@ -6175,19 +6181,19 @@
     </row>
     <row r="211" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A211" s="1" t="s">
-        <v>462</v>
+        <v>463</v>
       </c>
       <c r="B211" s="1" t="s">
-        <v>463</v>
+        <v>464</v>
       </c>
       <c r="C211" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D211" s="1" t="s">
-        <v>455</v>
+        <v>458</v>
       </c>
       <c r="E211" s="1" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="F211" s="1" t="s">
         <v>37</v>
@@ -6195,19 +6201,19 @@
     </row>
     <row r="212" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A212" s="1" t="s">
-        <v>464</v>
+        <v>465</v>
       </c>
       <c r="B212" s="1" t="s">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="C212" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D212" s="1" t="s">
-        <v>466</v>
+        <v>458</v>
       </c>
       <c r="E212" s="1" t="s">
-        <v>4</v>
+        <v>18</v>
       </c>
       <c r="F212" s="1" t="s">
         <v>37</v>
@@ -6224,10 +6230,10 @@
         <v>3</v>
       </c>
       <c r="D213" s="1" t="s">
-        <v>466</v>
+        <v>458</v>
       </c>
       <c r="E213" s="1" t="s">
-        <v>8</v>
+        <v>22</v>
       </c>
       <c r="F213" s="1" t="s">
         <v>37</v>
@@ -6244,10 +6250,10 @@
         <v>3</v>
       </c>
       <c r="D214" s="1" t="s">
-        <v>466</v>
+        <v>458</v>
       </c>
       <c r="E214" s="1" t="s">
-        <v>11</v>
+        <v>86</v>
       </c>
       <c r="F214" s="1" t="s">
         <v>37</v>
@@ -6264,10 +6270,10 @@
         <v>3</v>
       </c>
       <c r="D215" s="1" t="s">
-        <v>466</v>
+        <v>473</v>
       </c>
       <c r="E215" s="1" t="s">
-        <v>15</v>
+        <v>4</v>
       </c>
       <c r="F215" s="1" t="s">
         <v>37</v>
@@ -6275,19 +6281,19 @@
     </row>
     <row r="216" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A216" s="1" t="s">
+        <v>474</v>
+      </c>
+      <c r="B216" s="1" t="s">
+        <v>475</v>
+      </c>
+      <c r="C216" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D216" s="1" t="s">
         <v>473</v>
       </c>
-      <c r="B216" s="1" t="s">
-        <v>474</v>
-      </c>
-      <c r="C216" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="D216" s="1" t="s">
-        <v>466</v>
-      </c>
       <c r="E216" s="1" t="s">
-        <v>18</v>
+        <v>8</v>
       </c>
       <c r="F216" s="1" t="s">
         <v>37</v>
@@ -6295,19 +6301,19 @@
     </row>
     <row r="217" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A217" s="1" t="s">
-        <v>475</v>
+        <v>476</v>
       </c>
       <c r="B217" s="1" t="s">
-        <v>476</v>
+        <v>477</v>
       </c>
       <c r="C217" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D217" s="1" t="s">
-        <v>477</v>
+        <v>473</v>
       </c>
       <c r="E217" s="1" t="s">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="F217" s="1" t="s">
         <v>37</v>
@@ -6324,10 +6330,10 @@
         <v>3</v>
       </c>
       <c r="D218" s="1" t="s">
-        <v>477</v>
+        <v>473</v>
       </c>
       <c r="E218" s="1" t="s">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="F218" s="1" t="s">
         <v>37</v>
@@ -6344,10 +6350,10 @@
         <v>3</v>
       </c>
       <c r="D219" s="1" t="s">
-        <v>477</v>
+        <v>473</v>
       </c>
       <c r="E219" s="1" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="F219" s="1" t="s">
         <v>37</v>
@@ -6364,10 +6370,10 @@
         <v>3</v>
       </c>
       <c r="D220" s="1" t="s">
-        <v>477</v>
+        <v>473</v>
       </c>
       <c r="E220" s="1" t="s">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="F220" s="1" t="s">
         <v>37</v>
@@ -6384,10 +6390,10 @@
         <v>3</v>
       </c>
       <c r="D221" s="1" t="s">
-        <v>477</v>
+        <v>473</v>
       </c>
       <c r="E221" s="1" t="s">
-        <v>18</v>
+        <v>86</v>
       </c>
       <c r="F221" s="1" t="s">
         <v>37</v>
@@ -6404,10 +6410,10 @@
         <v>3</v>
       </c>
       <c r="D222" s="1" t="s">
-        <v>477</v>
+        <v>488</v>
       </c>
       <c r="E222" s="1" t="s">
-        <v>22</v>
+        <v>4</v>
       </c>
       <c r="F222" s="1" t="s">
         <v>37</v>
@@ -6415,19 +6421,19 @@
     </row>
     <row r="223" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A223" s="1" t="s">
+        <v>489</v>
+      </c>
+      <c r="B223" s="1" t="s">
+        <v>490</v>
+      </c>
+      <c r="C223" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D223" s="1" t="s">
         <v>488</v>
       </c>
-      <c r="B223" s="1" t="s">
-        <v>489</v>
-      </c>
-      <c r="C223" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="D223" s="1" t="s">
-        <v>490</v>
-      </c>
       <c r="E223" s="1" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="F223" s="1" t="s">
         <v>37</v>
@@ -6444,13 +6450,13 @@
         <v>3</v>
       </c>
       <c r="D224" s="1" t="s">
-        <v>490</v>
+        <v>488</v>
       </c>
       <c r="E224" s="1" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="F224" s="1" t="s">
-        <v>90</v>
+        <v>37</v>
       </c>
     </row>
     <row r="225" spans="1:6" x14ac:dyDescent="0.25">
@@ -6464,10 +6470,10 @@
         <v>3</v>
       </c>
       <c r="D225" s="1" t="s">
-        <v>490</v>
+        <v>488</v>
       </c>
       <c r="E225" s="1" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="F225" s="1" t="s">
         <v>90</v>
@@ -6484,10 +6490,10 @@
         <v>3</v>
       </c>
       <c r="D226" s="1" t="s">
-        <v>490</v>
+        <v>488</v>
       </c>
       <c r="E226" s="1" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="F226" s="1" t="s">
         <v>90</v>
@@ -6504,10 +6510,10 @@
         <v>3</v>
       </c>
       <c r="D227" s="1" t="s">
-        <v>490</v>
+        <v>488</v>
       </c>
       <c r="E227" s="1" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="F227" s="1" t="s">
         <v>90</v>
@@ -6524,13 +6530,13 @@
         <v>3</v>
       </c>
       <c r="D228" s="1" t="s">
-        <v>490</v>
+        <v>488</v>
       </c>
       <c r="E228" s="1" t="s">
-        <v>22</v>
+        <v>86</v>
       </c>
       <c r="F228" s="1" t="s">
-        <v>90</v>
+        <v>19</v>
       </c>
     </row>
     <row r="229" spans="1:6" x14ac:dyDescent="0.25">
@@ -6544,10 +6550,10 @@
         <v>3</v>
       </c>
       <c r="D229" s="1" t="s">
-        <v>490</v>
+        <v>488</v>
       </c>
       <c r="E229" s="1" t="s">
-        <v>86</v>
+        <v>113</v>
       </c>
       <c r="F229" s="1" t="s">
         <v>90</v>
@@ -6564,30 +6570,30 @@
         <v>3</v>
       </c>
       <c r="D230" s="1" t="s">
-        <v>490</v>
+        <v>505</v>
       </c>
       <c r="E230" s="1" t="s">
-        <v>89</v>
+        <v>4</v>
       </c>
       <c r="F230" s="1" t="s">
-        <v>19</v>
+        <v>90</v>
       </c>
     </row>
     <row r="231" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A231" s="1" t="s">
+        <v>506</v>
+      </c>
+      <c r="B231" s="1" t="s">
+        <v>507</v>
+      </c>
+      <c r="C231" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D231" s="1" t="s">
         <v>505</v>
       </c>
-      <c r="B231" s="1" t="s">
-        <v>506</v>
-      </c>
-      <c r="C231" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="D231" s="1" t="s">
-        <v>490</v>
-      </c>
       <c r="E231" s="1" t="s">
-        <v>93</v>
+        <v>8</v>
       </c>
       <c r="F231" s="1" t="s">
         <v>90</v>
@@ -6595,19 +6601,19 @@
     </row>
     <row r="232" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A232" s="1" t="s">
-        <v>507</v>
+        <v>508</v>
       </c>
       <c r="B232" s="1" t="s">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="C232" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D232" s="1" t="s">
-        <v>490</v>
+        <v>505</v>
       </c>
       <c r="E232" s="1" t="s">
-        <v>96</v>
+        <v>11</v>
       </c>
       <c r="F232" s="1" t="s">
         <v>90</v>
@@ -6615,22 +6621,22 @@
     </row>
     <row r="233" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A233" s="1" t="s">
-        <v>509</v>
+        <v>510</v>
       </c>
       <c r="B233" s="1" t="s">
-        <v>510</v>
+        <v>511</v>
       </c>
       <c r="C233" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D233" s="1" t="s">
-        <v>511</v>
+        <v>505</v>
       </c>
       <c r="E233" s="1" t="s">
-        <v>4</v>
+        <v>15</v>
       </c>
       <c r="F233" s="1" t="s">
-        <v>37</v>
+        <v>90</v>
       </c>
     </row>
     <row r="234" spans="1:6" x14ac:dyDescent="0.25">
@@ -6644,10 +6650,10 @@
         <v>3</v>
       </c>
       <c r="D234" s="1" t="s">
-        <v>511</v>
+        <v>505</v>
       </c>
       <c r="E234" s="1" t="s">
-        <v>8</v>
+        <v>18</v>
       </c>
       <c r="F234" s="1" t="s">
         <v>37</v>
@@ -6664,10 +6670,10 @@
         <v>3</v>
       </c>
       <c r="D235" s="1" t="s">
-        <v>511</v>
+        <v>505</v>
       </c>
       <c r="E235" s="1" t="s">
-        <v>11</v>
+        <v>22</v>
       </c>
       <c r="F235" s="1" t="s">
         <v>37</v>
@@ -6684,10 +6690,10 @@
         <v>3</v>
       </c>
       <c r="D236" s="1" t="s">
-        <v>511</v>
+        <v>505</v>
       </c>
       <c r="E236" s="1" t="s">
-        <v>15</v>
+        <v>86</v>
       </c>
       <c r="F236" s="1" t="s">
         <v>37</v>
@@ -6704,12 +6710,32 @@
         <v>3</v>
       </c>
       <c r="D237" s="1" t="s">
-        <v>511</v>
+        <v>505</v>
       </c>
       <c r="E237" s="1" t="s">
-        <v>18</v>
+        <v>113</v>
       </c>
       <c r="F237" s="1" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="238" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A238" s="1" t="s">
+        <v>520</v>
+      </c>
+      <c r="B238" s="1" t="s">
+        <v>521</v>
+      </c>
+      <c r="C238" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D238" s="1" t="s">
+        <v>505</v>
+      </c>
+      <c r="E238" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="F238" s="1" t="s">
         <v>37</v>
       </c>
     </row>

--- a/SNK06D.xlsx
+++ b/SNK06D.xlsx
@@ -325,19 +325,19 @@
     <t>20136007</t>
   </si>
   <si>
-    <t>MR.POTATO BBQ 106G</t>
+    <t>MR.POTATO BBQ 85G</t>
   </si>
   <si>
     <t>20135539</t>
   </si>
   <si>
-    <t>MR.POTATO ORGNL 106G</t>
+    <t>MR.POTATO ORGINAL85G</t>
   </si>
   <si>
     <t>20135538</t>
   </si>
   <si>
-    <t>MR.POTATO SOUR&amp;O 106</t>
+    <t>MR.POTATO SOUR&amp;O 85G</t>
   </si>
   <si>
     <t>20137054</t>

--- a/SNK06D.xlsx
+++ b/SNK06D.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1428" uniqueCount="522">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1434" uniqueCount="524">
   <si>
     <t/>
   </si>
@@ -274,6 +274,15 @@
     <t>7</t>
   </si>
   <si>
+    <t>20141098</t>
+  </si>
+  <si>
+    <t>MR PTT BULDAK CHES40</t>
+  </si>
+  <si>
+    <t>8</t>
+  </si>
+  <si>
     <t>20139841</t>
   </si>
   <si>
@@ -352,9 +361,6 @@
     <t>CHTATO LITE KEJU 110</t>
   </si>
   <si>
-    <t>8</t>
-  </si>
-  <si>
     <t>10000739</t>
   </si>
   <si>
@@ -808,7 +814,7 @@
     <t>20104942</t>
   </si>
   <si>
-    <t>CHIKI BALL CHOCO 55G</t>
+    <t>CHIKI BALL CHOCO 50G</t>
   </si>
   <si>
     <t>20</t>
@@ -823,13 +829,13 @@
     <t>20101064</t>
   </si>
   <si>
-    <t>CHIKI BALL CHEESE 55</t>
+    <t>CHIKI BALL CHEESE 50</t>
   </si>
   <si>
     <t>20101065</t>
   </si>
   <si>
-    <t>CHIKI BALL CHKN 55</t>
+    <t>CHIKI BALL CHKN 50</t>
   </si>
   <si>
     <t>20140272</t>
@@ -1552,31 +1558,31 @@
     <t>20098348</t>
   </si>
   <si>
-    <t>REBO KUACI ORIGNL140</t>
+    <t>REBO KUACI ORIGNL120</t>
   </si>
   <si>
     <t>20068536</t>
   </si>
   <si>
-    <t>REBO KUACI G.TEA 140</t>
+    <t>REBO KUACI G.TEA 120</t>
   </si>
   <si>
     <t>20093909</t>
   </si>
   <si>
-    <t>REBO KUACI MILK 140</t>
+    <t>REBO KUACI MILK 120</t>
   </si>
   <si>
     <t>20098334</t>
   </si>
   <si>
-    <t>REBO KUACI CRM 140G</t>
+    <t>REBO KUACI CRM 120G</t>
   </si>
   <si>
     <t>20130147</t>
   </si>
   <si>
-    <t>REBO KUACI CCNUT 140</t>
+    <t>REBO KUACI CCNUT 120</t>
   </si>
 </sst>
 </file>
@@ -1969,7 +1975,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F238"/>
+  <dimension ref="A1:F239"/>
   <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="55"/>
   <cols>
     <col min="1" max="1" width="10" customWidth="1"/>
@@ -2756,15 +2762,15 @@
         <v>89</v>
       </c>
       <c r="F39" s="1" t="s">
-        <v>90</v>
+        <v>37</v>
       </c>
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A40" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="B40" s="1" t="s">
         <v>91</v>
-      </c>
-      <c r="B40" s="1" t="s">
-        <v>92</v>
       </c>
       <c r="C40" s="1" t="s">
         <v>3</v>
@@ -2773,10 +2779,10 @@
         <v>22</v>
       </c>
       <c r="E40" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="F40" s="1" t="s">
         <v>93</v>
-      </c>
-      <c r="F40" s="1" t="s">
-        <v>37</v>
       </c>
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.25">
@@ -2810,10 +2816,10 @@
         <v>3</v>
       </c>
       <c r="D42" s="1" t="s">
-        <v>86</v>
+        <v>22</v>
       </c>
       <c r="E42" s="1" t="s">
-        <v>4</v>
+        <v>99</v>
       </c>
       <c r="F42" s="1" t="s">
         <v>37</v>
@@ -2821,10 +2827,10 @@
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A43" s="1" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="C43" s="1" t="s">
         <v>3</v>
@@ -2833,7 +2839,7 @@
         <v>86</v>
       </c>
       <c r="E43" s="1" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="F43" s="1" t="s">
         <v>37</v>
@@ -2841,10 +2847,10 @@
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A44" s="1" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="C44" s="1" t="s">
         <v>3</v>
@@ -2853,7 +2859,7 @@
         <v>86</v>
       </c>
       <c r="E44" s="1" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="F44" s="1" t="s">
         <v>37</v>
@@ -2861,10 +2867,10 @@
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A45" s="1" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="C45" s="1" t="s">
         <v>3</v>
@@ -2873,7 +2879,7 @@
         <v>86</v>
       </c>
       <c r="E45" s="1" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="F45" s="1" t="s">
         <v>37</v>
@@ -2881,10 +2887,10 @@
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A46" s="1" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="C46" s="1" t="s">
         <v>3</v>
@@ -2893,7 +2899,7 @@
         <v>86</v>
       </c>
       <c r="E46" s="1" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="F46" s="1" t="s">
         <v>37</v>
@@ -2901,10 +2907,10 @@
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A47" s="1" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="B47" s="1" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="C47" s="1" t="s">
         <v>3</v>
@@ -2913,7 +2919,7 @@
         <v>86</v>
       </c>
       <c r="E47" s="1" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="F47" s="1" t="s">
         <v>37</v>
@@ -2921,10 +2927,10 @@
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A48" s="1" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="B48" s="1" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="C48" s="1" t="s">
         <v>3</v>
@@ -2933,18 +2939,18 @@
         <v>86</v>
       </c>
       <c r="E48" s="1" t="s">
-        <v>86</v>
+        <v>22</v>
       </c>
       <c r="F48" s="1" t="s">
-        <v>5</v>
+        <v>37</v>
       </c>
     </row>
     <row r="49" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A49" s="1" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="B49" s="1" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="C49" s="1" t="s">
         <v>3</v>
@@ -2953,7 +2959,7 @@
         <v>86</v>
       </c>
       <c r="E49" s="1" t="s">
-        <v>113</v>
+        <v>86</v>
       </c>
       <c r="F49" s="1" t="s">
         <v>5</v>
@@ -2993,7 +2999,7 @@
         <v>86</v>
       </c>
       <c r="E51" s="1" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="F51" s="1" t="s">
         <v>5</v>
@@ -3010,13 +3016,13 @@
         <v>3</v>
       </c>
       <c r="D52" s="1" t="s">
-        <v>113</v>
+        <v>86</v>
       </c>
       <c r="E52" s="1" t="s">
-        <v>4</v>
+        <v>96</v>
       </c>
       <c r="F52" s="1" t="s">
-        <v>19</v>
+        <v>5</v>
       </c>
     </row>
     <row r="53" spans="1:6" x14ac:dyDescent="0.25">
@@ -3030,10 +3036,10 @@
         <v>3</v>
       </c>
       <c r="D53" s="1" t="s">
-        <v>113</v>
+        <v>89</v>
       </c>
       <c r="E53" s="1" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="F53" s="1" t="s">
         <v>19</v>
@@ -3050,10 +3056,10 @@
         <v>3</v>
       </c>
       <c r="D54" s="1" t="s">
-        <v>113</v>
+        <v>89</v>
       </c>
       <c r="E54" s="1" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="F54" s="1" t="s">
         <v>19</v>
@@ -3070,10 +3076,10 @@
         <v>3</v>
       </c>
       <c r="D55" s="1" t="s">
-        <v>113</v>
+        <v>89</v>
       </c>
       <c r="E55" s="1" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="F55" s="1" t="s">
         <v>19</v>
@@ -3090,13 +3096,13 @@
         <v>3</v>
       </c>
       <c r="D56" s="1" t="s">
-        <v>113</v>
+        <v>89</v>
       </c>
       <c r="E56" s="1" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="F56" s="1" t="s">
-        <v>5</v>
+        <v>19</v>
       </c>
     </row>
     <row r="57" spans="1:6" x14ac:dyDescent="0.25">
@@ -3110,10 +3116,10 @@
         <v>3</v>
       </c>
       <c r="D57" s="1" t="s">
-        <v>113</v>
+        <v>89</v>
       </c>
       <c r="E57" s="1" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="F57" s="1" t="s">
         <v>5</v>
@@ -3130,10 +3136,10 @@
         <v>3</v>
       </c>
       <c r="D58" s="1" t="s">
-        <v>113</v>
+        <v>89</v>
       </c>
       <c r="E58" s="1" t="s">
-        <v>86</v>
+        <v>22</v>
       </c>
       <c r="F58" s="1" t="s">
         <v>5</v>
@@ -3153,10 +3159,10 @@
         <v>89</v>
       </c>
       <c r="E59" s="1" t="s">
-        <v>4</v>
+        <v>86</v>
       </c>
       <c r="F59" s="1" t="s">
-        <v>37</v>
+        <v>5</v>
       </c>
     </row>
     <row r="60" spans="1:6" x14ac:dyDescent="0.25">
@@ -3170,10 +3176,10 @@
         <v>3</v>
       </c>
       <c r="D60" s="1" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="E60" s="1" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="F60" s="1" t="s">
         <v>37</v>
@@ -3190,33 +3196,33 @@
         <v>3</v>
       </c>
       <c r="D61" s="1" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="E61" s="1" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="F61" s="1" t="s">
-        <v>138</v>
+        <v>37</v>
       </c>
     </row>
     <row r="62" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A62" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="B62" s="1" t="s">
         <v>139</v>
       </c>
-      <c r="B62" s="1" t="s">
+      <c r="C62" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D62" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="E62" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="F62" s="1" t="s">
         <v>140</v>
-      </c>
-      <c r="C62" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="D62" s="1" t="s">
-        <v>89</v>
-      </c>
-      <c r="E62" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="F62" s="1" t="s">
-        <v>138</v>
       </c>
     </row>
     <row r="63" spans="1:6" x14ac:dyDescent="0.25">
@@ -3230,13 +3236,13 @@
         <v>3</v>
       </c>
       <c r="D63" s="1" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="E63" s="1" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="F63" s="1" t="s">
-        <v>5</v>
+        <v>140</v>
       </c>
     </row>
     <row r="64" spans="1:6" x14ac:dyDescent="0.25">
@@ -3250,10 +3256,10 @@
         <v>3</v>
       </c>
       <c r="D64" s="1" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="E64" s="1" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="F64" s="1" t="s">
         <v>5</v>
@@ -3270,10 +3276,10 @@
         <v>3</v>
       </c>
       <c r="D65" s="1" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="E65" s="1" t="s">
-        <v>86</v>
+        <v>22</v>
       </c>
       <c r="F65" s="1" t="s">
         <v>5</v>
@@ -3290,13 +3296,13 @@
         <v>3</v>
       </c>
       <c r="D66" s="1" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="E66" s="1" t="s">
-        <v>4</v>
+        <v>86</v>
       </c>
       <c r="F66" s="1" t="s">
-        <v>37</v>
+        <v>5</v>
       </c>
     </row>
     <row r="67" spans="1:6" x14ac:dyDescent="0.25">
@@ -3310,33 +3316,33 @@
         <v>3</v>
       </c>
       <c r="D67" s="1" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="E67" s="1" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="F67" s="1" t="s">
-        <v>151</v>
+        <v>37</v>
       </c>
     </row>
     <row r="68" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A68" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="B68" s="1" t="s">
         <v>152</v>
       </c>
-      <c r="B68" s="1" t="s">
+      <c r="C68" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D68" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="E68" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="F68" s="1" t="s">
         <v>153</v>
-      </c>
-      <c r="C68" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="D68" s="1" t="s">
-        <v>93</v>
-      </c>
-      <c r="E68" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="F68" s="1" t="s">
-        <v>151</v>
       </c>
     </row>
     <row r="69" spans="1:6" x14ac:dyDescent="0.25">
@@ -3350,13 +3356,13 @@
         <v>3</v>
       </c>
       <c r="D69" s="1" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="E69" s="1" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="F69" s="1" t="s">
-        <v>19</v>
+        <v>153</v>
       </c>
     </row>
     <row r="70" spans="1:6" x14ac:dyDescent="0.25">
@@ -3370,10 +3376,10 @@
         <v>3</v>
       </c>
       <c r="D70" s="1" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="E70" s="1" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="F70" s="1" t="s">
         <v>19</v>
@@ -3393,10 +3399,10 @@
         <v>96</v>
       </c>
       <c r="E71" s="1" t="s">
-        <v>4</v>
+        <v>18</v>
       </c>
       <c r="F71" s="1" t="s">
-        <v>5</v>
+        <v>19</v>
       </c>
     </row>
     <row r="72" spans="1:6" x14ac:dyDescent="0.25">
@@ -3410,10 +3416,10 @@
         <v>3</v>
       </c>
       <c r="D72" s="1" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="E72" s="1" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="F72" s="1" t="s">
         <v>5</v>
@@ -3430,10 +3436,10 @@
         <v>3</v>
       </c>
       <c r="D73" s="1" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="E73" s="1" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="F73" s="1" t="s">
         <v>5</v>
@@ -3450,10 +3456,10 @@
         <v>3</v>
       </c>
       <c r="D74" s="1" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="E74" s="1" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="F74" s="1" t="s">
         <v>5</v>
@@ -3470,13 +3476,13 @@
         <v>3</v>
       </c>
       <c r="D75" s="1" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="E75" s="1" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="F75" s="1" t="s">
-        <v>19</v>
+        <v>5</v>
       </c>
     </row>
     <row r="76" spans="1:6" x14ac:dyDescent="0.25">
@@ -3490,33 +3496,33 @@
         <v>3</v>
       </c>
       <c r="D76" s="1" t="s">
-        <v>170</v>
+        <v>99</v>
       </c>
       <c r="E76" s="1" t="s">
-        <v>4</v>
+        <v>18</v>
       </c>
       <c r="F76" s="1" t="s">
-        <v>5</v>
+        <v>19</v>
       </c>
     </row>
     <row r="77" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A77" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="B77" s="1" t="s">
         <v>171</v>
       </c>
-      <c r="B77" s="1" t="s">
+      <c r="C77" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D77" s="1" t="s">
         <v>172</v>
       </c>
-      <c r="C77" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="D77" s="1" t="s">
-        <v>170</v>
-      </c>
       <c r="E77" s="1" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="F77" s="1" t="s">
-        <v>37</v>
+        <v>5</v>
       </c>
     </row>
     <row r="78" spans="1:6" x14ac:dyDescent="0.25">
@@ -3530,13 +3536,13 @@
         <v>3</v>
       </c>
       <c r="D78" s="1" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="E78" s="1" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="F78" s="1" t="s">
-        <v>19</v>
+        <v>37</v>
       </c>
     </row>
     <row r="79" spans="1:6" x14ac:dyDescent="0.25">
@@ -3550,10 +3556,10 @@
         <v>3</v>
       </c>
       <c r="D79" s="1" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="E79" s="1" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="F79" s="1" t="s">
         <v>19</v>
@@ -3570,13 +3576,13 @@
         <v>3</v>
       </c>
       <c r="D80" s="1" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="E80" s="1" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="F80" s="1" t="s">
-        <v>12</v>
+        <v>19</v>
       </c>
     </row>
     <row r="81" spans="1:6" x14ac:dyDescent="0.25">
@@ -3590,33 +3596,33 @@
         <v>3</v>
       </c>
       <c r="D81" s="1" t="s">
-        <v>181</v>
+        <v>172</v>
       </c>
       <c r="E81" s="1" t="s">
-        <v>4</v>
+        <v>18</v>
       </c>
       <c r="F81" s="1" t="s">
-        <v>5</v>
+        <v>12</v>
       </c>
     </row>
     <row r="82" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A82" s="1" t="s">
+        <v>181</v>
+      </c>
+      <c r="B82" s="1" t="s">
         <v>182</v>
       </c>
-      <c r="B82" s="1" t="s">
+      <c r="C82" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D82" s="1" t="s">
         <v>183</v>
       </c>
-      <c r="C82" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="D82" s="1" t="s">
-        <v>181</v>
-      </c>
       <c r="E82" s="1" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="F82" s="1" t="s">
-        <v>37</v>
+        <v>5</v>
       </c>
     </row>
     <row r="83" spans="1:6" x14ac:dyDescent="0.25">
@@ -3630,13 +3636,13 @@
         <v>3</v>
       </c>
       <c r="D83" s="1" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="E83" s="1" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="F83" s="1" t="s">
-        <v>5</v>
+        <v>37</v>
       </c>
     </row>
     <row r="84" spans="1:6" x14ac:dyDescent="0.25">
@@ -3650,10 +3656,10 @@
         <v>3</v>
       </c>
       <c r="D84" s="1" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="E84" s="1" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="F84" s="1" t="s">
         <v>5</v>
@@ -3670,13 +3676,13 @@
         <v>3</v>
       </c>
       <c r="D85" s="1" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="E85" s="1" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="F85" s="1" t="s">
-        <v>12</v>
+        <v>5</v>
       </c>
     </row>
     <row r="86" spans="1:6" x14ac:dyDescent="0.25">
@@ -3690,10 +3696,10 @@
         <v>3</v>
       </c>
       <c r="D86" s="1" t="s">
-        <v>192</v>
+        <v>183</v>
       </c>
       <c r="E86" s="1" t="s">
-        <v>4</v>
+        <v>18</v>
       </c>
       <c r="F86" s="1" t="s">
         <v>12</v>
@@ -3701,19 +3707,19 @@
     </row>
     <row r="87" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A87" s="1" t="s">
+        <v>192</v>
+      </c>
+      <c r="B87" s="1" t="s">
         <v>193</v>
       </c>
-      <c r="B87" s="1" t="s">
+      <c r="C87" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D87" s="1" t="s">
         <v>194</v>
       </c>
-      <c r="C87" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="D87" s="1" t="s">
-        <v>192</v>
-      </c>
       <c r="E87" s="1" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="F87" s="1" t="s">
         <v>12</v>
@@ -3730,13 +3736,13 @@
         <v>3</v>
       </c>
       <c r="D88" s="1" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="E88" s="1" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="F88" s="1" t="s">
-        <v>19</v>
+        <v>12</v>
       </c>
     </row>
     <row r="89" spans="1:6" x14ac:dyDescent="0.25">
@@ -3750,13 +3756,13 @@
         <v>3</v>
       </c>
       <c r="D89" s="1" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="E89" s="1" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="F89" s="1" t="s">
-        <v>37</v>
+        <v>19</v>
       </c>
     </row>
     <row r="90" spans="1:6" x14ac:dyDescent="0.25">
@@ -3770,10 +3776,10 @@
         <v>3</v>
       </c>
       <c r="D90" s="1" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="E90" s="1" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="F90" s="1" t="s">
         <v>37</v>
@@ -3790,10 +3796,10 @@
         <v>3</v>
       </c>
       <c r="D91" s="1" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="E91" s="1" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="F91" s="1" t="s">
         <v>37</v>
@@ -3810,10 +3816,10 @@
         <v>3</v>
       </c>
       <c r="D92" s="1" t="s">
-        <v>205</v>
+        <v>194</v>
       </c>
       <c r="E92" s="1" t="s">
-        <v>4</v>
+        <v>22</v>
       </c>
       <c r="F92" s="1" t="s">
         <v>37</v>
@@ -3821,19 +3827,19 @@
     </row>
     <row r="93" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A93" s="1" t="s">
+        <v>205</v>
+      </c>
+      <c r="B93" s="1" t="s">
         <v>206</v>
       </c>
-      <c r="B93" s="1" t="s">
+      <c r="C93" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D93" s="1" t="s">
         <v>207</v>
       </c>
-      <c r="C93" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="D93" s="1" t="s">
-        <v>205</v>
-      </c>
       <c r="E93" s="1" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="F93" s="1" t="s">
         <v>37</v>
@@ -3850,10 +3856,10 @@
         <v>3</v>
       </c>
       <c r="D94" s="1" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="E94" s="1" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="F94" s="1" t="s">
         <v>37</v>
@@ -3870,13 +3876,13 @@
         <v>3</v>
       </c>
       <c r="D95" s="1" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="E95" s="1" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="F95" s="1" t="s">
-        <v>138</v>
+        <v>37</v>
       </c>
     </row>
     <row r="96" spans="1:6" x14ac:dyDescent="0.25">
@@ -3890,13 +3896,13 @@
         <v>3</v>
       </c>
       <c r="D96" s="1" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="E96" s="1" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="F96" s="1" t="s">
-        <v>37</v>
+        <v>140</v>
       </c>
     </row>
     <row r="97" spans="1:6" x14ac:dyDescent="0.25">
@@ -3910,10 +3916,10 @@
         <v>3</v>
       </c>
       <c r="D97" s="1" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="E97" s="1" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="F97" s="1" t="s">
         <v>37</v>
@@ -3930,10 +3936,10 @@
         <v>3</v>
       </c>
       <c r="D98" s="1" t="s">
-        <v>218</v>
+        <v>207</v>
       </c>
       <c r="E98" s="1" t="s">
-        <v>4</v>
+        <v>22</v>
       </c>
       <c r="F98" s="1" t="s">
         <v>37</v>
@@ -3941,22 +3947,22 @@
     </row>
     <row r="99" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A99" s="1" t="s">
+        <v>218</v>
+      </c>
+      <c r="B99" s="1" t="s">
         <v>219</v>
       </c>
-      <c r="B99" s="1" t="s">
+      <c r="C99" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D99" s="1" t="s">
         <v>220</v>
       </c>
-      <c r="C99" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="D99" s="1" t="s">
-        <v>218</v>
-      </c>
       <c r="E99" s="1" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="F99" s="1" t="s">
-        <v>5</v>
+        <v>37</v>
       </c>
     </row>
     <row r="100" spans="1:6" x14ac:dyDescent="0.25">
@@ -3970,13 +3976,13 @@
         <v>3</v>
       </c>
       <c r="D100" s="1" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="E100" s="1" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="F100" s="1" t="s">
-        <v>37</v>
+        <v>5</v>
       </c>
     </row>
     <row r="101" spans="1:6" x14ac:dyDescent="0.25">
@@ -3990,13 +3996,13 @@
         <v>3</v>
       </c>
       <c r="D101" s="1" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="E101" s="1" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="F101" s="1" t="s">
-        <v>19</v>
+        <v>37</v>
       </c>
     </row>
     <row r="102" spans="1:6" x14ac:dyDescent="0.25">
@@ -4010,13 +4016,13 @@
         <v>3</v>
       </c>
       <c r="D102" s="1" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="E102" s="1" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="F102" s="1" t="s">
-        <v>37</v>
+        <v>19</v>
       </c>
     </row>
     <row r="103" spans="1:6" x14ac:dyDescent="0.25">
@@ -4030,10 +4036,10 @@
         <v>3</v>
       </c>
       <c r="D103" s="1" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="E103" s="1" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="F103" s="1" t="s">
         <v>37</v>
@@ -4050,10 +4056,10 @@
         <v>3</v>
       </c>
       <c r="D104" s="1" t="s">
-        <v>231</v>
+        <v>220</v>
       </c>
       <c r="E104" s="1" t="s">
-        <v>4</v>
+        <v>22</v>
       </c>
       <c r="F104" s="1" t="s">
         <v>37</v>
@@ -4061,19 +4067,19 @@
     </row>
     <row r="105" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A105" s="1" t="s">
+        <v>231</v>
+      </c>
+      <c r="B105" s="1" t="s">
         <v>232</v>
       </c>
-      <c r="B105" s="1" t="s">
+      <c r="C105" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D105" s="1" t="s">
         <v>233</v>
       </c>
-      <c r="C105" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="D105" s="1" t="s">
-        <v>231</v>
-      </c>
       <c r="E105" s="1" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="F105" s="1" t="s">
         <v>37</v>
@@ -4090,10 +4096,10 @@
         <v>3</v>
       </c>
       <c r="D106" s="1" t="s">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="E106" s="1" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="F106" s="1" t="s">
         <v>37</v>
@@ -4110,13 +4116,13 @@
         <v>3</v>
       </c>
       <c r="D107" s="1" t="s">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="E107" s="1" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="F107" s="1" t="s">
-        <v>5</v>
+        <v>37</v>
       </c>
     </row>
     <row r="108" spans="1:6" x14ac:dyDescent="0.25">
@@ -4130,13 +4136,13 @@
         <v>3</v>
       </c>
       <c r="D108" s="1" t="s">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="E108" s="1" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="F108" s="1" t="s">
-        <v>19</v>
+        <v>5</v>
       </c>
     </row>
     <row r="109" spans="1:6" x14ac:dyDescent="0.25">
@@ -4150,33 +4156,33 @@
         <v>3</v>
       </c>
       <c r="D109" s="1" t="s">
-        <v>242</v>
+        <v>233</v>
       </c>
       <c r="E109" s="1" t="s">
-        <v>4</v>
+        <v>18</v>
       </c>
       <c r="F109" s="1" t="s">
-        <v>138</v>
+        <v>19</v>
       </c>
     </row>
     <row r="110" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A110" s="1" t="s">
+        <v>242</v>
+      </c>
+      <c r="B110" s="1" t="s">
         <v>243</v>
       </c>
-      <c r="B110" s="1" t="s">
+      <c r="C110" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D110" s="1" t="s">
         <v>244</v>
       </c>
-      <c r="C110" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="D110" s="1" t="s">
-        <v>242</v>
-      </c>
       <c r="E110" s="1" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="F110" s="1" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
     </row>
     <row r="111" spans="1:6" x14ac:dyDescent="0.25">
@@ -4190,13 +4196,13 @@
         <v>3</v>
       </c>
       <c r="D111" s="1" t="s">
-        <v>242</v>
+        <v>244</v>
       </c>
       <c r="E111" s="1" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="F111" s="1" t="s">
-        <v>37</v>
+        <v>140</v>
       </c>
     </row>
     <row r="112" spans="1:6" x14ac:dyDescent="0.25">
@@ -4210,10 +4216,10 @@
         <v>3</v>
       </c>
       <c r="D112" s="1" t="s">
-        <v>242</v>
+        <v>244</v>
       </c>
       <c r="E112" s="1" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="F112" s="1" t="s">
         <v>37</v>
@@ -4230,13 +4236,13 @@
         <v>3</v>
       </c>
       <c r="D113" s="1" t="s">
-        <v>242</v>
+        <v>244</v>
       </c>
       <c r="E113" s="1" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="F113" s="1" t="s">
-        <v>19</v>
+        <v>37</v>
       </c>
     </row>
     <row r="114" spans="1:6" x14ac:dyDescent="0.25">
@@ -4250,10 +4256,10 @@
         <v>3</v>
       </c>
       <c r="D114" s="1" t="s">
-        <v>242</v>
+        <v>244</v>
       </c>
       <c r="E114" s="1" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="F114" s="1" t="s">
         <v>19</v>
@@ -4270,30 +4276,30 @@
         <v>3</v>
       </c>
       <c r="D115" s="1" t="s">
-        <v>255</v>
+        <v>244</v>
       </c>
       <c r="E115" s="1" t="s">
-        <v>4</v>
+        <v>22</v>
       </c>
       <c r="F115" s="1" t="s">
-        <v>5</v>
+        <v>19</v>
       </c>
     </row>
     <row r="116" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A116" s="1" t="s">
+        <v>255</v>
+      </c>
+      <c r="B116" s="1" t="s">
         <v>256</v>
       </c>
-      <c r="B116" s="1" t="s">
+      <c r="C116" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D116" s="1" t="s">
         <v>257</v>
       </c>
-      <c r="C116" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="D116" s="1" t="s">
-        <v>255</v>
-      </c>
       <c r="E116" s="1" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="F116" s="1" t="s">
         <v>5</v>
@@ -4310,10 +4316,10 @@
         <v>3</v>
       </c>
       <c r="D117" s="1" t="s">
-        <v>255</v>
+        <v>257</v>
       </c>
       <c r="E117" s="1" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="F117" s="1" t="s">
         <v>5</v>
@@ -4330,13 +4336,13 @@
         <v>3</v>
       </c>
       <c r="D118" s="1" t="s">
-        <v>255</v>
+        <v>257</v>
       </c>
       <c r="E118" s="1" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="F118" s="1" t="s">
-        <v>19</v>
+        <v>5</v>
       </c>
     </row>
     <row r="119" spans="1:6" x14ac:dyDescent="0.25">
@@ -4350,10 +4356,10 @@
         <v>3</v>
       </c>
       <c r="D119" s="1" t="s">
-        <v>255</v>
+        <v>257</v>
       </c>
       <c r="E119" s="1" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="F119" s="1" t="s">
         <v>19</v>
@@ -4370,30 +4376,30 @@
         <v>3</v>
       </c>
       <c r="D120" s="1" t="s">
-        <v>266</v>
+        <v>257</v>
       </c>
       <c r="E120" s="1" t="s">
-        <v>4</v>
+        <v>18</v>
       </c>
       <c r="F120" s="1" t="s">
-        <v>5</v>
+        <v>19</v>
       </c>
     </row>
     <row r="121" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A121" s="1" t="s">
+        <v>266</v>
+      </c>
+      <c r="B121" s="1" t="s">
         <v>267</v>
       </c>
-      <c r="B121" s="1" t="s">
+      <c r="C121" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D121" s="1" t="s">
         <v>268</v>
       </c>
-      <c r="C121" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="D121" s="1" t="s">
-        <v>266</v>
-      </c>
       <c r="E121" s="1" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="F121" s="1" t="s">
         <v>5</v>
@@ -4410,10 +4416,10 @@
         <v>3</v>
       </c>
       <c r="D122" s="1" t="s">
-        <v>266</v>
+        <v>268</v>
       </c>
       <c r="E122" s="1" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="F122" s="1" t="s">
         <v>5</v>
@@ -4430,10 +4436,10 @@
         <v>3</v>
       </c>
       <c r="D123" s="1" t="s">
-        <v>266</v>
+        <v>268</v>
       </c>
       <c r="E123" s="1" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="F123" s="1" t="s">
         <v>5</v>
@@ -4450,33 +4456,33 @@
         <v>3</v>
       </c>
       <c r="D124" s="1" t="s">
-        <v>266</v>
+        <v>268</v>
       </c>
       <c r="E124" s="1" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="F124" s="1" t="s">
-        <v>275</v>
+        <v>5</v>
       </c>
     </row>
     <row r="125" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A125" s="1" t="s">
+        <v>275</v>
+      </c>
+      <c r="B125" s="1" t="s">
         <v>276</v>
       </c>
-      <c r="B125" s="1" t="s">
+      <c r="C125" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D125" s="1" t="s">
+        <v>268</v>
+      </c>
+      <c r="E125" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="F125" s="1" t="s">
         <v>277</v>
-      </c>
-      <c r="C125" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="D125" s="1" t="s">
-        <v>266</v>
-      </c>
-      <c r="E125" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="F125" s="1" t="s">
-        <v>275</v>
       </c>
     </row>
     <row r="126" spans="1:6" x14ac:dyDescent="0.25">
@@ -4490,30 +4496,30 @@
         <v>3</v>
       </c>
       <c r="D126" s="1" t="s">
-        <v>280</v>
+        <v>268</v>
       </c>
       <c r="E126" s="1" t="s">
-        <v>4</v>
+        <v>22</v>
       </c>
       <c r="F126" s="1" t="s">
-        <v>37</v>
+        <v>277</v>
       </c>
     </row>
     <row r="127" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A127" s="1" t="s">
+        <v>280</v>
+      </c>
+      <c r="B127" s="1" t="s">
         <v>281</v>
       </c>
-      <c r="B127" s="1" t="s">
+      <c r="C127" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D127" s="1" t="s">
         <v>282</v>
       </c>
-      <c r="C127" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="D127" s="1" t="s">
-        <v>280</v>
-      </c>
       <c r="E127" s="1" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="F127" s="1" t="s">
         <v>37</v>
@@ -4530,10 +4536,10 @@
         <v>3</v>
       </c>
       <c r="D128" s="1" t="s">
-        <v>280</v>
+        <v>282</v>
       </c>
       <c r="E128" s="1" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="F128" s="1" t="s">
         <v>37</v>
@@ -4550,13 +4556,13 @@
         <v>3</v>
       </c>
       <c r="D129" s="1" t="s">
-        <v>280</v>
+        <v>282</v>
       </c>
       <c r="E129" s="1" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="F129" s="1" t="s">
-        <v>5</v>
+        <v>37</v>
       </c>
     </row>
     <row r="130" spans="1:6" x14ac:dyDescent="0.25">
@@ -4570,10 +4576,10 @@
         <v>3</v>
       </c>
       <c r="D130" s="1" t="s">
-        <v>280</v>
+        <v>282</v>
       </c>
       <c r="E130" s="1" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="F130" s="1" t="s">
         <v>5</v>
@@ -4590,30 +4596,30 @@
         <v>3</v>
       </c>
       <c r="D131" s="1" t="s">
-        <v>291</v>
+        <v>282</v>
       </c>
       <c r="E131" s="1" t="s">
-        <v>4</v>
+        <v>18</v>
       </c>
       <c r="F131" s="1" t="s">
-        <v>37</v>
+        <v>5</v>
       </c>
     </row>
     <row r="132" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A132" s="1" t="s">
+        <v>291</v>
+      </c>
+      <c r="B132" s="1" t="s">
         <v>292</v>
       </c>
-      <c r="B132" s="1" t="s">
+      <c r="C132" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D132" s="1" t="s">
         <v>293</v>
       </c>
-      <c r="C132" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="D132" s="1" t="s">
-        <v>291</v>
-      </c>
       <c r="E132" s="1" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="F132" s="1" t="s">
         <v>37</v>
@@ -4630,10 +4636,10 @@
         <v>3</v>
       </c>
       <c r="D133" s="1" t="s">
-        <v>291</v>
+        <v>293</v>
       </c>
       <c r="E133" s="1" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="F133" s="1" t="s">
         <v>37</v>
@@ -4650,13 +4656,13 @@
         <v>3</v>
       </c>
       <c r="D134" s="1" t="s">
-        <v>291</v>
+        <v>293</v>
       </c>
       <c r="E134" s="1" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="F134" s="1" t="s">
-        <v>12</v>
+        <v>37</v>
       </c>
     </row>
     <row r="135" spans="1:6" x14ac:dyDescent="0.25">
@@ -4670,13 +4676,13 @@
         <v>3</v>
       </c>
       <c r="D135" s="1" t="s">
-        <v>291</v>
+        <v>293</v>
       </c>
       <c r="E135" s="1" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="F135" s="1" t="s">
-        <v>37</v>
+        <v>12</v>
       </c>
     </row>
     <row r="136" spans="1:6" x14ac:dyDescent="0.25">
@@ -4690,10 +4696,10 @@
         <v>3</v>
       </c>
       <c r="D136" s="1" t="s">
-        <v>291</v>
+        <v>293</v>
       </c>
       <c r="E136" s="1" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="F136" s="1" t="s">
         <v>37</v>
@@ -4710,10 +4716,10 @@
         <v>3</v>
       </c>
       <c r="D137" s="1" t="s">
-        <v>304</v>
+        <v>293</v>
       </c>
       <c r="E137" s="1" t="s">
-        <v>4</v>
+        <v>22</v>
       </c>
       <c r="F137" s="1" t="s">
         <v>37</v>
@@ -4721,19 +4727,19 @@
     </row>
     <row r="138" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A138" s="1" t="s">
+        <v>304</v>
+      </c>
+      <c r="B138" s="1" t="s">
         <v>305</v>
       </c>
-      <c r="B138" s="1" t="s">
+      <c r="C138" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D138" s="1" t="s">
         <v>306</v>
       </c>
-      <c r="C138" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="D138" s="1" t="s">
-        <v>304</v>
-      </c>
       <c r="E138" s="1" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="F138" s="1" t="s">
         <v>37</v>
@@ -4750,10 +4756,10 @@
         <v>3</v>
       </c>
       <c r="D139" s="1" t="s">
-        <v>304</v>
+        <v>306</v>
       </c>
       <c r="E139" s="1" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="F139" s="1" t="s">
         <v>37</v>
@@ -4770,10 +4776,10 @@
         <v>3</v>
       </c>
       <c r="D140" s="1" t="s">
-        <v>304</v>
+        <v>306</v>
       </c>
       <c r="E140" s="1" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="F140" s="1" t="s">
         <v>37</v>
@@ -4790,10 +4796,10 @@
         <v>3</v>
       </c>
       <c r="D141" s="1" t="s">
-        <v>313</v>
+        <v>306</v>
       </c>
       <c r="E141" s="1" t="s">
-        <v>4</v>
+        <v>15</v>
       </c>
       <c r="F141" s="1" t="s">
         <v>37</v>
@@ -4801,19 +4807,19 @@
     </row>
     <row r="142" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A142" s="1" t="s">
+        <v>313</v>
+      </c>
+      <c r="B142" s="1" t="s">
         <v>314</v>
       </c>
-      <c r="B142" s="1" t="s">
+      <c r="C142" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D142" s="1" t="s">
         <v>315</v>
       </c>
-      <c r="C142" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="D142" s="1" t="s">
-        <v>313</v>
-      </c>
       <c r="E142" s="1" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="F142" s="1" t="s">
         <v>37</v>
@@ -4830,10 +4836,10 @@
         <v>3</v>
       </c>
       <c r="D143" s="1" t="s">
-        <v>313</v>
+        <v>315</v>
       </c>
       <c r="E143" s="1" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="F143" s="1" t="s">
         <v>37</v>
@@ -4850,10 +4856,10 @@
         <v>3</v>
       </c>
       <c r="D144" s="1" t="s">
-        <v>313</v>
+        <v>315</v>
       </c>
       <c r="E144" s="1" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="F144" s="1" t="s">
         <v>37</v>
@@ -4870,10 +4876,10 @@
         <v>3</v>
       </c>
       <c r="D145" s="1" t="s">
-        <v>313</v>
+        <v>315</v>
       </c>
       <c r="E145" s="1" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="F145" s="1" t="s">
         <v>37</v>
@@ -4890,10 +4896,10 @@
         <v>3</v>
       </c>
       <c r="D146" s="1" t="s">
-        <v>324</v>
+        <v>315</v>
       </c>
       <c r="E146" s="1" t="s">
-        <v>4</v>
+        <v>18</v>
       </c>
       <c r="F146" s="1" t="s">
         <v>37</v>
@@ -4901,19 +4907,19 @@
     </row>
     <row r="147" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A147" s="1" t="s">
+        <v>324</v>
+      </c>
+      <c r="B147" s="1" t="s">
         <v>325</v>
       </c>
-      <c r="B147" s="1" t="s">
+      <c r="C147" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D147" s="1" t="s">
         <v>326</v>
       </c>
-      <c r="C147" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="D147" s="1" t="s">
-        <v>324</v>
-      </c>
       <c r="E147" s="1" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="F147" s="1" t="s">
         <v>37</v>
@@ -4930,13 +4936,13 @@
         <v>3</v>
       </c>
       <c r="D148" s="1" t="s">
-        <v>324</v>
+        <v>326</v>
       </c>
       <c r="E148" s="1" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="F148" s="1" t="s">
-        <v>19</v>
+        <v>37</v>
       </c>
     </row>
     <row r="149" spans="1:6" x14ac:dyDescent="0.25">
@@ -4950,10 +4956,10 @@
         <v>3</v>
       </c>
       <c r="D149" s="1" t="s">
-        <v>324</v>
+        <v>326</v>
       </c>
       <c r="E149" s="1" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="F149" s="1" t="s">
         <v>19</v>
@@ -4970,13 +4976,13 @@
         <v>3</v>
       </c>
       <c r="D150" s="1" t="s">
-        <v>324</v>
+        <v>326</v>
       </c>
       <c r="E150" s="1" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="F150" s="1" t="s">
-        <v>5</v>
+        <v>19</v>
       </c>
     </row>
     <row r="151" spans="1:6" x14ac:dyDescent="0.25">
@@ -4990,30 +4996,30 @@
         <v>3</v>
       </c>
       <c r="D151" s="1" t="s">
-        <v>335</v>
+        <v>326</v>
       </c>
       <c r="E151" s="1" t="s">
-        <v>4</v>
+        <v>18</v>
       </c>
       <c r="F151" s="1" t="s">
-        <v>37</v>
+        <v>5</v>
       </c>
     </row>
     <row r="152" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A152" s="1" t="s">
+        <v>335</v>
+      </c>
+      <c r="B152" s="1" t="s">
         <v>336</v>
       </c>
-      <c r="B152" s="1" t="s">
+      <c r="C152" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D152" s="1" t="s">
         <v>337</v>
       </c>
-      <c r="C152" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="D152" s="1" t="s">
-        <v>335</v>
-      </c>
       <c r="E152" s="1" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="F152" s="1" t="s">
         <v>37</v>
@@ -5030,10 +5036,10 @@
         <v>3</v>
       </c>
       <c r="D153" s="1" t="s">
-        <v>335</v>
+        <v>337</v>
       </c>
       <c r="E153" s="1" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="F153" s="1" t="s">
         <v>37</v>
@@ -5050,10 +5056,10 @@
         <v>3</v>
       </c>
       <c r="D154" s="1" t="s">
-        <v>335</v>
+        <v>337</v>
       </c>
       <c r="E154" s="1" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="F154" s="1" t="s">
         <v>37</v>
@@ -5070,10 +5076,10 @@
         <v>3</v>
       </c>
       <c r="D155" s="1" t="s">
-        <v>335</v>
+        <v>337</v>
       </c>
       <c r="E155" s="1" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="F155" s="1" t="s">
         <v>37</v>
@@ -5090,13 +5096,13 @@
         <v>3</v>
       </c>
       <c r="D156" s="1" t="s">
-        <v>335</v>
+        <v>337</v>
       </c>
       <c r="E156" s="1" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="F156" s="1" t="s">
-        <v>90</v>
+        <v>37</v>
       </c>
     </row>
     <row r="157" spans="1:6" x14ac:dyDescent="0.25">
@@ -5110,13 +5116,13 @@
         <v>3</v>
       </c>
       <c r="D157" s="1" t="s">
-        <v>335</v>
+        <v>337</v>
       </c>
       <c r="E157" s="1" t="s">
-        <v>86</v>
+        <v>22</v>
       </c>
       <c r="F157" s="1" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
     </row>
     <row r="158" spans="1:6" x14ac:dyDescent="0.25">
@@ -5130,13 +5136,13 @@
         <v>3</v>
       </c>
       <c r="D158" s="1" t="s">
-        <v>335</v>
+        <v>337</v>
       </c>
       <c r="E158" s="1" t="s">
-        <v>113</v>
+        <v>86</v>
       </c>
       <c r="F158" s="1" t="s">
-        <v>37</v>
+        <v>93</v>
       </c>
     </row>
     <row r="159" spans="1:6" x14ac:dyDescent="0.25">
@@ -5150,10 +5156,10 @@
         <v>3</v>
       </c>
       <c r="D159" s="1" t="s">
-        <v>352</v>
+        <v>337</v>
       </c>
       <c r="E159" s="1" t="s">
-        <v>4</v>
+        <v>89</v>
       </c>
       <c r="F159" s="1" t="s">
         <v>37</v>
@@ -5161,22 +5167,22 @@
     </row>
     <row r="160" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A160" s="1" t="s">
+        <v>352</v>
+      </c>
+      <c r="B160" s="1" t="s">
         <v>353</v>
       </c>
-      <c r="B160" s="1" t="s">
+      <c r="C160" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D160" s="1" t="s">
         <v>354</v>
       </c>
-      <c r="C160" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="D160" s="1" t="s">
-        <v>352</v>
-      </c>
       <c r="E160" s="1" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="F160" s="1" t="s">
-        <v>19</v>
+        <v>37</v>
       </c>
     </row>
     <row r="161" spans="1:6" x14ac:dyDescent="0.25">
@@ -5190,10 +5196,10 @@
         <v>3</v>
       </c>
       <c r="D161" s="1" t="s">
-        <v>352</v>
+        <v>354</v>
       </c>
       <c r="E161" s="1" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="F161" s="1" t="s">
         <v>19</v>
@@ -5210,10 +5216,10 @@
         <v>3</v>
       </c>
       <c r="D162" s="1" t="s">
-        <v>352</v>
+        <v>354</v>
       </c>
       <c r="E162" s="1" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="F162" s="1" t="s">
         <v>19</v>
@@ -5230,10 +5236,10 @@
         <v>3</v>
       </c>
       <c r="D163" s="1" t="s">
-        <v>352</v>
+        <v>354</v>
       </c>
       <c r="E163" s="1" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="F163" s="1" t="s">
         <v>19</v>
@@ -5250,13 +5256,13 @@
         <v>3</v>
       </c>
       <c r="D164" s="1" t="s">
-        <v>352</v>
+        <v>354</v>
       </c>
       <c r="E164" s="1" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="F164" s="1" t="s">
-        <v>37</v>
+        <v>19</v>
       </c>
     </row>
     <row r="165" spans="1:6" x14ac:dyDescent="0.25">
@@ -5270,10 +5276,10 @@
         <v>3</v>
       </c>
       <c r="D165" s="1" t="s">
-        <v>365</v>
+        <v>354</v>
       </c>
       <c r="E165" s="1" t="s">
-        <v>4</v>
+        <v>22</v>
       </c>
       <c r="F165" s="1" t="s">
         <v>37</v>
@@ -5281,19 +5287,19 @@
     </row>
     <row r="166" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A166" s="1" t="s">
+        <v>365</v>
+      </c>
+      <c r="B166" s="1" t="s">
         <v>366</v>
       </c>
-      <c r="B166" s="1" t="s">
+      <c r="C166" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D166" s="1" t="s">
         <v>367</v>
       </c>
-      <c r="C166" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="D166" s="1" t="s">
-        <v>365</v>
-      </c>
       <c r="E166" s="1" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="F166" s="1" t="s">
         <v>37</v>
@@ -5310,13 +5316,13 @@
         <v>3</v>
       </c>
       <c r="D167" s="1" t="s">
-        <v>365</v>
+        <v>367</v>
       </c>
       <c r="E167" s="1" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="F167" s="1" t="s">
-        <v>5</v>
+        <v>37</v>
       </c>
     </row>
     <row r="168" spans="1:6" x14ac:dyDescent="0.25">
@@ -5330,10 +5336,10 @@
         <v>3</v>
       </c>
       <c r="D168" s="1" t="s">
-        <v>365</v>
+        <v>367</v>
       </c>
       <c r="E168" s="1" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="F168" s="1" t="s">
         <v>5</v>
@@ -5350,10 +5356,10 @@
         <v>3</v>
       </c>
       <c r="D169" s="1" t="s">
-        <v>365</v>
+        <v>367</v>
       </c>
       <c r="E169" s="1" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="F169" s="1" t="s">
         <v>5</v>
@@ -5370,33 +5376,33 @@
         <v>3</v>
       </c>
       <c r="D170" s="1" t="s">
-        <v>376</v>
+        <v>367</v>
       </c>
       <c r="E170" s="1" t="s">
-        <v>4</v>
+        <v>18</v>
       </c>
       <c r="F170" s="1" t="s">
-        <v>138</v>
+        <v>5</v>
       </c>
     </row>
     <row r="171" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A171" s="1" t="s">
+        <v>376</v>
+      </c>
+      <c r="B171" s="1" t="s">
         <v>377</v>
       </c>
-      <c r="B171" s="1" t="s">
+      <c r="C171" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D171" s="1" t="s">
         <v>378</v>
       </c>
-      <c r="C171" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="D171" s="1" t="s">
-        <v>376</v>
-      </c>
       <c r="E171" s="1" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="F171" s="1" t="s">
-        <v>37</v>
+        <v>140</v>
       </c>
     </row>
     <row r="172" spans="1:6" x14ac:dyDescent="0.25">
@@ -5410,13 +5416,13 @@
         <v>3</v>
       </c>
       <c r="D172" s="1" t="s">
-        <v>376</v>
+        <v>378</v>
       </c>
       <c r="E172" s="1" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="F172" s="1" t="s">
-        <v>19</v>
+        <v>37</v>
       </c>
     </row>
     <row r="173" spans="1:6" x14ac:dyDescent="0.25">
@@ -5430,13 +5436,13 @@
         <v>3</v>
       </c>
       <c r="D173" s="1" t="s">
-        <v>376</v>
+        <v>378</v>
       </c>
       <c r="E173" s="1" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="F173" s="1" t="s">
-        <v>37</v>
+        <v>19</v>
       </c>
     </row>
     <row r="174" spans="1:6" x14ac:dyDescent="0.25">
@@ -5450,13 +5456,13 @@
         <v>3</v>
       </c>
       <c r="D174" s="1" t="s">
-        <v>376</v>
+        <v>378</v>
       </c>
       <c r="E174" s="1" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="F174" s="1" t="s">
-        <v>19</v>
+        <v>37</v>
       </c>
     </row>
     <row r="175" spans="1:6" x14ac:dyDescent="0.25">
@@ -5470,10 +5476,10 @@
         <v>3</v>
       </c>
       <c r="D175" s="1" t="s">
-        <v>376</v>
+        <v>378</v>
       </c>
       <c r="E175" s="1" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="F175" s="1" t="s">
         <v>19</v>
@@ -5490,10 +5496,10 @@
         <v>3</v>
       </c>
       <c r="D176" s="1" t="s">
-        <v>389</v>
+        <v>378</v>
       </c>
       <c r="E176" s="1" t="s">
-        <v>4</v>
+        <v>22</v>
       </c>
       <c r="F176" s="1" t="s">
         <v>19</v>
@@ -5501,19 +5507,19 @@
     </row>
     <row r="177" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A177" s="1" t="s">
+        <v>389</v>
+      </c>
+      <c r="B177" s="1" t="s">
         <v>390</v>
       </c>
-      <c r="B177" s="1" t="s">
+      <c r="C177" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D177" s="1" t="s">
         <v>391</v>
       </c>
-      <c r="C177" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="D177" s="1" t="s">
-        <v>389</v>
-      </c>
       <c r="E177" s="1" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="F177" s="1" t="s">
         <v>19</v>
@@ -5530,10 +5536,10 @@
         <v>3</v>
       </c>
       <c r="D178" s="1" t="s">
-        <v>389</v>
+        <v>391</v>
       </c>
       <c r="E178" s="1" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="F178" s="1" t="s">
         <v>19</v>
@@ -5550,30 +5556,30 @@
         <v>3</v>
       </c>
       <c r="D179" s="1" t="s">
-        <v>396</v>
+        <v>391</v>
       </c>
       <c r="E179" s="1" t="s">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="F179" s="1" t="s">
-        <v>37</v>
+        <v>19</v>
       </c>
     </row>
     <row r="180" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A180" s="1" t="s">
+        <v>396</v>
+      </c>
+      <c r="B180" s="1" t="s">
         <v>397</v>
       </c>
-      <c r="B180" s="1" t="s">
+      <c r="C180" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D180" s="1" t="s">
         <v>398</v>
       </c>
-      <c r="C180" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="D180" s="1" t="s">
-        <v>396</v>
-      </c>
       <c r="E180" s="1" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="F180" s="1" t="s">
         <v>37</v>
@@ -5590,10 +5596,10 @@
         <v>3</v>
       </c>
       <c r="D181" s="1" t="s">
-        <v>396</v>
+        <v>398</v>
       </c>
       <c r="E181" s="1" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="F181" s="1" t="s">
         <v>37</v>
@@ -5610,10 +5616,10 @@
         <v>3</v>
       </c>
       <c r="D182" s="1" t="s">
-        <v>396</v>
+        <v>398</v>
       </c>
       <c r="E182" s="1" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="F182" s="1" t="s">
         <v>37</v>
@@ -5630,10 +5636,10 @@
         <v>3</v>
       </c>
       <c r="D183" s="1" t="s">
-        <v>396</v>
+        <v>398</v>
       </c>
       <c r="E183" s="1" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="F183" s="1" t="s">
         <v>37</v>
@@ -5650,10 +5656,10 @@
         <v>3</v>
       </c>
       <c r="D184" s="1" t="s">
-        <v>396</v>
+        <v>398</v>
       </c>
       <c r="E184" s="1" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="F184" s="1" t="s">
         <v>37</v>
@@ -5670,10 +5676,10 @@
         <v>3</v>
       </c>
       <c r="D185" s="1" t="s">
-        <v>396</v>
+        <v>398</v>
       </c>
       <c r="E185" s="1" t="s">
-        <v>86</v>
+        <v>22</v>
       </c>
       <c r="F185" s="1" t="s">
         <v>37</v>
@@ -5690,10 +5696,10 @@
         <v>3</v>
       </c>
       <c r="D186" s="1" t="s">
-        <v>396</v>
+        <v>398</v>
       </c>
       <c r="E186" s="1" t="s">
-        <v>113</v>
+        <v>86</v>
       </c>
       <c r="F186" s="1" t="s">
         <v>37</v>
@@ -5710,13 +5716,13 @@
         <v>3</v>
       </c>
       <c r="D187" s="1" t="s">
-        <v>396</v>
+        <v>398</v>
       </c>
       <c r="E187" s="1" t="s">
         <v>89</v>
       </c>
       <c r="F187" s="1" t="s">
-        <v>12</v>
+        <v>37</v>
       </c>
     </row>
     <row r="188" spans="1:6" x14ac:dyDescent="0.25">
@@ -5730,10 +5736,10 @@
         <v>3</v>
       </c>
       <c r="D188" s="1" t="s">
-        <v>415</v>
+        <v>398</v>
       </c>
       <c r="E188" s="1" t="s">
-        <v>4</v>
+        <v>92</v>
       </c>
       <c r="F188" s="1" t="s">
         <v>12</v>
@@ -5741,19 +5747,19 @@
     </row>
     <row r="189" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A189" s="1" t="s">
+        <v>415</v>
+      </c>
+      <c r="B189" s="1" t="s">
         <v>416</v>
       </c>
-      <c r="B189" s="1" t="s">
+      <c r="C189" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D189" s="1" t="s">
         <v>417</v>
       </c>
-      <c r="C189" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="D189" s="1" t="s">
-        <v>415</v>
-      </c>
       <c r="E189" s="1" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="F189" s="1" t="s">
         <v>12</v>
@@ -5770,13 +5776,13 @@
         <v>3</v>
       </c>
       <c r="D190" s="1" t="s">
-        <v>415</v>
+        <v>417</v>
       </c>
       <c r="E190" s="1" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="F190" s="1" t="s">
-        <v>5</v>
+        <v>12</v>
       </c>
     </row>
     <row r="191" spans="1:6" x14ac:dyDescent="0.25">
@@ -5790,10 +5796,10 @@
         <v>3</v>
       </c>
       <c r="D191" s="1" t="s">
-        <v>415</v>
+        <v>417</v>
       </c>
       <c r="E191" s="1" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="F191" s="1" t="s">
         <v>5</v>
@@ -5810,13 +5816,13 @@
         <v>3</v>
       </c>
       <c r="D192" s="1" t="s">
-        <v>415</v>
+        <v>417</v>
       </c>
       <c r="E192" s="1" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="F192" s="1" t="s">
-        <v>37</v>
+        <v>5</v>
       </c>
     </row>
     <row r="193" spans="1:6" x14ac:dyDescent="0.25">
@@ -5830,10 +5836,10 @@
         <v>3</v>
       </c>
       <c r="D193" s="1" t="s">
-        <v>415</v>
+        <v>417</v>
       </c>
       <c r="E193" s="1" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="F193" s="1" t="s">
         <v>37</v>
@@ -5850,10 +5856,10 @@
         <v>3</v>
       </c>
       <c r="D194" s="1" t="s">
-        <v>415</v>
+        <v>417</v>
       </c>
       <c r="E194" s="1" t="s">
-        <v>86</v>
+        <v>22</v>
       </c>
       <c r="F194" s="1" t="s">
         <v>37</v>
@@ -5870,13 +5876,13 @@
         <v>3</v>
       </c>
       <c r="D195" s="1" t="s">
-        <v>415</v>
+        <v>417</v>
       </c>
       <c r="E195" s="1" t="s">
-        <v>113</v>
+        <v>86</v>
       </c>
       <c r="F195" s="1" t="s">
-        <v>5</v>
+        <v>37</v>
       </c>
     </row>
     <row r="196" spans="1:6" x14ac:dyDescent="0.25">
@@ -5890,30 +5896,30 @@
         <v>3</v>
       </c>
       <c r="D196" s="1" t="s">
-        <v>432</v>
+        <v>417</v>
       </c>
       <c r="E196" s="1" t="s">
-        <v>4</v>
+        <v>89</v>
       </c>
       <c r="F196" s="1" t="s">
-        <v>37</v>
+        <v>5</v>
       </c>
     </row>
     <row r="197" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A197" s="1" t="s">
+        <v>432</v>
+      </c>
+      <c r="B197" s="1" t="s">
         <v>433</v>
       </c>
-      <c r="B197" s="1" t="s">
+      <c r="C197" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D197" s="1" t="s">
         <v>434</v>
       </c>
-      <c r="C197" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="D197" s="1" t="s">
-        <v>432</v>
-      </c>
       <c r="E197" s="1" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="F197" s="1" t="s">
         <v>37</v>
@@ -5930,10 +5936,10 @@
         <v>3</v>
       </c>
       <c r="D198" s="1" t="s">
-        <v>432</v>
+        <v>434</v>
       </c>
       <c r="E198" s="1" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="F198" s="1" t="s">
         <v>37</v>
@@ -5950,13 +5956,13 @@
         <v>3</v>
       </c>
       <c r="D199" s="1" t="s">
-        <v>432</v>
+        <v>434</v>
       </c>
       <c r="E199" s="1" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="F199" s="1" t="s">
-        <v>90</v>
+        <v>37</v>
       </c>
     </row>
     <row r="200" spans="1:6" x14ac:dyDescent="0.25">
@@ -5970,13 +5976,13 @@
         <v>3</v>
       </c>
       <c r="D200" s="1" t="s">
-        <v>432</v>
+        <v>434</v>
       </c>
       <c r="E200" s="1" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="F200" s="1" t="s">
-        <v>37</v>
+        <v>93</v>
       </c>
     </row>
     <row r="201" spans="1:6" x14ac:dyDescent="0.25">
@@ -5990,10 +5996,10 @@
         <v>3</v>
       </c>
       <c r="D201" s="1" t="s">
-        <v>432</v>
+        <v>434</v>
       </c>
       <c r="E201" s="1" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="F201" s="1" t="s">
         <v>37</v>
@@ -6010,10 +6016,10 @@
         <v>3</v>
       </c>
       <c r="D202" s="1" t="s">
-        <v>445</v>
+        <v>434</v>
       </c>
       <c r="E202" s="1" t="s">
-        <v>4</v>
+        <v>22</v>
       </c>
       <c r="F202" s="1" t="s">
         <v>37</v>
@@ -6021,19 +6027,19 @@
     </row>
     <row r="203" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A203" s="1" t="s">
+        <v>445</v>
+      </c>
+      <c r="B203" s="1" t="s">
         <v>446</v>
       </c>
-      <c r="B203" s="1" t="s">
+      <c r="C203" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D203" s="1" t="s">
         <v>447</v>
       </c>
-      <c r="C203" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="D203" s="1" t="s">
-        <v>445</v>
-      </c>
       <c r="E203" s="1" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="F203" s="1" t="s">
         <v>37</v>
@@ -6050,10 +6056,10 @@
         <v>3</v>
       </c>
       <c r="D204" s="1" t="s">
-        <v>445</v>
+        <v>447</v>
       </c>
       <c r="E204" s="1" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="F204" s="1" t="s">
         <v>37</v>
@@ -6070,10 +6076,10 @@
         <v>3</v>
       </c>
       <c r="D205" s="1" t="s">
-        <v>445</v>
+        <v>447</v>
       </c>
       <c r="E205" s="1" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="F205" s="1" t="s">
         <v>37</v>
@@ -6090,10 +6096,10 @@
         <v>3</v>
       </c>
       <c r="D206" s="1" t="s">
-        <v>445</v>
+        <v>447</v>
       </c>
       <c r="E206" s="1" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="F206" s="1" t="s">
         <v>37</v>
@@ -6110,10 +6116,10 @@
         <v>3</v>
       </c>
       <c r="D207" s="1" t="s">
-        <v>445</v>
+        <v>447</v>
       </c>
       <c r="E207" s="1" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="F207" s="1" t="s">
         <v>37</v>
@@ -6130,10 +6136,10 @@
         <v>3</v>
       </c>
       <c r="D208" s="1" t="s">
-        <v>458</v>
+        <v>447</v>
       </c>
       <c r="E208" s="1" t="s">
-        <v>4</v>
+        <v>22</v>
       </c>
       <c r="F208" s="1" t="s">
         <v>37</v>
@@ -6141,19 +6147,19 @@
     </row>
     <row r="209" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A209" s="1" t="s">
+        <v>458</v>
+      </c>
+      <c r="B209" s="1" t="s">
         <v>459</v>
       </c>
-      <c r="B209" s="1" t="s">
+      <c r="C209" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D209" s="1" t="s">
         <v>460</v>
       </c>
-      <c r="C209" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="D209" s="1" t="s">
-        <v>458</v>
-      </c>
       <c r="E209" s="1" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="F209" s="1" t="s">
         <v>37</v>
@@ -6170,10 +6176,10 @@
         <v>3</v>
       </c>
       <c r="D210" s="1" t="s">
-        <v>458</v>
+        <v>460</v>
       </c>
       <c r="E210" s="1" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="F210" s="1" t="s">
         <v>37</v>
@@ -6190,10 +6196,10 @@
         <v>3</v>
       </c>
       <c r="D211" s="1" t="s">
-        <v>458</v>
+        <v>460</v>
       </c>
       <c r="E211" s="1" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="F211" s="1" t="s">
         <v>37</v>
@@ -6210,10 +6216,10 @@
         <v>3</v>
       </c>
       <c r="D212" s="1" t="s">
-        <v>458</v>
+        <v>460</v>
       </c>
       <c r="E212" s="1" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="F212" s="1" t="s">
         <v>37</v>
@@ -6230,10 +6236,10 @@
         <v>3</v>
       </c>
       <c r="D213" s="1" t="s">
-        <v>458</v>
+        <v>460</v>
       </c>
       <c r="E213" s="1" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="F213" s="1" t="s">
         <v>37</v>
@@ -6250,10 +6256,10 @@
         <v>3</v>
       </c>
       <c r="D214" s="1" t="s">
-        <v>458</v>
+        <v>460</v>
       </c>
       <c r="E214" s="1" t="s">
-        <v>86</v>
+        <v>22</v>
       </c>
       <c r="F214" s="1" t="s">
         <v>37</v>
@@ -6270,10 +6276,10 @@
         <v>3</v>
       </c>
       <c r="D215" s="1" t="s">
-        <v>473</v>
+        <v>460</v>
       </c>
       <c r="E215" s="1" t="s">
-        <v>4</v>
+        <v>86</v>
       </c>
       <c r="F215" s="1" t="s">
         <v>37</v>
@@ -6281,19 +6287,19 @@
     </row>
     <row r="216" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A216" s="1" t="s">
+        <v>473</v>
+      </c>
+      <c r="B216" s="1" t="s">
         <v>474</v>
       </c>
-      <c r="B216" s="1" t="s">
+      <c r="C216" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D216" s="1" t="s">
         <v>475</v>
       </c>
-      <c r="C216" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="D216" s="1" t="s">
-        <v>473</v>
-      </c>
       <c r="E216" s="1" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="F216" s="1" t="s">
         <v>37</v>
@@ -6310,10 +6316,10 @@
         <v>3</v>
       </c>
       <c r="D217" s="1" t="s">
-        <v>473</v>
+        <v>475</v>
       </c>
       <c r="E217" s="1" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="F217" s="1" t="s">
         <v>37</v>
@@ -6330,10 +6336,10 @@
         <v>3</v>
       </c>
       <c r="D218" s="1" t="s">
-        <v>473</v>
+        <v>475</v>
       </c>
       <c r="E218" s="1" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="F218" s="1" t="s">
         <v>37</v>
@@ -6350,10 +6356,10 @@
         <v>3</v>
       </c>
       <c r="D219" s="1" t="s">
-        <v>473</v>
+        <v>475</v>
       </c>
       <c r="E219" s="1" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="F219" s="1" t="s">
         <v>37</v>
@@ -6370,10 +6376,10 @@
         <v>3</v>
       </c>
       <c r="D220" s="1" t="s">
-        <v>473</v>
+        <v>475</v>
       </c>
       <c r="E220" s="1" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="F220" s="1" t="s">
         <v>37</v>
@@ -6390,10 +6396,10 @@
         <v>3</v>
       </c>
       <c r="D221" s="1" t="s">
-        <v>473</v>
+        <v>475</v>
       </c>
       <c r="E221" s="1" t="s">
-        <v>86</v>
+        <v>22</v>
       </c>
       <c r="F221" s="1" t="s">
         <v>37</v>
@@ -6410,10 +6416,10 @@
         <v>3</v>
       </c>
       <c r="D222" s="1" t="s">
-        <v>488</v>
+        <v>475</v>
       </c>
       <c r="E222" s="1" t="s">
-        <v>4</v>
+        <v>86</v>
       </c>
       <c r="F222" s="1" t="s">
         <v>37</v>
@@ -6421,19 +6427,19 @@
     </row>
     <row r="223" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A223" s="1" t="s">
+        <v>488</v>
+      </c>
+      <c r="B223" s="1" t="s">
         <v>489</v>
       </c>
-      <c r="B223" s="1" t="s">
+      <c r="C223" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D223" s="1" t="s">
         <v>490</v>
       </c>
-      <c r="C223" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="D223" s="1" t="s">
-        <v>488</v>
-      </c>
       <c r="E223" s="1" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="F223" s="1" t="s">
         <v>37</v>
@@ -6450,10 +6456,10 @@
         <v>3</v>
       </c>
       <c r="D224" s="1" t="s">
-        <v>488</v>
+        <v>490</v>
       </c>
       <c r="E224" s="1" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="F224" s="1" t="s">
         <v>37</v>
@@ -6470,13 +6476,13 @@
         <v>3</v>
       </c>
       <c r="D225" s="1" t="s">
-        <v>488</v>
+        <v>490</v>
       </c>
       <c r="E225" s="1" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="F225" s="1" t="s">
-        <v>90</v>
+        <v>37</v>
       </c>
     </row>
     <row r="226" spans="1:6" x14ac:dyDescent="0.25">
@@ -6490,13 +6496,13 @@
         <v>3</v>
       </c>
       <c r="D226" s="1" t="s">
-        <v>488</v>
+        <v>490</v>
       </c>
       <c r="E226" s="1" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="F226" s="1" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
     </row>
     <row r="227" spans="1:6" x14ac:dyDescent="0.25">
@@ -6510,13 +6516,13 @@
         <v>3</v>
       </c>
       <c r="D227" s="1" t="s">
-        <v>488</v>
+        <v>490</v>
       </c>
       <c r="E227" s="1" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="F227" s="1" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
     </row>
     <row r="228" spans="1:6" x14ac:dyDescent="0.25">
@@ -6530,13 +6536,13 @@
         <v>3</v>
       </c>
       <c r="D228" s="1" t="s">
-        <v>488</v>
+        <v>490</v>
       </c>
       <c r="E228" s="1" t="s">
-        <v>86</v>
+        <v>22</v>
       </c>
       <c r="F228" s="1" t="s">
-        <v>19</v>
+        <v>93</v>
       </c>
     </row>
     <row r="229" spans="1:6" x14ac:dyDescent="0.25">
@@ -6550,13 +6556,13 @@
         <v>3</v>
       </c>
       <c r="D229" s="1" t="s">
-        <v>488</v>
+        <v>490</v>
       </c>
       <c r="E229" s="1" t="s">
-        <v>113</v>
+        <v>86</v>
       </c>
       <c r="F229" s="1" t="s">
-        <v>90</v>
+        <v>19</v>
       </c>
     </row>
     <row r="230" spans="1:6" x14ac:dyDescent="0.25">
@@ -6570,33 +6576,33 @@
         <v>3</v>
       </c>
       <c r="D230" s="1" t="s">
-        <v>505</v>
+        <v>490</v>
       </c>
       <c r="E230" s="1" t="s">
-        <v>4</v>
+        <v>89</v>
       </c>
       <c r="F230" s="1" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
     </row>
     <row r="231" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A231" s="1" t="s">
+        <v>505</v>
+      </c>
+      <c r="B231" s="1" t="s">
         <v>506</v>
       </c>
-      <c r="B231" s="1" t="s">
+      <c r="C231" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D231" s="1" t="s">
         <v>507</v>
       </c>
-      <c r="C231" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="D231" s="1" t="s">
-        <v>505</v>
-      </c>
       <c r="E231" s="1" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="F231" s="1" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
     </row>
     <row r="232" spans="1:6" x14ac:dyDescent="0.25">
@@ -6610,13 +6616,13 @@
         <v>3</v>
       </c>
       <c r="D232" s="1" t="s">
-        <v>505</v>
+        <v>507</v>
       </c>
       <c r="E232" s="1" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="F232" s="1" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
     </row>
     <row r="233" spans="1:6" x14ac:dyDescent="0.25">
@@ -6630,13 +6636,13 @@
         <v>3</v>
       </c>
       <c r="D233" s="1" t="s">
-        <v>505</v>
+        <v>507</v>
       </c>
       <c r="E233" s="1" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="F233" s="1" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
     </row>
     <row r="234" spans="1:6" x14ac:dyDescent="0.25">
@@ -6650,13 +6656,13 @@
         <v>3</v>
       </c>
       <c r="D234" s="1" t="s">
-        <v>505</v>
+        <v>507</v>
       </c>
       <c r="E234" s="1" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="F234" s="1" t="s">
-        <v>37</v>
+        <v>93</v>
       </c>
     </row>
     <row r="235" spans="1:6" x14ac:dyDescent="0.25">
@@ -6670,10 +6676,10 @@
         <v>3</v>
       </c>
       <c r="D235" s="1" t="s">
-        <v>505</v>
+        <v>507</v>
       </c>
       <c r="E235" s="1" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="F235" s="1" t="s">
         <v>37</v>
@@ -6690,10 +6696,10 @@
         <v>3</v>
       </c>
       <c r="D236" s="1" t="s">
-        <v>505</v>
+        <v>507</v>
       </c>
       <c r="E236" s="1" t="s">
-        <v>86</v>
+        <v>22</v>
       </c>
       <c r="F236" s="1" t="s">
         <v>37</v>
@@ -6710,10 +6716,10 @@
         <v>3</v>
       </c>
       <c r="D237" s="1" t="s">
-        <v>505</v>
+        <v>507</v>
       </c>
       <c r="E237" s="1" t="s">
-        <v>113</v>
+        <v>86</v>
       </c>
       <c r="F237" s="1" t="s">
         <v>37</v>
@@ -6730,12 +6736,32 @@
         <v>3</v>
       </c>
       <c r="D238" s="1" t="s">
-        <v>505</v>
+        <v>507</v>
       </c>
       <c r="E238" s="1" t="s">
         <v>89</v>
       </c>
       <c r="F238" s="1" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="239" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A239" s="1" t="s">
+        <v>522</v>
+      </c>
+      <c r="B239" s="1" t="s">
+        <v>523</v>
+      </c>
+      <c r="C239" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D239" s="1" t="s">
+        <v>507</v>
+      </c>
+      <c r="E239" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="F239" s="1" t="s">
         <v>37</v>
       </c>
     </row>
